--- a/AAII_Financials/Quarterly/HCHC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HCHC_QTR_FIN.xlsx
@@ -5,7 +5,7 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Quarterly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\AAII_Financials\Quarterly\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
   <si>
     <t>HCHC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:P102"/>
+  <dimension ref="A5:R102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,206 +665,231 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E7" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F7" s="2">
         <v>43738</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>43646</v>
       </c>
-      <c r="F7" s="2">
+      <c r="H7" s="2">
         <v>43555</v>
       </c>
-      <c r="G7" s="2">
+      <c r="I7" s="2">
         <v>43465</v>
       </c>
-      <c r="H7" s="2">
+      <c r="J7" s="2">
         <v>43373</v>
       </c>
-      <c r="I7" s="2">
+      <c r="K7" s="2">
         <v>43281</v>
       </c>
-      <c r="J7" s="2">
+      <c r="L7" s="2">
         <v>43190</v>
       </c>
-      <c r="K7" s="2">
+      <c r="M7" s="2">
         <v>43100</v>
       </c>
-      <c r="L7" s="2">
+      <c r="N7" s="2">
         <v>43008</v>
       </c>
-      <c r="M7" s="2">
+      <c r="O7" s="2">
         <v>42916</v>
       </c>
-      <c r="N7" s="2">
+      <c r="P7" s="2">
         <v>42825</v>
       </c>
-      <c r="O7" s="2">
+      <c r="Q7" s="2">
         <v>42735</v>
       </c>
-      <c r="P7" s="2">
+      <c r="R7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>444800</v>
+      </c>
+      <c r="E8" s="3">
+        <v>498400</v>
+      </c>
+      <c r="F8" s="3">
         <v>475700</v>
       </c>
-      <c r="E8" s="3">
+      <c r="G8" s="3">
         <v>518600</v>
       </c>
-      <c r="F8" s="3">
-        <v>491400</v>
-      </c>
-      <c r="G8" s="3">
+      <c r="H8" s="3">
+        <v>449000</v>
+      </c>
+      <c r="I8" s="3">
         <v>524900</v>
       </c>
-      <c r="H8" s="3">
+      <c r="J8" s="3">
         <v>501400</v>
       </c>
-      <c r="I8" s="3">
+      <c r="K8" s="3">
         <v>496800</v>
       </c>
-      <c r="J8" s="3">
+      <c r="L8" s="3">
         <v>453700</v>
       </c>
-      <c r="K8" s="3">
+      <c r="M8" s="3">
         <v>458500</v>
       </c>
-      <c r="L8" s="3">
+      <c r="N8" s="3">
         <v>406400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="O8" s="3">
         <v>378700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="P8" s="3">
         <v>390600</v>
       </c>
-      <c r="O8" s="3">
+      <c r="Q8" s="3">
         <v>454000</v>
       </c>
-      <c r="P8" s="3">
+      <c r="R8" s="3">
         <v>413100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>346100</v>
+      </c>
+      <c r="E9" s="3">
+        <v>349000</v>
+      </c>
+      <c r="F9" s="3">
         <v>337000</v>
       </c>
-      <c r="E9" s="3">
+      <c r="G9" s="3">
         <v>381200</v>
       </c>
-      <c r="F9" s="3">
-        <v>357700</v>
-      </c>
-      <c r="G9" s="3">
+      <c r="H9" s="3">
+        <v>324500</v>
+      </c>
+      <c r="I9" s="3">
         <v>406000</v>
       </c>
-      <c r="H9" s="3">
+      <c r="J9" s="3">
         <v>402900</v>
       </c>
-      <c r="I9" s="3">
+      <c r="K9" s="3">
         <v>400600</v>
       </c>
-      <c r="J9" s="3">
+      <c r="L9" s="3">
         <v>375700</v>
       </c>
-      <c r="K9" s="3">
+      <c r="M9" s="3">
         <v>365300</v>
       </c>
-      <c r="L9" s="3">
+      <c r="N9" s="3">
         <v>324700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="O9" s="3">
         <v>308700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="P9" s="3">
         <v>314400</v>
       </c>
-      <c r="O9" s="3">
+      <c r="Q9" s="3">
         <v>361100</v>
       </c>
-      <c r="P9" s="3">
+      <c r="R9" s="3">
         <v>333900</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>98700</v>
+      </c>
+      <c r="E10" s="3">
+        <v>149400</v>
+      </c>
+      <c r="F10" s="3">
         <v>138700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="G10" s="3">
         <v>137400</v>
       </c>
-      <c r="F10" s="3">
-        <v>133700</v>
-      </c>
-      <c r="G10" s="3">
+      <c r="H10" s="3">
+        <v>124500</v>
+      </c>
+      <c r="I10" s="3">
         <v>118900</v>
       </c>
-      <c r="H10" s="3">
+      <c r="J10" s="3">
         <v>98500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="K10" s="3">
         <v>96200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="L10" s="3">
         <v>78000</v>
       </c>
-      <c r="K10" s="3">
+      <c r="M10" s="3">
         <v>93200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="N10" s="3">
         <v>81700</v>
       </c>
-      <c r="M10" s="3">
+      <c r="O10" s="3">
         <v>70000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="P10" s="3">
         <v>76200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="Q10" s="3">
         <v>92900</v>
       </c>
-      <c r="P10" s="3">
+      <c r="R10" s="3">
         <v>79200</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -881,8 +906,10 @@
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="3"/>
+      <c r="R11" s="3"/>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -925,8 +952,14 @@
       <c r="P12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -969,96 +1002,114 @@
       <c r="P13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="3">
+        <v>0</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
-        <v>0</v>
+        <v>5800</v>
       </c>
       <c r="E14" s="3">
+        <v>55000</v>
+      </c>
+      <c r="F14" s="3">
+        <v>0</v>
+      </c>
+      <c r="G14" s="3">
         <v>-1100</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-5500</v>
       </c>
-      <c r="H14" s="3">
+      <c r="J14" s="3">
         <v>-112100</v>
       </c>
-      <c r="I14" s="3">
+      <c r="K14" s="3">
         <v>-102100</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-5400</v>
       </c>
-      <c r="L14" s="3">
+      <c r="N14" s="3">
         <v>-6300</v>
       </c>
-      <c r="M14" s="3">
+      <c r="O14" s="3">
         <v>100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="P14" s="3">
         <v>200</v>
       </c>
-      <c r="O14" s="3">
+      <c r="Q14" s="3">
         <v>11300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="R14" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>600</v>
+      </c>
+      <c r="E15" s="3">
+        <v>8900</v>
+      </c>
+      <c r="F15" s="3">
         <v>8600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="G15" s="3">
         <v>7600</v>
       </c>
-      <c r="F15" s="3">
-        <v>6900</v>
-      </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
+        <v>300</v>
+      </c>
+      <c r="I15" s="3">
         <v>6700</v>
       </c>
-      <c r="H15" s="3">
+      <c r="J15" s="3">
         <v>6300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="K15" s="3">
         <v>9100</v>
       </c>
-      <c r="J15" s="3">
+      <c r="L15" s="3">
         <v>9700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="M15" s="3">
         <v>8700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="N15" s="3">
         <v>7900</v>
       </c>
-      <c r="M15" s="3">
+      <c r="O15" s="3">
         <v>7300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="P15" s="3">
         <v>7400</v>
       </c>
-      <c r="O15" s="3">
+      <c r="Q15" s="3">
         <v>6300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="R15" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1072,96 +1123,110 @@
       <c r="N16" s="3"/>
       <c r="O16" s="3"/>
       <c r="P16" s="3"/>
-    </row>
-    <row r="17" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="3"/>
+      <c r="R16" s="3"/>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>477400</v>
+      </c>
+      <c r="E17" s="3">
+        <v>531400</v>
+      </c>
+      <c r="F17" s="3">
         <v>466100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="G17" s="3">
         <v>486600</v>
       </c>
-      <c r="F17" s="3">
-        <v>469800</v>
-      </c>
-      <c r="G17" s="3">
+      <c r="H17" s="3">
+        <v>423400</v>
+      </c>
+      <c r="I17" s="3">
         <v>531600</v>
       </c>
-      <c r="H17" s="3">
+      <c r="J17" s="3">
         <v>413600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="K17" s="3">
         <v>400200</v>
       </c>
-      <c r="J17" s="3">
+      <c r="L17" s="3">
         <v>467400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="M17" s="3">
         <v>454600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="N17" s="3">
         <v>389500</v>
       </c>
-      <c r="M17" s="3">
+      <c r="O17" s="3">
         <v>389900</v>
       </c>
-      <c r="N17" s="3">
+      <c r="P17" s="3">
         <v>389800</v>
       </c>
-      <c r="O17" s="3">
+      <c r="Q17" s="3">
         <v>457900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="R17" s="3">
         <v>406200</v>
       </c>
     </row>
-    <row r="18" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-32600</v>
+      </c>
+      <c r="E18" s="3">
+        <v>-33000</v>
+      </c>
+      <c r="F18" s="3">
         <v>9600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="G18" s="3">
         <v>32000</v>
       </c>
-      <c r="F18" s="3">
-        <v>21600</v>
-      </c>
-      <c r="G18" s="3">
+      <c r="H18" s="3">
+        <v>25600</v>
+      </c>
+      <c r="I18" s="3">
         <v>-6700</v>
       </c>
-      <c r="H18" s="3">
+      <c r="J18" s="3">
         <v>87800</v>
       </c>
-      <c r="I18" s="3">
+      <c r="K18" s="3">
         <v>96600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="L18" s="3">
         <v>-13700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="M18" s="3">
         <v>3900</v>
       </c>
-      <c r="L18" s="3">
+      <c r="N18" s="3">
         <v>16900</v>
       </c>
-      <c r="M18" s="3">
+      <c r="O18" s="3">
         <v>-11200</v>
       </c>
-      <c r="N18" s="3">
+      <c r="P18" s="3">
         <v>800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="Q18" s="3">
         <v>-3900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="R18" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="19" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1178,228 +1243,260 @@
       <c r="N19" s="3"/>
       <c r="O19" s="3"/>
       <c r="P19" s="3"/>
-    </row>
-    <row r="20" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="3"/>
+      <c r="R19" s="3"/>
+    </row>
+    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>300</v>
+      </c>
+      <c r="E20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="F20" s="3">
         <v>7100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="G20" s="3">
         <v>1400</v>
       </c>
-      <c r="F20" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="G20" s="3">
+      <c r="H20" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="I20" s="3">
         <v>16400</v>
       </c>
-      <c r="H20" s="3">
+      <c r="J20" s="3">
         <v>72000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="K20" s="3">
         <v>9800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="L20" s="3">
         <v>-4100</v>
       </c>
-      <c r="K20" s="3">
+      <c r="M20" s="3">
         <v>500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="N20" s="3">
         <v>900</v>
       </c>
-      <c r="M20" s="3">
+      <c r="O20" s="3">
         <v>900</v>
       </c>
-      <c r="N20" s="3">
+      <c r="P20" s="3">
         <v>2800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="Q20" s="3">
         <v>9000</v>
       </c>
-      <c r="P20" s="3">
+      <c r="R20" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="21" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-29400</v>
+      </c>
+      <c r="E21" s="3">
+        <v>-20300</v>
+      </c>
+      <c r="F21" s="3">
         <v>27400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="G21" s="3">
         <v>43400</v>
       </c>
-      <c r="F21" s="3">
-        <v>29000</v>
-      </c>
-      <c r="G21" s="3">
+      <c r="H21" s="3">
+        <v>32100</v>
+      </c>
+      <c r="I21" s="3">
         <v>18400</v>
       </c>
-      <c r="H21" s="3">
+      <c r="J21" s="3">
         <v>167800</v>
       </c>
-      <c r="I21" s="3">
+      <c r="K21" s="3">
         <v>117200</v>
       </c>
-      <c r="J21" s="3">
+      <c r="L21" s="3">
         <v>-6600</v>
       </c>
-      <c r="K21" s="3">
+      <c r="M21" s="3">
         <v>14600</v>
       </c>
-      <c r="L21" s="3">
+      <c r="N21" s="3">
         <v>26900</v>
       </c>
-      <c r="M21" s="3">
+      <c r="O21" s="3">
         <v>-1800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="P21" s="3">
         <v>12200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="Q21" s="3">
         <v>14300</v>
       </c>
-      <c r="P21" s="3">
+      <c r="R21" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="22" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>21300</v>
+      </c>
+      <c r="E22" s="3">
+        <v>25800</v>
+      </c>
+      <c r="F22" s="3">
         <v>24000</v>
       </c>
-      <c r="E22" s="3">
+      <c r="G22" s="3">
         <v>23000</v>
       </c>
-      <c r="F22" s="3">
-        <v>22300</v>
-      </c>
-      <c r="G22" s="3">
+      <c r="H22" s="3">
+        <v>18800</v>
+      </c>
+      <c r="I22" s="3">
         <v>21700</v>
       </c>
-      <c r="H22" s="3">
+      <c r="J22" s="3">
         <v>17500</v>
       </c>
-      <c r="I22" s="3">
+      <c r="K22" s="3">
         <v>17200</v>
       </c>
-      <c r="J22" s="3">
+      <c r="L22" s="3">
         <v>19300</v>
       </c>
-      <c r="K22" s="3">
+      <c r="M22" s="3">
         <v>15700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="N22" s="3">
         <v>13200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="O22" s="3">
         <v>12100</v>
       </c>
-      <c r="N22" s="3">
+      <c r="P22" s="3">
         <v>14100</v>
       </c>
-      <c r="O22" s="3">
+      <c r="Q22" s="3">
         <v>11800</v>
       </c>
-      <c r="P22" s="3">
+      <c r="R22" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="23" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-53600</v>
+      </c>
+      <c r="E23" s="3">
+        <v>-57500</v>
+      </c>
+      <c r="F23" s="3">
         <v>-7300</v>
       </c>
-      <c r="E23" s="3">
+      <c r="G23" s="3">
         <v>10400</v>
       </c>
-      <c r="F23" s="3">
-        <v>-2300</v>
-      </c>
-      <c r="G23" s="3">
+      <c r="H23" s="3">
+        <v>4300</v>
+      </c>
+      <c r="I23" s="3">
         <v>-12000</v>
       </c>
-      <c r="H23" s="3">
+      <c r="J23" s="3">
         <v>142300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="K23" s="3">
         <v>89200</v>
       </c>
-      <c r="J23" s="3">
+      <c r="L23" s="3">
         <v>-37200</v>
       </c>
-      <c r="K23" s="3">
+      <c r="M23" s="3">
         <v>-11200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="N23" s="3">
         <v>4500</v>
       </c>
-      <c r="M23" s="3">
+      <c r="O23" s="3">
         <v>-22500</v>
       </c>
-      <c r="N23" s="3">
+      <c r="P23" s="3">
         <v>-10600</v>
       </c>
-      <c r="O23" s="3">
+      <c r="Q23" s="3">
         <v>-6700</v>
       </c>
-      <c r="P23" s="3">
+      <c r="R23" s="3">
         <v>-6700</v>
       </c>
     </row>
-    <row r="24" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="E24" s="3">
+        <v>-26800</v>
+      </c>
+      <c r="F24" s="3">
         <v>1000</v>
       </c>
-      <c r="E24" s="3">
+      <c r="G24" s="3">
         <v>1200</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>4000</v>
       </c>
-      <c r="G24" s="3">
+      <c r="I24" s="3">
         <v>500</v>
       </c>
-      <c r="H24" s="3">
+      <c r="J24" s="3">
         <v>-9200</v>
       </c>
-      <c r="I24" s="3">
+      <c r="K24" s="3">
         <v>9500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="L24" s="3">
         <v>1600</v>
       </c>
-      <c r="K24" s="3">
+      <c r="M24" s="3">
         <v>-26500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="N24" s="3">
         <v>12900</v>
       </c>
-      <c r="M24" s="3">
+      <c r="O24" s="3">
         <v>-2000</v>
       </c>
-      <c r="N24" s="3">
+      <c r="P24" s="3">
         <v>5300</v>
       </c>
-      <c r="O24" s="3">
+      <c r="Q24" s="3">
         <v>55300</v>
       </c>
-      <c r="P24" s="3">
+      <c r="R24" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="25" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1442,96 +1539,114 @@
       <c r="P25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="3">
+        <v>0</v>
+      </c>
+      <c r="R25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-41000</v>
+      </c>
+      <c r="E26" s="3">
+        <v>-30700</v>
+      </c>
+      <c r="F26" s="3">
         <v>-8300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="G26" s="3">
         <v>9200</v>
       </c>
-      <c r="F26" s="3">
-        <v>-6300</v>
-      </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>300</v>
+      </c>
+      <c r="I26" s="3">
         <v>-12600</v>
       </c>
-      <c r="H26" s="3">
+      <c r="J26" s="3">
         <v>151500</v>
       </c>
-      <c r="I26" s="3">
+      <c r="K26" s="3">
         <v>79800</v>
       </c>
-      <c r="J26" s="3">
+      <c r="L26" s="3">
         <v>-38900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="M26" s="3">
         <v>15300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="N26" s="3">
         <v>-8300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="O26" s="3">
         <v>-20500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="P26" s="3">
         <v>-15900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="Q26" s="3">
         <v>-62000</v>
       </c>
-      <c r="P26" s="3">
+      <c r="R26" s="3">
         <v>-5400</v>
       </c>
     </row>
-    <row r="27" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-23500</v>
+      </c>
+      <c r="E27" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="F27" s="3">
         <v>-7500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="G27" s="3">
         <v>9000</v>
       </c>
-      <c r="F27" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I27" s="3">
         <v>-16100</v>
       </c>
-      <c r="H27" s="3">
+      <c r="J27" s="3">
         <v>152800</v>
       </c>
-      <c r="I27" s="3">
+      <c r="K27" s="3">
         <v>54700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="L27" s="3">
         <v>-35700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="M27" s="3">
         <v>11900</v>
       </c>
-      <c r="L27" s="3">
+      <c r="N27" s="3">
         <v>-6700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="O27" s="3">
         <v>-18700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="P27" s="3">
         <v>-15100</v>
       </c>
-      <c r="O27" s="3">
+      <c r="Q27" s="3">
         <v>-67300</v>
       </c>
-      <c r="P27" s="3">
+      <c r="R27" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="28" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1574,13 +1689,19 @@
       <c r="P28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q28" s="3">
+        <v>0</v>
+      </c>
+      <c r="R28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D29" s="3" t="s">
-        <v>8</v>
+      <c r="D29" s="3">
+        <v>-60000</v>
       </c>
       <c r="E29" s="3" t="s">
         <v>8</v>
@@ -1588,38 +1709,44 @@
       <c r="F29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="G29" s="3">
-        <v>0</v>
-      </c>
-      <c r="H29" s="3" t="s">
+      <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I29" s="3" t="s">
-        <v>8</v>
+      <c r="H29" s="3">
+        <v>-6600</v>
+      </c>
+      <c r="I29" s="3">
+        <v>0</v>
       </c>
       <c r="J29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K29" s="3">
-        <v>-21100</v>
+      <c r="K29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>-21100</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
-        <v>0</v>
-      </c>
-      <c r="P29" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
+        <v>0</v>
+      </c>
+      <c r="R29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1662,8 +1789,14 @@
       <c r="P30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q30" s="3">
+        <v>0</v>
+      </c>
+      <c r="R30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1706,96 +1839,114 @@
       <c r="P31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q31" s="3">
+        <v>0</v>
+      </c>
+      <c r="R31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="F32" s="3">
         <v>-7100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="G32" s="3">
         <v>-1400</v>
       </c>
-      <c r="F32" s="3">
-        <v>1600</v>
-      </c>
-      <c r="G32" s="3">
+      <c r="H32" s="3">
+        <v>2500</v>
+      </c>
+      <c r="I32" s="3">
         <v>-16400</v>
       </c>
-      <c r="H32" s="3">
+      <c r="J32" s="3">
         <v>-72000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="K32" s="3">
         <v>-9800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="L32" s="3">
         <v>4100</v>
       </c>
-      <c r="K32" s="3">
+      <c r="M32" s="3">
         <v>-500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="N32" s="3">
         <v>-900</v>
       </c>
-      <c r="M32" s="3">
+      <c r="O32" s="3">
         <v>-900</v>
       </c>
-      <c r="N32" s="3">
+      <c r="P32" s="3">
         <v>-2800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="Q32" s="3">
         <v>-9000</v>
       </c>
-      <c r="P32" s="3">
+      <c r="R32" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="33" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-83500</v>
+      </c>
+      <c r="E33" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="F33" s="3">
         <v>-7500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="G33" s="3">
         <v>9000</v>
       </c>
-      <c r="F33" s="3">
+      <c r="H33" s="3">
         <v>-1600</v>
       </c>
-      <c r="G33" s="3">
+      <c r="I33" s="3">
         <v>-16100</v>
       </c>
-      <c r="H33" s="3">
+      <c r="J33" s="3">
         <v>152800</v>
       </c>
-      <c r="I33" s="3">
+      <c r="K33" s="3">
         <v>54700</v>
       </c>
-      <c r="J33" s="3">
+      <c r="L33" s="3">
         <v>-35700</v>
       </c>
-      <c r="K33" s="3">
+      <c r="M33" s="3">
         <v>-9200</v>
       </c>
-      <c r="L33" s="3">
+      <c r="N33" s="3">
         <v>-6700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="O33" s="3">
         <v>-18700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="P33" s="3">
         <v>-15100</v>
       </c>
-      <c r="O33" s="3">
+      <c r="Q33" s="3">
         <v>-67300</v>
       </c>
-      <c r="P33" s="3">
+      <c r="R33" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="34" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1838,101 +1989,119 @@
       <c r="P34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q34" s="3">
+        <v>0</v>
+      </c>
+      <c r="R34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-83500</v>
+      </c>
+      <c r="E35" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="F35" s="3">
         <v>-7500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="G35" s="3">
         <v>9000</v>
       </c>
-      <c r="F35" s="3">
+      <c r="H35" s="3">
         <v>-1600</v>
       </c>
-      <c r="G35" s="3">
+      <c r="I35" s="3">
         <v>-16100</v>
       </c>
-      <c r="H35" s="3">
+      <c r="J35" s="3">
         <v>152800</v>
       </c>
-      <c r="I35" s="3">
+      <c r="K35" s="3">
         <v>54700</v>
       </c>
-      <c r="J35" s="3">
+      <c r="L35" s="3">
         <v>-35700</v>
       </c>
-      <c r="K35" s="3">
+      <c r="M35" s="3">
         <v>-9200</v>
       </c>
-      <c r="L35" s="3">
+      <c r="N35" s="3">
         <v>-6700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="O35" s="3">
         <v>-18700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="P35" s="3">
         <v>-15100</v>
       </c>
-      <c r="O35" s="3">
+      <c r="Q35" s="3">
         <v>-67300</v>
       </c>
-      <c r="P35" s="3">
+      <c r="R35" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="37" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E38" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F38" s="2">
         <v>43738</v>
       </c>
-      <c r="E38" s="2">
+      <c r="G38" s="2">
         <v>43646</v>
       </c>
-      <c r="F38" s="2">
+      <c r="H38" s="2">
         <v>43555</v>
       </c>
-      <c r="G38" s="2">
+      <c r="I38" s="2">
         <v>43465</v>
       </c>
-      <c r="H38" s="2">
+      <c r="J38" s="2">
         <v>43373</v>
       </c>
-      <c r="I38" s="2">
+      <c r="K38" s="2">
         <v>43281</v>
       </c>
-      <c r="J38" s="2">
+      <c r="L38" s="2">
         <v>43190</v>
       </c>
-      <c r="K38" s="2">
+      <c r="M38" s="2">
         <v>43100</v>
       </c>
-      <c r="L38" s="2">
+      <c r="N38" s="2">
         <v>43008</v>
       </c>
-      <c r="M38" s="2">
+      <c r="O38" s="2">
         <v>42916</v>
       </c>
-      <c r="N38" s="2">
+      <c r="P38" s="2">
         <v>42825</v>
       </c>
-      <c r="O38" s="2">
+      <c r="Q38" s="2">
         <v>42735</v>
       </c>
-      <c r="P38" s="2">
+      <c r="R38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1949,8 +2118,10 @@
       <c r="N39" s="3"/>
       <c r="O39" s="3"/>
       <c r="P39" s="3"/>
-    </row>
-    <row r="40" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+    </row>
+    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1967,140 +2138,160 @@
       <c r="N40" s="3"/>
       <c r="O40" s="3"/>
       <c r="P40" s="3"/>
-    </row>
-    <row r="41" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q40" s="3"/>
+      <c r="R40" s="3"/>
+    </row>
+    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>186900</v>
+      </c>
+      <c r="E41" s="3">
+        <v>239000</v>
+      </c>
+      <c r="F41" s="3">
         <v>276900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="G41" s="3">
         <v>280400</v>
       </c>
-      <c r="F41" s="3">
+      <c r="H41" s="3">
         <v>302200</v>
       </c>
-      <c r="G41" s="3">
+      <c r="I41" s="3">
         <v>325000</v>
       </c>
-      <c r="H41" s="3">
+      <c r="J41" s="3">
         <v>831600</v>
       </c>
-      <c r="I41" s="3">
+      <c r="K41" s="3">
         <v>112300</v>
       </c>
-      <c r="J41" s="3">
+      <c r="L41" s="3">
         <v>92100</v>
       </c>
-      <c r="K41" s="3">
+      <c r="M41" s="3">
         <v>97900</v>
       </c>
-      <c r="L41" s="3">
+      <c r="N41" s="3">
         <v>130800</v>
       </c>
-      <c r="M41" s="3">
+      <c r="O41" s="3">
         <v>143100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="P41" s="3">
         <v>127000</v>
       </c>
-      <c r="O41" s="3">
+      <c r="Q41" s="3">
         <v>115400</v>
       </c>
-      <c r="P41" s="3">
+      <c r="R41" s="3">
         <v>121300</v>
       </c>
     </row>
-    <row r="42" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3">
-        <v>4349000</v>
+        <v>0</v>
       </c>
       <c r="E42" s="3">
-        <v>4198100</v>
+        <v>0</v>
       </c>
       <c r="F42" s="3">
-        <v>4023400</v>
+        <v>0</v>
       </c>
       <c r="G42" s="3">
-        <v>3822000</v>
+        <v>0</v>
       </c>
       <c r="H42" s="3">
-        <v>3381200</v>
+        <v>0</v>
       </c>
       <c r="I42" s="3">
+        <v>0</v>
+      </c>
+      <c r="J42" s="3">
+        <v>0</v>
+      </c>
+      <c r="K42" s="3">
         <v>1502600</v>
       </c>
-      <c r="J42" s="3">
+      <c r="L42" s="3">
         <v>1543400</v>
       </c>
-      <c r="K42" s="3">
+      <c r="M42" s="3">
         <v>1543600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="N42" s="3">
         <v>1521600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="O42" s="3">
         <v>1513300</v>
       </c>
-      <c r="N42" s="3">
+      <c r="P42" s="3">
         <v>1475000</v>
       </c>
-      <c r="O42" s="3">
+      <c r="Q42" s="3">
         <v>1427900</v>
       </c>
-      <c r="P42" s="3">
+      <c r="R42" s="3">
         <v>1476200</v>
       </c>
     </row>
-    <row r="43" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>333300</v>
+      </c>
+      <c r="E43" s="3">
+        <v>337800</v>
+      </c>
+      <c r="F43" s="3">
         <v>293300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="G43" s="3">
         <v>350700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="H43" s="3">
         <v>328400</v>
       </c>
-      <c r="G43" s="3">
+      <c r="I43" s="3">
         <v>379200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="J43" s="3">
         <v>350900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="K43" s="3">
         <v>346700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="L43" s="3">
         <v>327500</v>
       </c>
-      <c r="K43" s="3">
+      <c r="M43" s="3">
         <v>322400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="N43" s="3">
         <v>265100</v>
       </c>
-      <c r="M43" s="3">
+      <c r="O43" s="3">
         <v>250500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="P43" s="3">
         <v>228100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="Q43" s="3">
         <v>283500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="R43" s="3">
         <v>288500</v>
       </c>
     </row>
-    <row r="44" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2134,128 +2325,146 @@
       <c r="M44" s="3">
         <v>0</v>
       </c>
-      <c r="N44" s="3" t="s">
+      <c r="N44" s="3">
+        <v>0</v>
+      </c>
+      <c r="O44" s="3">
+        <v>0</v>
+      </c>
+      <c r="P44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O44" s="3">
+      <c r="Q44" s="3">
         <v>9600</v>
       </c>
-      <c r="P44" s="3">
+      <c r="R44" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="45" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>949900</v>
+        <v>0</v>
       </c>
       <c r="E45" s="3">
-        <v>963700</v>
+        <v>0</v>
       </c>
       <c r="F45" s="3">
-        <v>977600</v>
+        <v>0</v>
       </c>
       <c r="G45" s="3">
-        <v>1002300</v>
+        <v>0</v>
       </c>
       <c r="H45" s="3">
-        <v>1306100</v>
+        <v>0</v>
       </c>
       <c r="I45" s="3">
+        <v>0</v>
+      </c>
+      <c r="J45" s="3">
+        <v>0</v>
+      </c>
+      <c r="K45" s="3">
         <v>532300</v>
       </c>
-      <c r="J45" s="3">
+      <c r="L45" s="3">
         <v>530400</v>
       </c>
-      <c r="K45" s="3">
+      <c r="M45" s="3">
         <v>528000</v>
       </c>
-      <c r="L45" s="3">
+      <c r="N45" s="3">
         <v>531100</v>
       </c>
-      <c r="M45" s="3">
+      <c r="O45" s="3">
         <v>528200</v>
       </c>
-      <c r="N45" s="3">
+      <c r="P45" s="3">
         <v>525300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="Q45" s="3">
         <v>541000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="R45" s="3">
         <v>587300</v>
       </c>
     </row>
-    <row r="46" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>5869100</v>
+        <v>0</v>
       </c>
       <c r="E46" s="3">
-        <v>5792900</v>
+        <v>0</v>
       </c>
       <c r="F46" s="3">
-        <v>5631600</v>
+        <v>0</v>
       </c>
       <c r="G46" s="3">
-        <v>5528500</v>
+        <v>0</v>
       </c>
       <c r="H46" s="3">
-        <v>5869800</v>
+        <v>0</v>
       </c>
       <c r="I46" s="3">
+        <v>0</v>
+      </c>
+      <c r="J46" s="3">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
         <v>2493800</v>
       </c>
-      <c r="J46" s="3">
+      <c r="L46" s="3">
         <v>2493300</v>
       </c>
-      <c r="K46" s="3">
+      <c r="M46" s="3">
         <v>2491900</v>
       </c>
-      <c r="L46" s="3">
+      <c r="N46" s="3">
         <v>2448600</v>
       </c>
-      <c r="M46" s="3">
+      <c r="O46" s="3">
         <v>2435100</v>
       </c>
-      <c r="N46" s="3">
+      <c r="P46" s="3">
         <v>2355300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="Q46" s="3">
         <v>2336200</v>
       </c>
-      <c r="P46" s="3">
+      <c r="R46" s="3">
         <v>2482300</v>
       </c>
     </row>
-    <row r="47" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>0</v>
+        <v>4056800</v>
       </c>
       <c r="E47" s="3">
-        <v>0</v>
+        <v>4409000</v>
       </c>
       <c r="F47" s="3">
-        <v>0</v>
+        <v>4349000</v>
       </c>
       <c r="G47" s="3">
-        <v>0</v>
+        <v>4198100</v>
       </c>
       <c r="H47" s="3">
-        <v>0</v>
+        <v>4023400</v>
       </c>
       <c r="I47" s="3">
-        <v>0</v>
+        <v>3822000</v>
       </c>
       <c r="J47" s="3">
-        <v>0</v>
+        <v>3381200</v>
       </c>
       <c r="K47" s="3">
         <v>0</v>
@@ -2275,96 +2484,114 @@
       <c r="P47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q47" s="3">
+        <v>0</v>
+      </c>
+      <c r="R47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>223400</v>
+      </c>
+      <c r="E48" s="3">
         <v>405800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
+        <v>405800</v>
+      </c>
+      <c r="G48" s="3">
         <v>416400</v>
       </c>
-      <c r="F48" s="3">
+      <c r="H48" s="3">
         <v>376600</v>
       </c>
-      <c r="G48" s="3">
+      <c r="I48" s="3">
         <v>376300</v>
       </c>
-      <c r="H48" s="3">
+      <c r="J48" s="3">
         <v>369800</v>
       </c>
-      <c r="I48" s="3">
+      <c r="K48" s="3">
         <v>368900</v>
       </c>
-      <c r="J48" s="3">
+      <c r="L48" s="3">
         <v>372400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="M48" s="3">
         <v>374700</v>
       </c>
-      <c r="L48" s="3">
+      <c r="N48" s="3">
         <v>282100</v>
       </c>
-      <c r="M48" s="3">
+      <c r="O48" s="3">
         <v>282700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="P48" s="3">
         <v>284300</v>
       </c>
-      <c r="O48" s="3">
+      <c r="Q48" s="3">
         <v>461000</v>
       </c>
-      <c r="P48" s="3">
+      <c r="R48" s="3">
         <v>244200</v>
       </c>
     </row>
-    <row r="49" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>332100</v>
+      </c>
+      <c r="E49" s="3">
+        <v>353800</v>
+      </c>
+      <c r="F49" s="3">
         <v>400800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="G49" s="3">
         <v>403300</v>
       </c>
-      <c r="F49" s="3">
+      <c r="H49" s="3">
         <v>393400</v>
       </c>
-      <c r="G49" s="3">
+      <c r="I49" s="3">
         <v>390900</v>
       </c>
-      <c r="H49" s="3">
+      <c r="J49" s="3">
         <v>278100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="K49" s="3">
         <v>249100</v>
       </c>
-      <c r="J49" s="3">
+      <c r="L49" s="3">
         <v>251900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="M49" s="3">
         <v>248800</v>
       </c>
-      <c r="L49" s="3">
+      <c r="N49" s="3">
         <v>132800</v>
       </c>
-      <c r="M49" s="3">
+      <c r="O49" s="3">
         <v>134700</v>
       </c>
-      <c r="N49" s="3">
+      <c r="P49" s="3">
         <v>136500</v>
       </c>
-      <c r="O49" s="3">
+      <c r="Q49" s="3">
         <v>137800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="R49" s="3">
         <v>125200</v>
       </c>
     </row>
-    <row r="50" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2407,8 +2634,14 @@
       <c r="P50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q50" s="3">
+        <v>0</v>
+      </c>
+      <c r="R50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2451,52 +2684,64 @@
       <c r="P51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q51" s="3">
+        <v>0</v>
+      </c>
+      <c r="R51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>269800</v>
+        <v>2200</v>
       </c>
       <c r="E52" s="3">
-        <v>270600</v>
+        <v>2700</v>
       </c>
       <c r="F52" s="3">
-        <v>280800</v>
+        <v>2000</v>
       </c>
       <c r="G52" s="3">
-        <v>208100</v>
+        <v>2300</v>
       </c>
       <c r="H52" s="3">
-        <v>212400</v>
+        <v>1800</v>
       </c>
       <c r="I52" s="3">
+        <v>2100</v>
+      </c>
+      <c r="J52" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K52" s="3">
         <v>142500</v>
       </c>
-      <c r="J52" s="3">
+      <c r="L52" s="3">
         <v>109700</v>
       </c>
-      <c r="K52" s="3">
+      <c r="M52" s="3">
         <v>102300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="N52" s="3">
         <v>107900</v>
       </c>
-      <c r="M52" s="3">
+      <c r="O52" s="3">
         <v>88800</v>
       </c>
-      <c r="N52" s="3">
+      <c r="P52" s="3">
         <v>80300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="Q52" s="3">
         <v>75300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="R52" s="3">
         <v>36300</v>
       </c>
     </row>
-    <row r="53" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2539,52 +2784,64 @@
       <c r="P53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q53" s="3">
+        <v>0</v>
+      </c>
+      <c r="R53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6339100</v>
+      </c>
+      <c r="E54" s="3">
+        <v>6958300</v>
+      </c>
+      <c r="F54" s="3">
         <v>6945500</v>
       </c>
-      <c r="E54" s="3">
+      <c r="G54" s="3">
         <v>6883200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="H54" s="3">
         <v>6682400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="I54" s="3">
         <v>6503800</v>
       </c>
-      <c r="H54" s="3">
+      <c r="J54" s="3">
         <v>6730000</v>
       </c>
-      <c r="I54" s="3">
+      <c r="K54" s="3">
         <v>3254300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="L54" s="3">
         <v>3227300</v>
       </c>
-      <c r="K54" s="3">
+      <c r="M54" s="3">
         <v>3217700</v>
       </c>
-      <c r="L54" s="3">
+      <c r="N54" s="3">
         <v>2971300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="O54" s="3">
         <v>2941300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="P54" s="3">
         <v>2856400</v>
       </c>
-      <c r="O54" s="3">
+      <c r="Q54" s="3">
         <v>2835300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="R54" s="3">
         <v>2888000</v>
       </c>
     </row>
-    <row r="55" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2601,8 +2858,10 @@
       <c r="N55" s="3"/>
       <c r="O55" s="3"/>
       <c r="P55" s="3"/>
-    </row>
-    <row r="56" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q55" s="3"/>
+      <c r="R55" s="3"/>
+    </row>
+    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2619,52 +2878,60 @@
       <c r="N56" s="3"/>
       <c r="O56" s="3"/>
       <c r="P56" s="3"/>
-    </row>
-    <row r="57" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q56" s="3"/>
+      <c r="R56" s="3"/>
+    </row>
+    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>147400</v>
+      </c>
+      <c r="E57" s="3">
+        <v>190400</v>
+      </c>
+      <c r="F57" s="3">
         <v>129300</v>
       </c>
-      <c r="E57" s="3">
+      <c r="G57" s="3">
         <v>133100</v>
       </c>
-      <c r="F57" s="3">
+      <c r="H57" s="3">
         <v>132400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="I57" s="3">
         <v>104700</v>
       </c>
-      <c r="H57" s="3">
+      <c r="J57" s="3">
         <v>111600</v>
       </c>
-      <c r="I57" s="3">
+      <c r="K57" s="3">
         <v>100200</v>
       </c>
-      <c r="J57" s="3">
+      <c r="L57" s="3">
         <v>111900</v>
       </c>
-      <c r="K57" s="3">
+      <c r="M57" s="3">
         <v>119200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="N57" s="3">
         <v>70200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="O57" s="3">
         <v>75000</v>
       </c>
-      <c r="N57" s="3">
+      <c r="P57" s="3">
         <v>60500</v>
       </c>
-      <c r="O57" s="3">
+      <c r="Q57" s="3">
         <v>282800</v>
       </c>
-      <c r="P57" s="3" t="s">
+      <c r="R57" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2707,184 +2974,214 @@
       <c r="P58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q58" s="3">
+        <v>0</v>
+      </c>
+      <c r="R58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>5206300</v>
+        <v>187000</v>
       </c>
       <c r="E59" s="3">
-        <v>5212700</v>
+        <v>149200</v>
       </c>
       <c r="F59" s="3">
-        <v>5216400</v>
+        <v>199800</v>
       </c>
       <c r="G59" s="3">
-        <v>5292100</v>
+        <v>205400</v>
       </c>
       <c r="H59" s="3">
-        <v>5446500</v>
+        <v>187900</v>
       </c>
       <c r="I59" s="3">
+        <v>240200</v>
+      </c>
+      <c r="J59" s="3">
+        <v>241600</v>
+      </c>
+      <c r="K59" s="3">
         <v>2202200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="L59" s="3">
         <v>2218300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="M59" s="3">
         <v>2208300</v>
       </c>
-      <c r="L59" s="3">
+      <c r="N59" s="3">
         <v>2197600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="O59" s="3">
         <v>2158300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="P59" s="3">
         <v>2137000</v>
       </c>
-      <c r="O59" s="3">
+      <c r="Q59" s="3">
         <v>2175600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="R59" s="3">
         <v>2223700</v>
       </c>
     </row>
-    <row r="60" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>5335600</v>
+        <v>0</v>
       </c>
       <c r="E60" s="3">
-        <v>5345800</v>
+        <v>0</v>
       </c>
       <c r="F60" s="3">
-        <v>5348800</v>
+        <v>0</v>
       </c>
       <c r="G60" s="3">
-        <v>5396800</v>
+        <v>0</v>
       </c>
       <c r="H60" s="3">
-        <v>5558100</v>
+        <v>0</v>
       </c>
       <c r="I60" s="3">
+        <v>0</v>
+      </c>
+      <c r="J60" s="3">
+        <v>0</v>
+      </c>
+      <c r="K60" s="3">
         <v>2302400</v>
       </c>
-      <c r="J60" s="3">
+      <c r="L60" s="3">
         <v>2330200</v>
       </c>
-      <c r="K60" s="3">
+      <c r="M60" s="3">
         <v>2327600</v>
       </c>
-      <c r="L60" s="3">
+      <c r="N60" s="3">
         <v>2267700</v>
       </c>
-      <c r="M60" s="3">
+      <c r="O60" s="3">
         <v>2233300</v>
       </c>
-      <c r="N60" s="3">
+      <c r="P60" s="3">
         <v>2197500</v>
       </c>
-      <c r="O60" s="3">
+      <c r="Q60" s="3">
         <v>2199200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="R60" s="3">
         <v>2223700</v>
       </c>
     </row>
-    <row r="61" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>686000</v>
+      </c>
+      <c r="E61" s="3">
+        <v>839300</v>
+      </c>
+      <c r="F61" s="3">
         <v>820400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="G61" s="3">
         <v>828200</v>
       </c>
-      <c r="F61" s="3">
+      <c r="H61" s="3">
         <v>762000</v>
       </c>
-      <c r="G61" s="3">
+      <c r="I61" s="3">
         <v>743900</v>
       </c>
-      <c r="H61" s="3">
+      <c r="J61" s="3">
         <v>702200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="K61" s="3">
         <v>668500</v>
       </c>
-      <c r="J61" s="3">
+      <c r="L61" s="3">
         <v>655400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="M61" s="3">
         <v>593200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="N61" s="3">
         <v>496600</v>
       </c>
-      <c r="M61" s="3">
+      <c r="O61" s="3">
         <v>494700</v>
       </c>
-      <c r="N61" s="3">
+      <c r="P61" s="3">
         <v>445600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="Q61" s="3">
         <v>428500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="R61" s="3">
         <v>396700</v>
       </c>
     </row>
-    <row r="62" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>266800</v>
+        <v>24400</v>
       </c>
       <c r="E62" s="3">
-        <v>257800</v>
+        <v>83700</v>
       </c>
       <c r="F62" s="3">
-        <v>221800</v>
+        <v>83700</v>
       </c>
       <c r="G62" s="3">
-        <v>141100</v>
+        <v>59900</v>
       </c>
       <c r="H62" s="3">
-        <v>142000</v>
+        <v>34600</v>
       </c>
       <c r="I62" s="3">
+        <v>30300</v>
+      </c>
+      <c r="J62" s="3">
+        <v>33900</v>
+      </c>
+      <c r="K62" s="3">
         <v>88200</v>
       </c>
-      <c r="J62" s="3">
+      <c r="L62" s="3">
         <v>85900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="M62" s="3">
         <v>80900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="N62" s="3">
         <v>97300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="O62" s="3">
         <v>113500</v>
       </c>
-      <c r="N62" s="3">
+      <c r="P62" s="3">
         <v>114300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="Q62" s="3">
         <v>130400</v>
       </c>
-      <c r="P62" s="3">
+      <c r="R62" s="3">
         <v>45600</v>
       </c>
     </row>
-    <row r="63" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2927,8 +3224,14 @@
       <c r="P63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q63" s="3">
+        <v>0</v>
+      </c>
+      <c r="R63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2971,8 +3274,14 @@
       <c r="P64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q64" s="3">
+        <v>0</v>
+      </c>
+      <c r="R64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3015,52 +3324,64 @@
       <c r="P65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q65" s="3">
+        <v>0</v>
+      </c>
+      <c r="R65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6314700</v>
+      </c>
+      <c r="E66" s="3">
+        <v>6598200</v>
+      </c>
+      <c r="F66" s="3">
         <v>6530400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="G66" s="3">
         <v>6543000</v>
       </c>
-      <c r="F66" s="3">
+      <c r="H66" s="3">
         <v>6439000</v>
       </c>
-      <c r="G66" s="3">
+      <c r="I66" s="3">
         <v>6395400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="J66" s="3">
         <v>6519100</v>
       </c>
-      <c r="I66" s="3">
+      <c r="K66" s="3">
         <v>3176700</v>
       </c>
-      <c r="J66" s="3">
+      <c r="L66" s="3">
         <v>3186700</v>
       </c>
-      <c r="K66" s="3">
+      <c r="M66" s="3">
         <v>3118200</v>
       </c>
-      <c r="L66" s="3">
+      <c r="N66" s="3">
         <v>2882000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="O66" s="3">
         <v>2863800</v>
       </c>
-      <c r="N66" s="3">
+      <c r="P66" s="3">
         <v>2782400</v>
       </c>
-      <c r="O66" s="3">
+      <c r="Q66" s="3">
         <v>2761600</v>
       </c>
-      <c r="P66" s="3">
+      <c r="R66" s="3">
         <v>2692300</v>
       </c>
     </row>
-    <row r="67" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3077,8 +3398,10 @@
       <c r="N67" s="3"/>
       <c r="O67" s="3"/>
       <c r="P67" s="3"/>
-    </row>
-    <row r="68" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q67" s="3"/>
+      <c r="R67" s="3"/>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3121,8 +3444,14 @@
       <c r="P68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q68" s="3">
+        <v>0</v>
+      </c>
+      <c r="R68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3165,8 +3494,14 @@
       <c r="P69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q69" s="3">
+        <v>0</v>
+      </c>
+      <c r="R69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3180,13 +3515,13 @@
         <v>10300</v>
       </c>
       <c r="G70" s="3">
+        <v>10300</v>
+      </c>
+      <c r="H70" s="3">
+        <v>10300</v>
+      </c>
+      <c r="I70" s="3">
         <v>20300</v>
-      </c>
-      <c r="H70" s="3">
-        <v>26300</v>
-      </c>
-      <c r="I70" s="3">
-        <v>26300</v>
       </c>
       <c r="J70" s="3">
         <v>26300</v>
@@ -3201,16 +3536,22 @@
         <v>26300</v>
       </c>
       <c r="N70" s="3">
+        <v>26300</v>
+      </c>
+      <c r="O70" s="3">
+        <v>26300</v>
+      </c>
+      <c r="P70" s="3">
         <v>29500</v>
       </c>
-      <c r="O70" s="3">
+      <c r="Q70" s="3">
         <v>29500</v>
       </c>
-      <c r="P70" s="3">
+      <c r="R70" s="3">
         <v>43700</v>
       </c>
     </row>
-    <row r="71" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3253,52 +3594,64 @@
       <c r="P71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q71" s="3">
+        <v>0</v>
+      </c>
+      <c r="R71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-179800</v>
+      </c>
+      <c r="E72" s="3">
+        <v>-96700</v>
+      </c>
+      <c r="F72" s="3">
         <v>-62000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="G72" s="3">
         <v>-54900</v>
       </c>
-      <c r="F72" s="3">
+      <c r="H72" s="3">
         <v>-64300</v>
       </c>
-      <c r="G72" s="3">
+      <c r="I72" s="3">
         <v>-57200</v>
       </c>
-      <c r="H72" s="3">
+      <c r="J72" s="3">
         <v>-43700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="K72" s="3">
         <v>-197100</v>
       </c>
-      <c r="J72" s="3">
+      <c r="L72" s="3">
         <v>-252200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="M72" s="3">
         <v>-221200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="N72" s="3">
         <v>-212700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="O72" s="3">
         <v>-206700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="P72" s="3">
         <v>-188800</v>
       </c>
-      <c r="O72" s="3">
+      <c r="Q72" s="3">
         <v>-174300</v>
       </c>
-      <c r="P72" s="3">
+      <c r="R72" s="3">
         <v>-112800</v>
       </c>
     </row>
-    <row r="73" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3341,8 +3694,14 @@
       <c r="P73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q73" s="3">
+        <v>0</v>
+      </c>
+      <c r="R73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3385,8 +3744,14 @@
       <c r="P74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q74" s="3">
+        <v>0</v>
+      </c>
+      <c r="R74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3429,52 +3794,64 @@
       <c r="P75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q75" s="3">
+        <v>0</v>
+      </c>
+      <c r="R75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>14100</v>
+      </c>
+      <c r="E76" s="3">
+        <v>349800</v>
+      </c>
+      <c r="F76" s="3">
         <v>404800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="G76" s="3">
         <v>329900</v>
       </c>
-      <c r="F76" s="3">
+      <c r="H76" s="3">
         <v>233100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="I76" s="3">
         <v>88100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="J76" s="3">
         <v>184600</v>
       </c>
-      <c r="I76" s="3">
+      <c r="K76" s="3">
         <v>51300</v>
       </c>
-      <c r="J76" s="3">
+      <c r="L76" s="3">
         <v>14300</v>
       </c>
-      <c r="K76" s="3">
+      <c r="M76" s="3">
         <v>73200</v>
       </c>
-      <c r="L76" s="3">
+      <c r="N76" s="3">
         <v>63000</v>
       </c>
-      <c r="M76" s="3">
+      <c r="O76" s="3">
         <v>51200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="P76" s="3">
         <v>44500</v>
       </c>
-      <c r="O76" s="3">
+      <c r="Q76" s="3">
         <v>44200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="R76" s="3">
         <v>152000</v>
       </c>
     </row>
-    <row r="77" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3517,101 +3894,119 @@
       <c r="P77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:16" x14ac:dyDescent="0.2">
+      <c r="Q77" s="3">
+        <v>0</v>
+      </c>
+      <c r="R77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43921</v>
+      </c>
+      <c r="E80" s="2">
+        <v>43830</v>
+      </c>
+      <c r="F80" s="2">
         <v>43738</v>
       </c>
-      <c r="E80" s="2">
+      <c r="G80" s="2">
         <v>43646</v>
       </c>
-      <c r="F80" s="2">
+      <c r="H80" s="2">
         <v>43555</v>
       </c>
-      <c r="G80" s="2">
+      <c r="I80" s="2">
         <v>43465</v>
       </c>
-      <c r="H80" s="2">
+      <c r="J80" s="2">
         <v>43373</v>
       </c>
-      <c r="I80" s="2">
+      <c r="K80" s="2">
         <v>43281</v>
       </c>
-      <c r="J80" s="2">
+      <c r="L80" s="2">
         <v>43190</v>
       </c>
-      <c r="K80" s="2">
+      <c r="M80" s="2">
         <v>43100</v>
       </c>
-      <c r="L80" s="2">
+      <c r="N80" s="2">
         <v>43008</v>
       </c>
-      <c r="M80" s="2">
+      <c r="O80" s="2">
         <v>42916</v>
       </c>
-      <c r="N80" s="2">
+      <c r="P80" s="2">
         <v>42825</v>
       </c>
-      <c r="O80" s="2">
+      <c r="Q80" s="2">
         <v>42735</v>
       </c>
-      <c r="P80" s="2">
+      <c r="R80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-83500</v>
+      </c>
+      <c r="E81" s="3">
+        <v>-31400</v>
+      </c>
+      <c r="F81" s="3">
         <v>-7500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="G81" s="3">
         <v>9000</v>
       </c>
-      <c r="F81" s="3">
+      <c r="H81" s="3">
         <v>-1600</v>
       </c>
-      <c r="G81" s="3">
+      <c r="I81" s="3">
         <v>-16100</v>
       </c>
-      <c r="H81" s="3">
+      <c r="J81" s="3">
         <v>152800</v>
       </c>
-      <c r="I81" s="3">
+      <c r="K81" s="3">
         <v>54700</v>
       </c>
-      <c r="J81" s="3">
+      <c r="L81" s="3">
         <v>-35700</v>
       </c>
-      <c r="K81" s="3">
+      <c r="M81" s="3">
         <v>-9200</v>
       </c>
-      <c r="L81" s="3">
+      <c r="N81" s="3">
         <v>-6700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="O81" s="3">
         <v>-18700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="P81" s="3">
         <v>-15100</v>
       </c>
-      <c r="O81" s="3">
+      <c r="Q81" s="3">
         <v>-67300</v>
       </c>
-      <c r="P81" s="3">
+      <c r="R81" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="82" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -3628,52 +4023,60 @@
       <c r="N82" s="3"/>
       <c r="O82" s="3"/>
       <c r="P82" s="3"/>
-    </row>
-    <row r="83" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q82" s="3"/>
+      <c r="R82" s="3"/>
+    </row>
+    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>2900</v>
+      </c>
+      <c r="E83" s="3">
+        <v>11400</v>
+      </c>
+      <c r="F83" s="3">
         <v>10700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="G83" s="3">
         <v>10000</v>
       </c>
-      <c r="F83" s="3">
+      <c r="H83" s="3">
         <v>9000</v>
       </c>
-      <c r="G83" s="3">
+      <c r="I83" s="3">
         <v>8700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="J83" s="3">
         <v>8000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="K83" s="3">
         <v>10700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="L83" s="3">
         <v>11300</v>
       </c>
-      <c r="K83" s="3">
+      <c r="M83" s="3">
         <v>10100</v>
       </c>
-      <c r="L83" s="3">
+      <c r="N83" s="3">
         <v>9200</v>
       </c>
-      <c r="M83" s="3">
+      <c r="O83" s="3">
         <v>8600</v>
       </c>
-      <c r="N83" s="3">
+      <c r="P83" s="3">
         <v>8600</v>
       </c>
-      <c r="O83" s="3">
+      <c r="Q83" s="3">
         <v>9300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="R83" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="84" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -3716,8 +4119,14 @@
       <c r="P84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q84" s="3">
+        <v>0</v>
+      </c>
+      <c r="R84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -3760,8 +4169,14 @@
       <c r="P85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q85" s="3">
+        <v>0</v>
+      </c>
+      <c r="R85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -3804,8 +4219,14 @@
       <c r="P86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q86" s="3">
+        <v>0</v>
+      </c>
+      <c r="R86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -3848,8 +4269,14 @@
       <c r="P87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q87" s="3">
+        <v>0</v>
+      </c>
+      <c r="R87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -3892,52 +4319,64 @@
       <c r="P88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q88" s="3">
+        <v>0</v>
+      </c>
+      <c r="R88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>36100</v>
+      </c>
+      <c r="E89" s="3">
+        <v>15000</v>
+      </c>
+      <c r="F89" s="3">
         <v>58700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="G89" s="3">
         <v>-1300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="H89" s="3">
         <v>38100</v>
       </c>
-      <c r="G89" s="3">
+      <c r="I89" s="3">
         <v>204700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="J89" s="3">
         <v>177800</v>
       </c>
-      <c r="I89" s="3">
+      <c r="K89" s="3">
         <v>-42000</v>
       </c>
-      <c r="J89" s="3">
+      <c r="L89" s="3">
         <v>800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="M89" s="3">
         <v>-31100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="N89" s="3">
         <v>20300</v>
       </c>
-      <c r="M89" s="3">
+      <c r="O89" s="3">
         <v>-15900</v>
       </c>
-      <c r="N89" s="3">
+      <c r="P89" s="3">
         <v>32800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="Q89" s="3">
         <v>24200</v>
       </c>
-      <c r="P89" s="3">
+      <c r="R89" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="90" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -3954,52 +4393,60 @@
       <c r="N90" s="3"/>
       <c r="O90" s="3"/>
       <c r="P90" s="3"/>
-    </row>
-    <row r="91" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q90" s="3"/>
+      <c r="R90" s="3"/>
+    </row>
+    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-6100</v>
+      </c>
+      <c r="E91" s="3">
+        <v>-14000</v>
+      </c>
+      <c r="F91" s="3">
         <v>-8200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="G91" s="3">
         <v>-12800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="H91" s="3">
         <v>-6400</v>
       </c>
-      <c r="G91" s="3">
+      <c r="I91" s="3">
         <v>-7400</v>
       </c>
-      <c r="H91" s="3">
+      <c r="J91" s="3">
         <v>-12100</v>
       </c>
-      <c r="I91" s="3">
+      <c r="K91" s="3">
         <v>-11000</v>
       </c>
-      <c r="J91" s="3">
+      <c r="L91" s="3">
         <v>-9200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="M91" s="3">
         <v>-6600</v>
       </c>
-      <c r="L91" s="3">
+      <c r="N91" s="3">
         <v>-8300</v>
       </c>
-      <c r="M91" s="3">
+      <c r="O91" s="3">
         <v>-7600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="P91" s="3">
         <v>-9400</v>
       </c>
-      <c r="O91" s="3">
+      <c r="Q91" s="3">
         <v>-7400</v>
       </c>
-      <c r="P91" s="3">
+      <c r="R91" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4042,8 +4489,14 @@
       <c r="P92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q92" s="3">
+        <v>0</v>
+      </c>
+      <c r="R92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4086,52 +4539,64 @@
       <c r="P93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q93" s="3">
+        <v>0</v>
+      </c>
+      <c r="R93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>67100</v>
+      </c>
+      <c r="E94" s="3">
+        <v>-62200</v>
+      </c>
+      <c r="F94" s="3">
         <v>-46900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="G94" s="3">
         <v>-96200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="H94" s="3">
         <v>-58400</v>
       </c>
-      <c r="G94" s="3">
+      <c r="I94" s="3">
         <v>-750000</v>
       </c>
-      <c r="H94" s="3">
+      <c r="J94" s="3">
         <v>509000</v>
       </c>
-      <c r="I94" s="3">
+      <c r="K94" s="3">
         <v>73100</v>
       </c>
-      <c r="J94" s="3">
+      <c r="L94" s="3">
         <v>-56700</v>
       </c>
-      <c r="K94" s="3">
+      <c r="M94" s="3">
         <v>-72300</v>
       </c>
-      <c r="L94" s="3">
+      <c r="N94" s="3">
         <v>-28400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="O94" s="3">
         <v>-9800</v>
       </c>
-      <c r="N94" s="3">
+      <c r="P94" s="3">
         <v>-28800</v>
       </c>
-      <c r="O94" s="3">
+      <c r="Q94" s="3">
         <v>-60100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="R94" s="3">
         <v>-14300</v>
       </c>
     </row>
-    <row r="95" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4148,8 +4613,10 @@
       <c r="N95" s="3"/>
       <c r="O95" s="3"/>
       <c r="P95" s="3"/>
-    </row>
-    <row r="96" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q95" s="3"/>
+      <c r="R95" s="3"/>
+    </row>
+    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4175,25 +4642,31 @@
         <v>0</v>
       </c>
       <c r="K96" s="3">
-        <v>-900</v>
+        <v>0</v>
       </c>
       <c r="L96" s="3">
-        <v>-500</v>
+        <v>0</v>
       </c>
       <c r="M96" s="3">
         <v>-900</v>
       </c>
       <c r="N96" s="3">
+        <v>-500</v>
+      </c>
+      <c r="O96" s="3">
+        <v>-900</v>
+      </c>
+      <c r="P96" s="3">
         <v>-1300</v>
       </c>
-      <c r="O96" s="3">
+      <c r="Q96" s="3">
         <v>-1200</v>
       </c>
-      <c r="P96" s="3">
+      <c r="R96" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="97" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4236,8 +4709,14 @@
       <c r="P97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q97" s="3">
+        <v>0</v>
+      </c>
+      <c r="R97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4280,8 +4759,14 @@
       <c r="P98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q98" s="3">
+        <v>0</v>
+      </c>
+      <c r="R98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4324,136 +4809,160 @@
       <c r="P99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:16" x14ac:dyDescent="0.2">
+      <c r="Q99" s="3">
+        <v>0</v>
+      </c>
+      <c r="R99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-145800</v>
+      </c>
+      <c r="E100" s="3">
+        <v>9000</v>
+      </c>
+      <c r="F100" s="3">
         <v>-15600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="G100" s="3">
         <v>75400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="H100" s="3">
         <v>-6400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="I100" s="3">
         <v>39500</v>
       </c>
-      <c r="H100" s="3">
+      <c r="J100" s="3">
         <v>32600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="K100" s="3">
         <v>-6100</v>
       </c>
-      <c r="J100" s="3">
+      <c r="L100" s="3">
         <v>49200</v>
       </c>
-      <c r="K100" s="3">
+      <c r="M100" s="3">
         <v>69900</v>
       </c>
-      <c r="L100" s="3">
+      <c r="N100" s="3">
         <v>-3600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="O100" s="3">
         <v>42600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="P100" s="3">
         <v>6500</v>
       </c>
-      <c r="O100" s="3">
+      <c r="Q100" s="3">
         <v>29700</v>
       </c>
-      <c r="P100" s="3">
+      <c r="R100" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="101" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>500</v>
+      </c>
+      <c r="E101" s="3">
+        <v>400</v>
+      </c>
+      <c r="F101" s="3">
         <v>300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="G101" s="3">
         <v>200</v>
       </c>
-      <c r="F101" s="3">
+      <c r="H101" s="3">
         <v>100</v>
       </c>
-      <c r="G101" s="3">
+      <c r="I101" s="3">
         <v>-100</v>
       </c>
-      <c r="H101" s="3">
+      <c r="J101" s="3">
         <v>-100</v>
       </c>
-      <c r="I101" s="3">
+      <c r="K101" s="3">
         <v>-1100</v>
       </c>
-      <c r="J101" s="3">
+      <c r="L101" s="3">
         <v>800</v>
       </c>
-      <c r="K101" s="3">
+      <c r="M101" s="3">
         <v>400</v>
       </c>
-      <c r="L101" s="3">
+      <c r="N101" s="3">
         <v>-500</v>
       </c>
-      <c r="M101" s="3">
+      <c r="O101" s="3">
         <v>-800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="P101" s="3">
         <v>1100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="Q101" s="3">
         <v>400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="R101" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="102" spans="3:16" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-42100</v>
+      </c>
+      <c r="E102" s="3">
+        <v>-37800</v>
+      </c>
+      <c r="F102" s="3">
         <v>-3500</v>
       </c>
-      <c r="E102" s="3">
+      <c r="G102" s="3">
         <v>-21900</v>
       </c>
-      <c r="F102" s="3">
+      <c r="H102" s="3">
         <v>-26600</v>
       </c>
-      <c r="G102" s="3">
+      <c r="I102" s="3">
         <v>-505800</v>
       </c>
-      <c r="H102" s="3">
+      <c r="J102" s="3">
         <v>719300</v>
       </c>
-      <c r="I102" s="3">
+      <c r="K102" s="3">
         <v>23900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="L102" s="3">
         <v>-5900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="M102" s="3">
         <v>-33100</v>
       </c>
-      <c r="L102" s="3">
+      <c r="N102" s="3">
         <v>-12200</v>
       </c>
-      <c r="M102" s="3">
+      <c r="O102" s="3">
         <v>16100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="P102" s="3">
         <v>11600</v>
       </c>
-      <c r="O102" s="3">
+      <c r="Q102" s="3">
         <v>-6000</v>
       </c>
-      <c r="P102" s="3">
+      <c r="R102" s="3">
         <v>-13200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HCHC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HCHC_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:R102"/>
+  <dimension ref="A5:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,231 +665,244 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E7" s="2">
         <v>43921</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43830</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43738</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43646</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43555</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43465</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43373</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43281</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43190</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43100</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43008</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>42916</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42825</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42735</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>377000</v>
+      </c>
+      <c r="E8" s="3">
         <v>444800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>498400</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>475700</v>
       </c>
-      <c r="G8" s="3">
-        <v>518600</v>
-      </c>
       <c r="H8" s="3">
+        <v>479200</v>
+      </c>
+      <c r="I8" s="3">
         <v>449000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>524900</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>501400</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>496800</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>453700</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>458500</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>406400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>378700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>390600</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>454000</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>413100</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>262100</v>
+      </c>
+      <c r="E9" s="3">
         <v>346100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>349000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>337000</v>
       </c>
-      <c r="G9" s="3">
-        <v>381200</v>
-      </c>
       <c r="H9" s="3">
+        <v>731800</v>
+      </c>
+      <c r="I9" s="3">
         <v>324500</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>406000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>402900</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>400600</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>375700</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>365300</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>324700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>308700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>314400</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>361100</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>333900</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>114900</v>
+      </c>
+      <c r="E10" s="3">
         <v>98700</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>149400</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>138700</v>
       </c>
-      <c r="G10" s="3">
-        <v>137400</v>
-      </c>
       <c r="H10" s="3">
+        <v>-252600</v>
+      </c>
+      <c r="I10" s="3">
         <v>124500</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>118900</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>98500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>96200</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>78000</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>93200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>81700</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>70000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>76200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>92900</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>79200</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -908,8 +921,9 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S11" s="3"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -958,8 +972,11 @@
       <c r="R12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1008,108 +1025,117 @@
       <c r="R13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="S13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E14" s="3">
         <v>5800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>55000</v>
       </c>
-      <c r="F14" s="3">
-        <v>0</v>
-      </c>
       <c r="G14" s="3">
+        <v>0</v>
+      </c>
+      <c r="H14" s="3">
         <v>-1100</v>
       </c>
-      <c r="H14" s="3">
-        <v>0</v>
-      </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-5500</v>
       </c>
-      <c r="J14" s="3">
+      <c r="K14" s="3">
         <v>-112100</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-102100</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-5400</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-6300</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>100</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>200</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>11300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E15" s="3">
         <v>600</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>8900</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>8600</v>
       </c>
-      <c r="G15" s="3">
-        <v>7600</v>
-      </c>
       <c r="H15" s="3">
+        <v>1200</v>
+      </c>
+      <c r="I15" s="3">
         <v>300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>6700</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>6300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>9100</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>9700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>8700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>7900</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>7300</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>7400</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>6300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1125,108 +1151,115 @@
       <c r="P16" s="3"/>
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
-    </row>
-    <row r="17" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S16" s="3"/>
+    </row>
+    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>375500</v>
+      </c>
+      <c r="E17" s="3">
         <v>477400</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>531400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>466100</v>
       </c>
-      <c r="G17" s="3">
-        <v>486600</v>
-      </c>
       <c r="H17" s="3">
+        <v>444500</v>
+      </c>
+      <c r="I17" s="3">
         <v>423400</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>531600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>413600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>400200</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>467400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>454600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>389500</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>389900</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>389800</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>457900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>406200</v>
       </c>
     </row>
-    <row r="18" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>1500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-32600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-33000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>9600</v>
       </c>
-      <c r="G18" s="3">
-        <v>32000</v>
-      </c>
       <c r="H18" s="3">
+        <v>34700</v>
+      </c>
+      <c r="I18" s="3">
         <v>25600</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>-6700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>87800</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>96600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-13700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>3900</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>16900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-11200</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>800</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-3900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="19" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1245,258 +1278,274 @@
       <c r="P19" s="3"/>
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
-    </row>
-    <row r="20" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S19" s="3"/>
+    </row>
+    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>63800</v>
+      </c>
+      <c r="E20" s="3">
         <v>300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>1300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>7100</v>
       </c>
-      <c r="G20" s="3">
-        <v>1400</v>
-      </c>
       <c r="H20" s="3">
+        <v>2400</v>
+      </c>
+      <c r="I20" s="3">
         <v>-2500</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>16400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>72000</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>9800</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-4100</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>500</v>
-      </c>
-      <c r="N20" s="3">
-        <v>900</v>
       </c>
       <c r="O20" s="3">
         <v>900</v>
       </c>
       <c r="P20" s="3">
+        <v>900</v>
+      </c>
+      <c r="Q20" s="3">
         <v>2800</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>9000</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="21" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>68700</v>
+      </c>
+      <c r="E21" s="3">
         <v>-29400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-20300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>27400</v>
       </c>
-      <c r="G21" s="3">
-        <v>43400</v>
-      </c>
       <c r="H21" s="3">
+        <v>47100</v>
+      </c>
+      <c r="I21" s="3">
         <v>32100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>18400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>167800</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>117200</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>-6600</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>14600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>26900</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-1800</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>12200</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>14300</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="22" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>21400</v>
+      </c>
+      <c r="E22" s="3">
         <v>21300</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>25800</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>24000</v>
       </c>
-      <c r="G22" s="3">
-        <v>23000</v>
-      </c>
       <c r="H22" s="3">
+        <v>19100</v>
+      </c>
+      <c r="I22" s="3">
         <v>18800</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>21700</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>17500</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>17200</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>19300</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>15700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>13200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>12100</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>14100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>11800</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="23" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>43900</v>
+      </c>
+      <c r="E23" s="3">
         <v>-53600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-57500</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-7300</v>
       </c>
-      <c r="G23" s="3">
-        <v>10400</v>
-      </c>
       <c r="H23" s="3">
+        <v>18000</v>
+      </c>
+      <c r="I23" s="3">
         <v>4300</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-12000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>142300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>89200</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-37200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-11200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>4500</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-22500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-10600</v>
-      </c>
-      <c r="Q23" s="3">
-        <v>-6700</v>
       </c>
       <c r="R23" s="3">
         <v>-6700</v>
       </c>
-    </row>
-    <row r="24" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S23" s="3">
+        <v>-6700</v>
+      </c>
+    </row>
+    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>15400</v>
+      </c>
+      <c r="E24" s="3">
         <v>-12600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-26800</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1000</v>
       </c>
-      <c r="G24" s="3">
-        <v>1200</v>
-      </c>
       <c r="H24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="I24" s="3">
         <v>4000</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>500</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>-9200</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>9500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>1600</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-26500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>12900</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-2000</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>5300</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>55300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="25" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1545,108 +1594,117 @@
       <c r="R25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>28500</v>
+      </c>
+      <c r="E26" s="3">
         <v>-41000</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-30700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-8300</v>
       </c>
-      <c r="G26" s="3">
-        <v>9200</v>
-      </c>
       <c r="H26" s="3">
+        <v>16900</v>
+      </c>
+      <c r="I26" s="3">
         <v>300</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-12600</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>151500</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>79800</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-38900</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>15300</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-8300</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-20500</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-15900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-62000</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-5400</v>
       </c>
     </row>
-    <row r="27" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-23500</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-31400</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-7500</v>
       </c>
-      <c r="G27" s="3">
-        <v>9000</v>
-      </c>
       <c r="H27" s="3">
+        <v>16700</v>
+      </c>
+      <c r="I27" s="3">
         <v>5000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-16100</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>152800</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>54700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-35700</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>11900</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-6700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-18700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-15100</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-67300</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="28" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1695,16 +1753,19 @@
       <c r="R28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>0</v>
+      </c>
+      <c r="E29" s="3">
         <v>-60000</v>
-      </c>
-      <c r="E29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>8</v>
@@ -1713,13 +1774,13 @@
         <v>8</v>
       </c>
       <c r="H29" s="3">
+        <v>-7700</v>
+      </c>
+      <c r="I29" s="3">
         <v>-6600</v>
       </c>
-      <c r="I29" s="3">
-        <v>0</v>
-      </c>
-      <c r="J29" s="3" t="s">
-        <v>8</v>
+      <c r="J29" s="3">
+        <v>0</v>
       </c>
       <c r="K29" s="3" t="s">
         <v>8</v>
@@ -1727,11 +1788,11 @@
       <c r="L29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="3">
+      <c r="M29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="N29" s="3">
         <v>-21100</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1739,14 +1800,17 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
-        <v>0</v>
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="R29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1795,8 +1859,11 @@
       <c r="R30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1845,108 +1912,117 @@
       <c r="R31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-63800</v>
+      </c>
+      <c r="E32" s="3">
         <v>-300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-1300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-7100</v>
       </c>
-      <c r="G32" s="3">
-        <v>-1400</v>
-      </c>
       <c r="H32" s="3">
+        <v>-2400</v>
+      </c>
+      <c r="I32" s="3">
         <v>2500</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-16400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-72000</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-9800</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>4100</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-500</v>
-      </c>
-      <c r="N32" s="3">
-        <v>-900</v>
       </c>
       <c r="O32" s="3">
         <v>-900</v>
       </c>
       <c r="P32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="Q32" s="3">
         <v>-2800</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-9000</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="33" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E33" s="3">
         <v>-83500</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-31400</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-7500</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>9000</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-1600</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-16100</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>152800</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>54700</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-35700</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-9200</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-6700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-18700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-15100</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-67300</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="34" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,113 +2071,122 @@
       <c r="R34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E35" s="3">
         <v>-83500</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-31400</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-7500</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>9000</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-1600</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-16100</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>152800</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>54700</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-35700</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-9200</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-6700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-18700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-15100</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-67300</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="37" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E38" s="2">
         <v>43921</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43830</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43738</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43646</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43555</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43465</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43373</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43281</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43190</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43100</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43008</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>42916</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42825</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42735</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2120,8 +2205,9 @@
       <c r="P39" s="3"/>
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
-    </row>
-    <row r="40" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S39" s="3"/>
+    </row>
+    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2140,58 +2226,62 @@
       <c r="P40" s="3"/>
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
-    </row>
-    <row r="41" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S40" s="3"/>
+    </row>
+    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>203800</v>
+      </c>
+      <c r="E41" s="3">
         <v>186900</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>239000</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>276900</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>280400</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>302200</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>325000</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>831600</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>112300</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>92100</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>97900</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>130800</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>143100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>127000</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>115400</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>121300</v>
       </c>
     </row>
-    <row r="42" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2217,81 +2307,87 @@
         <v>0</v>
       </c>
       <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3">
         <v>1502600</v>
       </c>
-      <c r="L42" s="3">
+      <c r="M42" s="3">
         <v>1543400</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1543600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1521600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1513300</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1475000</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1427900</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1476200</v>
       </c>
     </row>
-    <row r="43" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>261200</v>
+      </c>
+      <c r="E43" s="3">
         <v>333300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>337800</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>293300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>350700</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>328400</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>379200</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>350900</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>346700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>327500</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>322400</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>265100</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>250500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>228100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>283500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>288500</v>
       </c>
     </row>
-    <row r="44" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2331,17 +2427,20 @@
       <c r="O44" s="3">
         <v>0</v>
       </c>
-      <c r="P44" s="3" t="s">
+      <c r="P44" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q44" s="3">
+      <c r="R44" s="3">
         <v>9600</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="45" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2367,31 +2466,34 @@
         <v>0</v>
       </c>
       <c r="K45" s="3">
+        <v>0</v>
+      </c>
+      <c r="L45" s="3">
         <v>532300</v>
       </c>
-      <c r="L45" s="3">
+      <c r="M45" s="3">
         <v>530400</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>528000</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>531100</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>528200</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>525300</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>541000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>587300</v>
       </c>
     </row>
-    <row r="46" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2417,58 +2519,61 @@
         <v>0</v>
       </c>
       <c r="K46" s="3">
+        <v>0</v>
+      </c>
+      <c r="L46" s="3">
         <v>2493800</v>
       </c>
-      <c r="L46" s="3">
+      <c r="M46" s="3">
         <v>2493300</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2491900</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2448600</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2435100</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2355300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2336200</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2482300</v>
       </c>
     </row>
-    <row r="47" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>4398200</v>
+      </c>
+      <c r="E47" s="3">
         <v>4056800</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>4409000</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>4349000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>4198100</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>4023400</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>3822000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>3381200</v>
       </c>
-      <c r="K47" s="3">
-        <v>0</v>
-      </c>
       <c r="L47" s="3">
         <v>0</v>
       </c>
@@ -2490,108 +2595,117 @@
       <c r="R47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>220200</v>
+      </c>
+      <c r="E48" s="3">
         <v>223400</v>
-      </c>
-      <c r="E48" s="3">
-        <v>405800</v>
       </c>
       <c r="F48" s="3">
         <v>405800</v>
       </c>
       <c r="G48" s="3">
+        <v>405800</v>
+      </c>
+      <c r="H48" s="3">
         <v>416400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>376600</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>376300</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>369800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>368900</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>372400</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>374700</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>282100</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>282700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>284300</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>461000</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>244200</v>
       </c>
     </row>
-    <row r="49" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>330800</v>
+      </c>
+      <c r="E49" s="3">
         <v>332100</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>353800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>400800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>403300</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>393400</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>390900</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>278100</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>249100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>251900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>248800</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>132800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>134700</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>136500</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>137800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>125200</v>
       </c>
     </row>
-    <row r="50" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2640,8 +2754,11 @@
       <c r="R50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2690,8 +2807,11 @@
       <c r="R51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -2699,49 +2819,52 @@
         <v>2200</v>
       </c>
       <c r="E52" s="3">
+        <v>2200</v>
+      </c>
+      <c r="F52" s="3">
         <v>2700</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>2000</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2300</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>1800</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2100</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1000</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>142500</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>109700</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>102300</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>107900</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>88800</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>80300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>75300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>36300</v>
       </c>
     </row>
-    <row r="53" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2790,58 +2913,64 @@
       <c r="R53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6633300</v>
+      </c>
+      <c r="E54" s="3">
         <v>6339100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6958300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6945500</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6883200</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6682400</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6503800</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6730000</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>3254300</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3227300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3217700</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>2971300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2941300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2856400</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2835300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2888000</v>
       </c>
     </row>
-    <row r="55" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2860,8 +2989,9 @@
       <c r="P55" s="3"/>
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
-    </row>
-    <row r="56" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S55" s="3"/>
+    </row>
+    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,58 +3010,62 @@
       <c r="P56" s="3"/>
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
-    </row>
-    <row r="57" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S56" s="3"/>
+    </row>
+    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>114900</v>
+      </c>
+      <c r="E57" s="3">
         <v>147400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>190400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>129300</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>133100</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>132400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>104700</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>111600</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>100200</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>111900</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>119200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>70200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>75000</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>60500</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>282800</v>
       </c>
-      <c r="R57" s="3" t="s">
+      <c r="S57" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -2980,58 +3114,64 @@
       <c r="R58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>168100</v>
+      </c>
+      <c r="E59" s="3">
         <v>187000</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>149200</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>199800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>205400</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>187900</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>240200</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>241600</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>2202200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2218300</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2208300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2197600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2158300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2137000</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2175600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2223700</v>
       </c>
     </row>
-    <row r="60" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3057,131 +3197,140 @@
         <v>0</v>
       </c>
       <c r="K60" s="3">
+        <v>0</v>
+      </c>
+      <c r="L60" s="3">
         <v>2302400</v>
       </c>
-      <c r="L60" s="3">
+      <c r="M60" s="3">
         <v>2330200</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2327600</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2267700</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2233300</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2197500</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2199200</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2223700</v>
       </c>
     </row>
-    <row r="61" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>633800</v>
+      </c>
+      <c r="E61" s="3">
         <v>686000</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>839300</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>820400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>828200</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>762000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>743900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>702200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>668500</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>655400</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>593200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>496600</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>494700</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>445600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>428500</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>396700</v>
       </c>
     </row>
-    <row r="62" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>101600</v>
+      </c>
+      <c r="E62" s="3">
         <v>24400</v>
-      </c>
-      <c r="E62" s="3">
-        <v>83700</v>
       </c>
       <c r="F62" s="3">
         <v>83700</v>
       </c>
       <c r="G62" s="3">
+        <v>83700</v>
+      </c>
+      <c r="H62" s="3">
         <v>59900</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>34600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>30300</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>33900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>88200</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>85900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>80900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>97300</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>113500</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>114300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>130400</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>45600</v>
       </c>
     </row>
-    <row r="63" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3230,8 +3379,11 @@
       <c r="R63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3280,8 +3432,11 @@
       <c r="R64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3330,58 +3485,64 @@
       <c r="R65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6303700</v>
+      </c>
+      <c r="E66" s="3">
         <v>6314700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6598200</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6530400</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6543000</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6439000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6395400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6519100</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>3176700</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3186700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3118200</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>2882000</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2863800</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2782400</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2761600</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2692300</v>
       </c>
     </row>
-    <row r="67" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3400,8 +3561,9 @@
       <c r="P67" s="3"/>
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
-    </row>
-    <row r="68" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S67" s="3"/>
+    </row>
+    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3450,8 +3612,11 @@
       <c r="R68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3500,8 +3665,11 @@
       <c r="R69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -3521,10 +3689,10 @@
         <v>10300</v>
       </c>
       <c r="I70" s="3">
+        <v>10300</v>
+      </c>
+      <c r="J70" s="3">
         <v>20300</v>
-      </c>
-      <c r="J70" s="3">
-        <v>26300</v>
       </c>
       <c r="K70" s="3">
         <v>26300</v>
@@ -3542,16 +3710,19 @@
         <v>26300</v>
       </c>
       <c r="P70" s="3">
-        <v>29500</v>
+        <v>26300</v>
       </c>
       <c r="Q70" s="3">
         <v>29500</v>
       </c>
       <c r="R70" s="3">
+        <v>29500</v>
+      </c>
+      <c r="S70" s="3">
         <v>43700</v>
       </c>
     </row>
-    <row r="71" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3600,58 +3771,64 @@
       <c r="R71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-166700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-179800</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-96700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-62000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-54900</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-64300</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-57200</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-43700</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-197100</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-252200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-221200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-212700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-206700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-188800</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-174300</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-112800</v>
       </c>
     </row>
-    <row r="73" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3700,8 +3877,11 @@
       <c r="R73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3750,8 +3930,11 @@
       <c r="R74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3800,58 +3983,64 @@
       <c r="R75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>319300</v>
+      </c>
+      <c r="E76" s="3">
         <v>14100</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>349800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>404800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>329900</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>233100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>88100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>184600</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>51300</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>14300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>73200</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>63000</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>51200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>44500</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>44200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>152000</v>
       </c>
     </row>
-    <row r="77" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -3900,113 +4089,122 @@
       <c r="R77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:18" x14ac:dyDescent="0.2">
+      <c r="S77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:18" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44012</v>
+      </c>
+      <c r="E80" s="2">
         <v>43921</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43830</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43738</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43646</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43555</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43465</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43373</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43281</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43190</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43100</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43008</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>42916</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42825</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42735</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>12700</v>
+      </c>
+      <c r="E81" s="3">
         <v>-83500</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-31400</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-7500</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>9000</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-1600</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-16100</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>152800</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>54700</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-35700</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-9200</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-6700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-18700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-15100</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-67300</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="82" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4025,58 +4223,62 @@
       <c r="P82" s="3"/>
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
-    </row>
-    <row r="83" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S82" s="3"/>
+    </row>
+    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>3400</v>
+      </c>
+      <c r="E83" s="3">
         <v>2900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>11400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>10700</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>10000</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>9000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>8700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>8000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>10700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>11300</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>10100</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>9200</v>
-      </c>
-      <c r="O83" s="3">
-        <v>8600</v>
       </c>
       <c r="P83" s="3">
         <v>8600</v>
       </c>
       <c r="Q83" s="3">
+        <v>8600</v>
+      </c>
+      <c r="R83" s="3">
         <v>9300</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="84" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4125,8 +4327,11 @@
       <c r="R84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4175,8 +4380,11 @@
       <c r="R85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4225,8 +4433,11 @@
       <c r="R86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4275,8 +4486,11 @@
       <c r="R87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4325,58 +4539,64 @@
       <c r="R88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>12500</v>
+      </c>
+      <c r="E89" s="3">
         <v>36100</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>15000</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>58700</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>-1300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>38100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>204700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>177800</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-42000</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-31100</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>20300</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-15900</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>32800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>24200</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="90" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4395,58 +4615,62 @@
       <c r="P90" s="3"/>
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
-    </row>
-    <row r="91" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S90" s="3"/>
+    </row>
+    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5600</v>
+      </c>
+      <c r="E91" s="3">
         <v>-6100</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-14000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-8200</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-12800</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-6400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-7400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-12100</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-11000</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-9200</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-6600</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-8300</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-7600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-9400</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-7400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4495,8 +4719,11 @@
       <c r="R92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4545,58 +4772,64 @@
       <c r="R93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>78800</v>
+      </c>
+      <c r="E94" s="3">
         <v>67100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-62200</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-46900</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-96200</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-58400</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-750000</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>509000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>73100</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-56700</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-72300</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-28400</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-9800</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-28800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-60100</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-14300</v>
       </c>
     </row>
-    <row r="95" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4615,8 +4848,9 @@
       <c r="P95" s="3"/>
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
-    </row>
-    <row r="96" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S95" s="3"/>
+    </row>
+    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4648,25 +4882,28 @@
         <v>0</v>
       </c>
       <c r="M96" s="3">
+        <v>0</v>
+      </c>
+      <c r="N96" s="3">
         <v>-900</v>
       </c>
-      <c r="N96" s="3">
+      <c r="O96" s="3">
         <v>-500</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-1300</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1200</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="97" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4715,8 +4952,11 @@
       <c r="R97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -4765,8 +5005,11 @@
       <c r="R98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -4815,154 +5058,166 @@
       <c r="R99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:18" x14ac:dyDescent="0.2">
+      <c r="S99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-74400</v>
+      </c>
+      <c r="E100" s="3">
         <v>-145800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>9000</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-15600</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>75400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-6400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>39500</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>32600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-6100</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>49200</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>69900</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-3600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>42600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>6500</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>29700</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="101" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>100</v>
+      </c>
+      <c r="E101" s="3">
         <v>500</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>400</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>300</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>200</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>100</v>
-      </c>
-      <c r="I101" s="3">
-        <v>-100</v>
       </c>
       <c r="J101" s="3">
         <v>-100</v>
       </c>
       <c r="K101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="L101" s="3">
         <v>-1100</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>800</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>400</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>-500</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>1100</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="102" spans="3:18" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>17000</v>
+      </c>
+      <c r="E102" s="3">
         <v>-42100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-37800</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-3500</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-21900</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-26600</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-505800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>719300</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>23900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-5900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-33100</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-12200</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>16100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>11600</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-6000</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-13200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HCHC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HCHC_QTR_FIN.xlsx
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:S102"/>
+  <dimension ref="A5:T102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,244 +665,257 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E7" s="2">
         <v>44012</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>43921</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43830</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43738</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43646</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43555</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43465</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43373</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43281</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43190</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43100</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43008</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>42916</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42825</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42735</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>393300</v>
+      </c>
+      <c r="E8" s="3">
         <v>377000</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>444800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>498400</v>
       </c>
-      <c r="G8" s="3">
-        <v>475700</v>
-      </c>
       <c r="H8" s="3">
+        <v>427500</v>
+      </c>
+      <c r="I8" s="3">
         <v>479200</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>449000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>524900</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>501400</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>496800</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>453700</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>458500</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>406400</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>378700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>390600</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>454000</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>413100</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>278700</v>
+      </c>
+      <c r="E9" s="3">
         <v>262100</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>346100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>349000</v>
       </c>
-      <c r="G9" s="3">
-        <v>337000</v>
-      </c>
       <c r="H9" s="3">
+        <v>301300</v>
+      </c>
+      <c r="I9" s="3">
         <v>731800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>324500</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>406000</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>402900</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>400600</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>375700</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>365300</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>324700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>308700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>314400</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>361100</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>333900</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>114600</v>
+      </c>
+      <c r="E10" s="3">
         <v>114900</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>98700</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>149400</v>
       </c>
-      <c r="G10" s="3">
-        <v>138700</v>
-      </c>
       <c r="H10" s="3">
+        <v>126200</v>
+      </c>
+      <c r="I10" s="3">
         <v>-252600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>124500</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>118900</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>98500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>96200</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>78000</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>93200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>81700</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>70000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>76200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>92900</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>79200</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -922,8 +935,9 @@
       <c r="Q11" s="3"/>
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T11" s="3"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -975,8 +989,11 @@
       <c r="S12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1028,114 +1045,123 @@
       <c r="S13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>4200</v>
+      </c>
+      <c r="E14" s="3">
         <v>3400</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>5800</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>55000</v>
       </c>
-      <c r="G14" s="3">
-        <v>0</v>
-      </c>
       <c r="H14" s="3">
+        <v>0</v>
+      </c>
+      <c r="I14" s="3">
         <v>-1100</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-5500</v>
       </c>
-      <c r="K14" s="3">
+      <c r="L14" s="3">
         <v>-112100</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-102100</v>
       </c>
-      <c r="M14" s="3">
-        <v>0</v>
-      </c>
       <c r="N14" s="3">
+        <v>0</v>
+      </c>
+      <c r="O14" s="3">
         <v>-5400</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-6300</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>100</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>200</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>11300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>2400</v>
+      </c>
+      <c r="E15" s="3">
         <v>1100</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>600</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>8900</v>
       </c>
-      <c r="G15" s="3">
-        <v>8600</v>
-      </c>
       <c r="H15" s="3">
+        <v>2200</v>
+      </c>
+      <c r="I15" s="3">
         <v>1200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>300</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>6700</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>6300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>9100</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>9700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>8700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>7900</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>7300</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>7400</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>6300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1152,114 +1178,121 @@
       <c r="Q16" s="3"/>
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
-    </row>
-    <row r="17" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T16" s="3"/>
+    </row>
+    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>399600</v>
+      </c>
+      <c r="E17" s="3">
         <v>375500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>477400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>531400</v>
       </c>
-      <c r="G17" s="3">
-        <v>466100</v>
-      </c>
       <c r="H17" s="3">
+        <v>420000</v>
+      </c>
+      <c r="I17" s="3">
         <v>444500</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>423400</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>531600</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>413600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>400200</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>467400</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>454600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>389500</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>389900</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>389800</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>457900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>406200</v>
       </c>
     </row>
-    <row r="18" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-6300</v>
+      </c>
+      <c r="E18" s="3">
         <v>1500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-32600</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-33000</v>
       </c>
-      <c r="G18" s="3">
-        <v>9600</v>
-      </c>
       <c r="H18" s="3">
+        <v>7500</v>
+      </c>
+      <c r="I18" s="3">
         <v>34700</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>25600</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>-6700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>87800</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>96600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-13700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>3900</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>16900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-11200</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>800</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-3900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="19" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1279,273 +1312,289 @@
       <c r="Q19" s="3"/>
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
-    </row>
-    <row r="20" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T19" s="3"/>
+    </row>
+    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>6000</v>
+      </c>
+      <c r="E20" s="3">
         <v>63800</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>300</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>1300</v>
       </c>
-      <c r="G20" s="3">
-        <v>7100</v>
-      </c>
       <c r="H20" s="3">
+        <v>4800</v>
+      </c>
+      <c r="I20" s="3">
         <v>2400</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>-2500</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>16400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>72000</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>9800</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>-4100</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>500</v>
-      </c>
-      <c r="O20" s="3">
-        <v>900</v>
       </c>
       <c r="P20" s="3">
         <v>900</v>
       </c>
       <c r="Q20" s="3">
+        <v>900</v>
+      </c>
+      <c r="R20" s="3">
         <v>2800</v>
       </c>
-      <c r="R20" s="3">
+      <c r="S20" s="3">
         <v>9000</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="21" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>4400</v>
+      </c>
+      <c r="E21" s="3">
         <v>68700</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-29400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-20300</v>
       </c>
-      <c r="G21" s="3">
-        <v>27400</v>
-      </c>
       <c r="H21" s="3">
+        <v>23000</v>
+      </c>
+      <c r="I21" s="3">
         <v>47100</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>32100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>18400</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>167800</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>117200</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>-6600</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>14600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>26900</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-1800</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>12200</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>14300</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="22" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>19700</v>
+      </c>
+      <c r="E22" s="3">
         <v>21400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>21300</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>25800</v>
       </c>
-      <c r="G22" s="3">
-        <v>24000</v>
-      </c>
       <c r="H22" s="3">
+        <v>20100</v>
+      </c>
+      <c r="I22" s="3">
         <v>19100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>18800</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>21700</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>17500</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>17200</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>19300</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>15700</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>13200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>12100</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>14100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>11800</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="23" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-20000</v>
+      </c>
+      <c r="E23" s="3">
         <v>43900</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-53600</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-57500</v>
       </c>
-      <c r="G23" s="3">
-        <v>-7300</v>
-      </c>
       <c r="H23" s="3">
+        <v>-7800</v>
+      </c>
+      <c r="I23" s="3">
         <v>18000</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>4300</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-12000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>142300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>89200</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-37200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-11200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>4500</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-22500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-10600</v>
-      </c>
-      <c r="R23" s="3">
-        <v>-6700</v>
       </c>
       <c r="S23" s="3">
         <v>-6700</v>
       </c>
-    </row>
-    <row r="24" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T23" s="3">
+        <v>-6700</v>
+      </c>
+    </row>
+    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E24" s="3">
         <v>15400</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>-12600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-26800</v>
-      </c>
-      <c r="G24" s="3">
-        <v>1000</v>
       </c>
       <c r="H24" s="3">
         <v>1100</v>
       </c>
       <c r="I24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="J24" s="3">
         <v>4000</v>
       </c>
-      <c r="J24" s="3">
+      <c r="K24" s="3">
         <v>500</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>-9200</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>9500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>1600</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-26500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>12900</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-2000</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>5300</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>55300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="25" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1597,114 +1646,123 @@
       <c r="S25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-21600</v>
+      </c>
+      <c r="E26" s="3">
         <v>28500</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-41000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-30700</v>
       </c>
-      <c r="G26" s="3">
+      <c r="H26" s="3">
+        <v>-8900</v>
+      </c>
+      <c r="I26" s="3">
+        <v>16900</v>
+      </c>
+      <c r="J26" s="3">
+        <v>300</v>
+      </c>
+      <c r="K26" s="3">
+        <v>-12600</v>
+      </c>
+      <c r="L26" s="3">
+        <v>151500</v>
+      </c>
+      <c r="M26" s="3">
+        <v>79800</v>
+      </c>
+      <c r="N26" s="3">
+        <v>-38900</v>
+      </c>
+      <c r="O26" s="3">
+        <v>15300</v>
+      </c>
+      <c r="P26" s="3">
         <v>-8300</v>
       </c>
-      <c r="H26" s="3">
-        <v>16900</v>
-      </c>
-      <c r="I26" s="3">
-        <v>300</v>
-      </c>
-      <c r="J26" s="3">
-        <v>-12600</v>
-      </c>
-      <c r="K26" s="3">
-        <v>151500</v>
-      </c>
-      <c r="L26" s="3">
-        <v>79800</v>
-      </c>
-      <c r="M26" s="3">
-        <v>-38900</v>
-      </c>
-      <c r="N26" s="3">
-        <v>15300</v>
-      </c>
-      <c r="O26" s="3">
-        <v>-8300</v>
-      </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-20500</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-15900</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-62000</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-5400</v>
       </c>
     </row>
-    <row r="27" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="E27" s="3">
         <v>12700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-23500</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-31400</v>
       </c>
-      <c r="G27" s="3">
+      <c r="H27" s="3">
+        <v>-8500</v>
+      </c>
+      <c r="I27" s="3">
+        <v>16700</v>
+      </c>
+      <c r="J27" s="3">
+        <v>5000</v>
+      </c>
+      <c r="K27" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="L27" s="3">
+        <v>152800</v>
+      </c>
+      <c r="M27" s="3">
+        <v>54700</v>
+      </c>
+      <c r="N27" s="3">
+        <v>-35700</v>
+      </c>
+      <c r="O27" s="3">
+        <v>11900</v>
+      </c>
+      <c r="P27" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="Q27" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="R27" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="S27" s="3">
+        <v>-67300</v>
+      </c>
+      <c r="T27" s="3">
         <v>-7500</v>
       </c>
-      <c r="H27" s="3">
-        <v>16700</v>
-      </c>
-      <c r="I27" s="3">
-        <v>5000</v>
-      </c>
-      <c r="J27" s="3">
-        <v>-16100</v>
-      </c>
-      <c r="K27" s="3">
-        <v>152800</v>
-      </c>
-      <c r="L27" s="3">
-        <v>54700</v>
-      </c>
-      <c r="M27" s="3">
-        <v>-35700</v>
-      </c>
-      <c r="N27" s="3">
-        <v>11900</v>
-      </c>
-      <c r="O27" s="3">
-        <v>-6700</v>
-      </c>
-      <c r="P27" s="3">
-        <v>-18700</v>
-      </c>
-      <c r="Q27" s="3">
-        <v>-15100</v>
-      </c>
-      <c r="R27" s="3">
-        <v>-67300</v>
-      </c>
-      <c r="S27" s="3">
-        <v>-7500</v>
-      </c>
-    </row>
-    <row r="28" spans="3:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1756,8 +1814,11 @@
       <c r="S28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1765,25 +1826,25 @@
         <v>0</v>
       </c>
       <c r="E29" s="3">
+        <v>0</v>
+      </c>
+      <c r="F29" s="3">
         <v>-60000</v>
-      </c>
-      <c r="F29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="G29" s="3" t="s">
         <v>8</v>
       </c>
       <c r="H29" s="3">
+        <v>600</v>
+      </c>
+      <c r="I29" s="3">
         <v>-7700</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-6600</v>
       </c>
-      <c r="J29" s="3">
-        <v>0</v>
-      </c>
-      <c r="K29" s="3" t="s">
-        <v>8</v>
+      <c r="K29" s="3">
+        <v>0</v>
       </c>
       <c r="L29" s="3" t="s">
         <v>8</v>
@@ -1791,11 +1852,11 @@
       <c r="M29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="N29" s="3">
+      <c r="N29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="O29" s="3">
         <v>-21100</v>
-      </c>
-      <c r="O29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="P29" s="3" t="s">
         <v>8</v>
@@ -1803,14 +1864,17 @@
       <c r="Q29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R29" s="3">
-        <v>0</v>
+      <c r="R29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="S29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1862,8 +1926,11 @@
       <c r="S30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1915,114 +1982,123 @@
       <c r="S31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-6000</v>
+      </c>
+      <c r="E32" s="3">
         <v>-63800</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-300</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-1300</v>
       </c>
-      <c r="G32" s="3">
-        <v>-7100</v>
-      </c>
       <c r="H32" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="I32" s="3">
         <v>-2400</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>2500</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-16400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-72000</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-9800</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>4100</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-500</v>
-      </c>
-      <c r="O32" s="3">
-        <v>-900</v>
       </c>
       <c r="P32" s="3">
         <v>-900</v>
       </c>
       <c r="Q32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="R32" s="3">
         <v>-2800</v>
       </c>
-      <c r="R32" s="3">
+      <c r="S32" s="3">
         <v>-9000</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="33" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="E33" s="3">
         <v>12700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-83500</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-31400</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="I33" s="3">
+        <v>9000</v>
+      </c>
+      <c r="J33" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K33" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="L33" s="3">
+        <v>152800</v>
+      </c>
+      <c r="M33" s="3">
+        <v>54700</v>
+      </c>
+      <c r="N33" s="3">
+        <v>-35700</v>
+      </c>
+      <c r="O33" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="P33" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="Q33" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="R33" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="S33" s="3">
+        <v>-67300</v>
+      </c>
+      <c r="T33" s="3">
         <v>-7500</v>
       </c>
-      <c r="H33" s="3">
-        <v>9000</v>
-      </c>
-      <c r="I33" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="J33" s="3">
-        <v>-16100</v>
-      </c>
-      <c r="K33" s="3">
-        <v>152800</v>
-      </c>
-      <c r="L33" s="3">
-        <v>54700</v>
-      </c>
-      <c r="M33" s="3">
-        <v>-35700</v>
-      </c>
-      <c r="N33" s="3">
-        <v>-9200</v>
-      </c>
-      <c r="O33" s="3">
-        <v>-6700</v>
-      </c>
-      <c r="P33" s="3">
-        <v>-18700</v>
-      </c>
-      <c r="Q33" s="3">
-        <v>-15100</v>
-      </c>
-      <c r="R33" s="3">
-        <v>-67300</v>
-      </c>
-      <c r="S33" s="3">
-        <v>-7500</v>
-      </c>
-    </row>
-    <row r="34" spans="2:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2074,119 +2150,128 @@
       <c r="S34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="E35" s="3">
         <v>12700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-83500</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-31400</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="I35" s="3">
+        <v>9000</v>
+      </c>
+      <c r="J35" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K35" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="L35" s="3">
+        <v>152800</v>
+      </c>
+      <c r="M35" s="3">
+        <v>54700</v>
+      </c>
+      <c r="N35" s="3">
+        <v>-35700</v>
+      </c>
+      <c r="O35" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="P35" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="Q35" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="R35" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="S35" s="3">
+        <v>-67300</v>
+      </c>
+      <c r="T35" s="3">
         <v>-7500</v>
       </c>
-      <c r="H35" s="3">
-        <v>9000</v>
-      </c>
-      <c r="I35" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="J35" s="3">
-        <v>-16100</v>
-      </c>
-      <c r="K35" s="3">
-        <v>152800</v>
-      </c>
-      <c r="L35" s="3">
-        <v>54700</v>
-      </c>
-      <c r="M35" s="3">
-        <v>-35700</v>
-      </c>
-      <c r="N35" s="3">
-        <v>-9200</v>
-      </c>
-      <c r="O35" s="3">
-        <v>-6700</v>
-      </c>
-      <c r="P35" s="3">
-        <v>-18700</v>
-      </c>
-      <c r="Q35" s="3">
-        <v>-15100</v>
-      </c>
-      <c r="R35" s="3">
-        <v>-67300</v>
-      </c>
-      <c r="S35" s="3">
-        <v>-7500</v>
-      </c>
-    </row>
-    <row r="37" spans="2:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E38" s="2">
         <v>44012</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>43921</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43830</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43738</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43646</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43555</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43465</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43373</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43281</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43190</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43100</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43008</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>42916</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42825</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42735</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2206,8 +2291,9 @@
       <c r="Q39" s="3"/>
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
-    </row>
-    <row r="40" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T39" s="3"/>
+    </row>
+    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2227,61 +2313,65 @@
       <c r="Q40" s="3"/>
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
-    </row>
-    <row r="41" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T40" s="3"/>
+    </row>
+    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>163600</v>
+      </c>
+      <c r="E41" s="3">
         <v>203800</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>186900</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>239000</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>276900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>280400</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>302200</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>325000</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>831600</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>112300</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>92100</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>97900</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>130800</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>143100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>127000</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>115400</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>121300</v>
       </c>
     </row>
-    <row r="42" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2310,84 +2400,90 @@
         <v>0</v>
       </c>
       <c r="L42" s="3">
+        <v>0</v>
+      </c>
+      <c r="M42" s="3">
         <v>1502600</v>
       </c>
-      <c r="M42" s="3">
+      <c r="N42" s="3">
         <v>1543400</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1543600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1521600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1513300</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1475000</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1427900</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1476200</v>
       </c>
     </row>
-    <row r="43" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>252300</v>
+      </c>
+      <c r="E43" s="3">
         <v>261200</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>333300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>337800</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>293300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>350700</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>328400</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>379200</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>350900</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>346700</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>327500</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>322400</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>265100</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>250500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>228100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>283500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>288500</v>
       </c>
     </row>
-    <row r="44" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2430,17 +2526,20 @@
       <c r="P44" s="3">
         <v>0</v>
       </c>
-      <c r="Q44" s="3" t="s">
+      <c r="Q44" s="3">
+        <v>0</v>
+      </c>
+      <c r="R44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="R44" s="3">
+      <c r="S44" s="3">
         <v>9600</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="45" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2469,31 +2568,34 @@
         <v>0</v>
       </c>
       <c r="L45" s="3">
+        <v>0</v>
+      </c>
+      <c r="M45" s="3">
         <v>532300</v>
       </c>
-      <c r="M45" s="3">
+      <c r="N45" s="3">
         <v>530400</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>528000</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>531100</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>528200</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>525300</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>541000</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>587300</v>
       </c>
     </row>
-    <row r="46" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2522,61 +2624,64 @@
         <v>0</v>
       </c>
       <c r="L46" s="3">
+        <v>0</v>
+      </c>
+      <c r="M46" s="3">
         <v>2493800</v>
       </c>
-      <c r="M46" s="3">
+      <c r="N46" s="3">
         <v>2493300</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2491900</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2448600</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2435100</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2355300</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2336200</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2482300</v>
       </c>
     </row>
-    <row r="47" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>4569400</v>
+      </c>
+      <c r="E47" s="3">
         <v>4398200</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>4056800</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>4409000</v>
       </c>
-      <c r="G47" s="3">
+      <c r="H47" s="3">
         <v>4349000</v>
       </c>
-      <c r="H47" s="3">
+      <c r="I47" s="3">
         <v>4198100</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>4023400</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>3822000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3381200</v>
       </c>
-      <c r="L47" s="3">
-        <v>0</v>
-      </c>
       <c r="M47" s="3">
         <v>0</v>
       </c>
@@ -2598,114 +2703,123 @@
       <c r="S47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>213800</v>
+      </c>
+      <c r="E48" s="3">
         <v>220200</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>223400</v>
-      </c>
-      <c r="F48" s="3">
-        <v>405800</v>
       </c>
       <c r="G48" s="3">
         <v>405800</v>
       </c>
       <c r="H48" s="3">
+        <v>405800</v>
+      </c>
+      <c r="I48" s="3">
         <v>416400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>376600</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>376300</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>369800</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>368900</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>372400</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>374700</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>282100</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>282700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>284300</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>461000</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>244200</v>
       </c>
     </row>
-    <row r="49" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>314900</v>
+      </c>
+      <c r="E49" s="3">
         <v>330800</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>332100</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>353800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>400800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>403300</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>393400</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>390900</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>278100</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>249100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>251900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>248800</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>132800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>134700</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>136500</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>137800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>125200</v>
       </c>
     </row>
-    <row r="50" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2757,8 +2871,11 @@
       <c r="S50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2810,61 +2927,67 @@
       <c r="S51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>2200</v>
+        <v>7400</v>
       </c>
       <c r="E52" s="3">
         <v>2200</v>
       </c>
       <c r="F52" s="3">
+        <v>2200</v>
+      </c>
+      <c r="G52" s="3">
         <v>2700</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>2000</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>2300</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1800</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>2100</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1000</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>142500</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>109700</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>102300</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>107900</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>88800</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>80300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>75300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>36300</v>
       </c>
     </row>
-    <row r="53" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -2916,61 +3039,67 @@
       <c r="S53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6688400</v>
+      </c>
+      <c r="E54" s="3">
         <v>6633300</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6339100</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6958300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6945500</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6883200</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6682400</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6503800</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6730000</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>3254300</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3227300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3217700</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>2971300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2941300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2856400</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2835300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2888000</v>
       </c>
     </row>
-    <row r="55" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -2990,8 +3119,9 @@
       <c r="Q55" s="3"/>
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
-    </row>
-    <row r="56" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T55" s="3"/>
+    </row>
+    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3011,61 +3141,65 @@
       <c r="Q56" s="3"/>
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
-    </row>
-    <row r="57" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T56" s="3"/>
+    </row>
+    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>97700</v>
+      </c>
+      <c r="E57" s="3">
         <v>114900</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>147400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>190400</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>129300</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>133100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>132400</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>104700</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>111600</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>100200</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>111900</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>119200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>70200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>75000</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>60500</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>282800</v>
       </c>
-      <c r="S57" s="3" t="s">
+      <c r="T57" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3117,61 +3251,67 @@
       <c r="S58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>200900</v>
+      </c>
+      <c r="E59" s="3">
         <v>168100</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>187000</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>149200</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>199800</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>205400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>187900</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>240200</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>241600</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>2202200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2218300</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2208300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2197600</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2158300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2137000</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2175600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2223700</v>
       </c>
     </row>
-    <row r="60" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3200,137 +3340,146 @@
         <v>0</v>
       </c>
       <c r="L60" s="3">
+        <v>0</v>
+      </c>
+      <c r="M60" s="3">
         <v>2302400</v>
       </c>
-      <c r="M60" s="3">
+      <c r="N60" s="3">
         <v>2330200</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2327600</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2267700</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2233300</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2197500</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2199200</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2223700</v>
       </c>
     </row>
-    <row r="61" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>646400</v>
+      </c>
+      <c r="E61" s="3">
         <v>633800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>686000</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>839300</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>820400</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>828200</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>762000</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>743900</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>702200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>668500</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>655400</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>593200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>496600</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>494700</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>445600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>428500</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>396700</v>
       </c>
     </row>
-    <row r="62" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>113200</v>
+      </c>
+      <c r="E62" s="3">
         <v>101600</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>24400</v>
-      </c>
-      <c r="F62" s="3">
-        <v>83700</v>
       </c>
       <c r="G62" s="3">
         <v>83700</v>
       </c>
       <c r="H62" s="3">
+        <v>83700</v>
+      </c>
+      <c r="I62" s="3">
         <v>59900</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>34600</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>30300</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>33900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>88200</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>85900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>80900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>97300</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>113500</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>114300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>130400</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>45600</v>
       </c>
     </row>
-    <row r="63" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3382,8 +3531,11 @@
       <c r="S63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3435,8 +3587,11 @@
       <c r="S64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3488,61 +3643,67 @@
       <c r="S65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6300700</v>
+      </c>
+      <c r="E66" s="3">
         <v>6303700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6314700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6598200</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6530400</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6543000</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6439000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6395400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6519100</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>3176700</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3186700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3118200</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>2882000</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2863800</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2782400</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2761600</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2692300</v>
       </c>
     </row>
-    <row r="67" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3562,8 +3723,9 @@
       <c r="Q67" s="3"/>
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
-    </row>
-    <row r="68" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T67" s="3"/>
+    </row>
+    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3615,8 +3777,11 @@
       <c r="S68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3668,13 +3833,16 @@
       <c r="S69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>10300</v>
+        <v>15900</v>
       </c>
       <c r="E70" s="3">
         <v>10300</v>
@@ -3692,10 +3860,10 @@
         <v>10300</v>
       </c>
       <c r="J70" s="3">
+        <v>10300</v>
+      </c>
+      <c r="K70" s="3">
         <v>20300</v>
-      </c>
-      <c r="K70" s="3">
-        <v>26300</v>
       </c>
       <c r="L70" s="3">
         <v>26300</v>
@@ -3713,16 +3881,19 @@
         <v>26300</v>
       </c>
       <c r="Q70" s="3">
-        <v>29500</v>
+        <v>26300</v>
       </c>
       <c r="R70" s="3">
         <v>29500</v>
       </c>
       <c r="S70" s="3">
+        <v>29500</v>
+      </c>
+      <c r="T70" s="3">
         <v>43700</v>
       </c>
     </row>
-    <row r="71" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3774,61 +3945,67 @@
       <c r="S71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-184000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-166700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-179800</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-96700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-62000</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-54900</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-64300</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-57200</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-43700</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-197100</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-252200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-221200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-212700</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-206700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-188800</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-174300</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-112800</v>
       </c>
     </row>
-    <row r="73" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -3880,8 +4057,11 @@
       <c r="S73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -3933,8 +4113,11 @@
       <c r="S74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -3986,61 +4169,67 @@
       <c r="S75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>371800</v>
+      </c>
+      <c r="E76" s="3">
         <v>319300</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>14100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>349800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>404800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>329900</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>233100</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>88100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>184600</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>51300</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>14300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>73200</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>63000</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>51200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>44500</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>44200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>152000</v>
       </c>
     </row>
-    <row r="77" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4092,119 +4281,128 @@
       <c r="S77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:19" x14ac:dyDescent="0.2">
+      <c r="T77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:19" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44104</v>
+      </c>
+      <c r="E80" s="2">
         <v>44012</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>43921</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43830</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43738</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43646</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43555</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43465</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43373</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43281</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43190</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43100</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43008</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>42916</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42825</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42735</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-17700</v>
+      </c>
+      <c r="E81" s="3">
         <v>12700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-83500</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-31400</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="I81" s="3">
+        <v>9000</v>
+      </c>
+      <c r="J81" s="3">
+        <v>-1600</v>
+      </c>
+      <c r="K81" s="3">
+        <v>-16100</v>
+      </c>
+      <c r="L81" s="3">
+        <v>152800</v>
+      </c>
+      <c r="M81" s="3">
+        <v>54700</v>
+      </c>
+      <c r="N81" s="3">
+        <v>-35700</v>
+      </c>
+      <c r="O81" s="3">
+        <v>-9200</v>
+      </c>
+      <c r="P81" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="Q81" s="3">
+        <v>-18700</v>
+      </c>
+      <c r="R81" s="3">
+        <v>-15100</v>
+      </c>
+      <c r="S81" s="3">
+        <v>-67300</v>
+      </c>
+      <c r="T81" s="3">
         <v>-7500</v>
       </c>
-      <c r="H81" s="3">
-        <v>9000</v>
-      </c>
-      <c r="I81" s="3">
-        <v>-1600</v>
-      </c>
-      <c r="J81" s="3">
-        <v>-16100</v>
-      </c>
-      <c r="K81" s="3">
-        <v>152800</v>
-      </c>
-      <c r="L81" s="3">
-        <v>54700</v>
-      </c>
-      <c r="M81" s="3">
-        <v>-35700</v>
-      </c>
-      <c r="N81" s="3">
-        <v>-9200</v>
-      </c>
-      <c r="O81" s="3">
-        <v>-6700</v>
-      </c>
-      <c r="P81" s="3">
-        <v>-18700</v>
-      </c>
-      <c r="Q81" s="3">
-        <v>-15100</v>
-      </c>
-      <c r="R81" s="3">
-        <v>-67300</v>
-      </c>
-      <c r="S81" s="3">
-        <v>-7500</v>
-      </c>
-    </row>
-    <row r="82" spans="3:19" x14ac:dyDescent="0.2">
+    </row>
+    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4224,61 +4422,65 @@
       <c r="Q82" s="3"/>
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
-    </row>
-    <row r="83" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T82" s="3"/>
+    </row>
+    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>4700</v>
+      </c>
+      <c r="E83" s="3">
         <v>3400</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>2900</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>11400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>10700</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>10000</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>9000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>8700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>8000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>10700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>11300</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>10100</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>9200</v>
-      </c>
-      <c r="P83" s="3">
-        <v>8600</v>
       </c>
       <c r="Q83" s="3">
         <v>8600</v>
       </c>
       <c r="R83" s="3">
+        <v>8600</v>
+      </c>
+      <c r="S83" s="3">
         <v>9300</v>
       </c>
-      <c r="S83" s="3">
+      <c r="T83" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="84" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4330,8 +4532,11 @@
       <c r="S84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4383,8 +4588,11 @@
       <c r="S85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4436,8 +4644,11 @@
       <c r="S86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4489,8 +4700,11 @@
       <c r="S87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4542,61 +4756,67 @@
       <c r="S88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>29600</v>
+      </c>
+      <c r="E89" s="3">
         <v>12500</v>
       </c>
-      <c r="E89" s="3">
-        <v>36100</v>
-      </c>
       <c r="F89" s="3">
+        <v>35300</v>
+      </c>
+      <c r="G89" s="3">
         <v>15000</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>58700</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>-1300</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>38100</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>204700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>177800</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>-42000</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-31100</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>20300</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-15900</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>32800</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>24200</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="90" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4616,61 +4836,65 @@
       <c r="Q90" s="3"/>
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
-    </row>
-    <row r="91" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T90" s="3"/>
+    </row>
+    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5600</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-6100</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-14000</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-8200</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-12800</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-6400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-7400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-12100</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-11000</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-9200</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-6600</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-8300</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-7600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-9400</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-7400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4722,8 +4946,11 @@
       <c r="S92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -4775,61 +5002,67 @@
       <c r="S93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-68500</v>
+      </c>
+      <c r="E94" s="3">
         <v>78800</v>
       </c>
-      <c r="E94" s="3">
-        <v>67100</v>
-      </c>
       <c r="F94" s="3">
+        <v>60100</v>
+      </c>
+      <c r="G94" s="3">
         <v>-62200</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>-46900</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-96200</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-58400</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-750000</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>509000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>73100</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-56700</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-72300</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-28400</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-9800</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-28800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-60100</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-14300</v>
       </c>
     </row>
-    <row r="95" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -4849,8 +5082,9 @@
       <c r="Q95" s="3"/>
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
-    </row>
-    <row r="96" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T95" s="3"/>
+    </row>
+    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -4885,25 +5119,28 @@
         <v>0</v>
       </c>
       <c r="N96" s="3">
+        <v>0</v>
+      </c>
+      <c r="O96" s="3">
         <v>-900</v>
       </c>
-      <c r="O96" s="3">
+      <c r="P96" s="3">
         <v>-500</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-1300</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1200</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="97" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -4955,8 +5192,11 @@
       <c r="S97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5008,8 +5248,11 @@
       <c r="S98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5061,61 +5304,67 @@
       <c r="S99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:19" x14ac:dyDescent="0.2">
+      <c r="T99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-1200</v>
+      </c>
+      <c r="E100" s="3">
         <v>-74400</v>
       </c>
-      <c r="E100" s="3">
-        <v>-145800</v>
-      </c>
       <c r="F100" s="3">
+        <v>-148200</v>
+      </c>
+      <c r="G100" s="3">
         <v>9000</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-15600</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>75400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-6400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>39500</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>32600</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-6100</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>49200</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>69900</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-3600</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>42600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>6500</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>29700</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="101" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -5123,101 +5372,107 @@
         <v>100</v>
       </c>
       <c r="E101" s="3">
+        <v>100</v>
+      </c>
+      <c r="F101" s="3">
         <v>500</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>400</v>
       </c>
-      <c r="G101" s="3">
+      <c r="H101" s="3">
         <v>300</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>200</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>100</v>
-      </c>
-      <c r="J101" s="3">
-        <v>-100</v>
       </c>
       <c r="K101" s="3">
         <v>-100</v>
       </c>
       <c r="L101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="M101" s="3">
         <v>-1100</v>
       </c>
-      <c r="M101" s="3">
+      <c r="N101" s="3">
         <v>800</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>400</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>-500</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>1100</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>400</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="102" spans="3:19" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-40000</v>
+      </c>
+      <c r="E102" s="3">
         <v>17000</v>
       </c>
-      <c r="E102" s="3">
-        <v>-42100</v>
-      </c>
       <c r="F102" s="3">
+        <v>-52300</v>
+      </c>
+      <c r="G102" s="3">
         <v>-37800</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-3500</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-21900</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-26600</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-505800</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>719300</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>23900</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-5900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-33100</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-12200</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>16100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>11600</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-6000</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-13200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HCHC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HCHC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
   <si>
     <t>HCHC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:T102"/>
+  <dimension ref="A5:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,257 +665,269 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="16" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="20" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E7" s="2">
         <v>44104</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44012</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>43921</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43830</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43738</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43646</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43555</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43465</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43373</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43281</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43190</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43100</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43008</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>42916</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42825</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42735</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>1005800</v>
+      </c>
+      <c r="E8" s="3">
         <v>393300</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>377000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>444800</v>
       </c>
-      <c r="G8" s="3">
-        <v>498400</v>
-      </c>
       <c r="H8" s="3">
+        <v>1077000</v>
+      </c>
+      <c r="I8" s="3">
         <v>427500</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>479200</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>449000</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>524900</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>501400</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>496800</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>453700</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>458500</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>406400</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>378700</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>390600</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>454000</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>413100</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>588500</v>
+      </c>
+      <c r="E9" s="3">
         <v>278700</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>262100</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>346100</v>
       </c>
-      <c r="G9" s="3">
-        <v>349000</v>
-      </c>
       <c r="H9" s="3">
+        <v>596000</v>
+      </c>
+      <c r="I9" s="3">
         <v>301300</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>731800</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>324500</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>406000</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>402900</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>400600</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>375700</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>365300</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>324700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>308700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>314400</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>361100</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>333900</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>417300</v>
+      </c>
+      <c r="E10" s="3">
         <v>114600</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>114900</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>98700</v>
       </c>
-      <c r="G10" s="3">
-        <v>149400</v>
-      </c>
       <c r="H10" s="3">
+        <v>481000</v>
+      </c>
+      <c r="I10" s="3">
         <v>126200</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>-252600</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>124500</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>118900</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>98500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>96200</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>78000</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>93200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>81700</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>70000</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>76200</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>92900</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>79200</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -936,8 +948,9 @@
       <c r="R11" s="3"/>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U11" s="3"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -992,8 +1005,11 @@
       <c r="T12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1048,120 +1064,129 @@
       <c r="T13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>22900</v>
+      </c>
+      <c r="E14" s="3">
         <v>4200</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>3400</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>5800</v>
       </c>
-      <c r="G14" s="3">
-        <v>55000</v>
-      </c>
       <c r="H14" s="3">
-        <v>0</v>
+        <v>48900</v>
       </c>
       <c r="I14" s="3">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3">
         <v>-1100</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-5500</v>
       </c>
-      <c r="L14" s="3">
+      <c r="M14" s="3">
         <v>-112100</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-102100</v>
       </c>
-      <c r="N14" s="3">
-        <v>0</v>
-      </c>
       <c r="O14" s="3">
+        <v>0</v>
+      </c>
+      <c r="P14" s="3">
         <v>-5400</v>
       </c>
-      <c r="P14" s="3">
+      <c r="Q14" s="3">
         <v>-6300</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>100</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>200</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>11300</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="3">
         <v>2400</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>1100</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>600</v>
       </c>
-      <c r="G15" s="3">
+      <c r="H15" s="3">
         <v>8900</v>
       </c>
-      <c r="H15" s="3">
+      <c r="I15" s="3">
         <v>2200</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>1200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>300</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>6700</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>6300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>9100</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>9700</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>8700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>7900</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>7300</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>7400</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>6300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1179,120 +1204,127 @@
       <c r="R16" s="3"/>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
-    </row>
-    <row r="17" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U16" s="3"/>
+    </row>
+    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>1019300</v>
+      </c>
+      <c r="E17" s="3">
         <v>399600</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>375500</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>477400</v>
       </c>
-      <c r="G17" s="3">
-        <v>531400</v>
-      </c>
       <c r="H17" s="3">
+        <v>1050600</v>
+      </c>
+      <c r="I17" s="3">
         <v>420000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>444500</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>423400</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>531600</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>413600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>400200</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>467400</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>454600</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>389500</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>389900</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>389800</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>457900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>406200</v>
       </c>
     </row>
-    <row r="18" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-13500</v>
+      </c>
+      <c r="E18" s="3">
         <v>-6300</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>1500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-32600</v>
       </c>
-      <c r="G18" s="3">
-        <v>-33000</v>
-      </c>
       <c r="H18" s="3">
+        <v>26400</v>
+      </c>
+      <c r="I18" s="3">
         <v>7500</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>34700</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>25600</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>-6700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>87800</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>96600</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>-13700</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>3900</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>16900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>-11200</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>800</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-3900</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="19" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1313,288 +1345,304 @@
       <c r="R19" s="3"/>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
-    </row>
-    <row r="20" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U19" s="3"/>
+    </row>
+    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>65100</v>
+      </c>
+      <c r="E20" s="3">
         <v>6000</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>63800</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>300</v>
       </c>
-      <c r="G20" s="3">
-        <v>1300</v>
-      </c>
       <c r="H20" s="3">
+        <v>7900</v>
+      </c>
+      <c r="I20" s="3">
         <v>4800</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>2400</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>-2500</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>16400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>72000</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>9800</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>-4100</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>500</v>
-      </c>
-      <c r="P20" s="3">
-        <v>900</v>
       </c>
       <c r="Q20" s="3">
         <v>900</v>
       </c>
       <c r="R20" s="3">
+        <v>900</v>
+      </c>
+      <c r="S20" s="3">
         <v>2800</v>
       </c>
-      <c r="S20" s="3">
+      <c r="T20" s="3">
         <v>9000</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="21" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>57500</v>
+      </c>
+      <c r="E21" s="3">
         <v>4400</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>68700</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-29400</v>
       </c>
-      <c r="G21" s="3">
-        <v>-20300</v>
-      </c>
       <c r="H21" s="3">
+        <v>75400</v>
+      </c>
+      <c r="I21" s="3">
         <v>23000</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>47100</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>32100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>18400</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>167800</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>117200</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>-6600</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>14600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>26900</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>-1800</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>12200</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>14300</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="22" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>79400</v>
+      </c>
+      <c r="E22" s="3">
         <v>19700</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>21400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>21300</v>
       </c>
-      <c r="G22" s="3">
-        <v>25800</v>
-      </c>
       <c r="H22" s="3">
+        <v>76100</v>
+      </c>
+      <c r="I22" s="3">
         <v>20100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>19100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>18800</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>21700</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>17500</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>17200</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>19300</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>15700</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>13200</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>12100</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>14100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>11800</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="23" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-27800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-20000</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>43900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-53600</v>
       </c>
-      <c r="G23" s="3">
-        <v>-57500</v>
-      </c>
       <c r="H23" s="3">
+        <v>-41800</v>
+      </c>
+      <c r="I23" s="3">
         <v>-7800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>18000</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>4300</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>-12000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>142300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>89200</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>-37200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-11200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>4500</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-22500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-10600</v>
-      </c>
-      <c r="S23" s="3">
-        <v>-6700</v>
       </c>
       <c r="T23" s="3">
         <v>-6700</v>
       </c>
-    </row>
-    <row r="24" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U23" s="3">
+        <v>-6700</v>
+      </c>
+    </row>
+    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>10500</v>
+      </c>
+      <c r="E24" s="3">
         <v>1600</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>15400</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>-12600</v>
       </c>
-      <c r="G24" s="3">
-        <v>-26800</v>
-      </c>
       <c r="H24" s="3">
-        <v>1100</v>
+        <v>-19600</v>
       </c>
       <c r="I24" s="3">
         <v>1100</v>
       </c>
       <c r="J24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="K24" s="3">
         <v>4000</v>
       </c>
-      <c r="K24" s="3">
+      <c r="L24" s="3">
         <v>500</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>-9200</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>9500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>1600</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>-26500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>12900</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-2000</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>5300</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>55300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="25" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1649,120 +1697,129 @@
       <c r="T25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-38300</v>
+      </c>
+      <c r="E26" s="3">
         <v>-21600</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>28500</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-41000</v>
       </c>
-      <c r="G26" s="3">
-        <v>-30700</v>
-      </c>
       <c r="H26" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="I26" s="3">
         <v>-8900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>16900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>300</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>-12600</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>151500</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>79800</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>-38900</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>15300</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-20500</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-15900</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-62000</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-5400</v>
       </c>
     </row>
-    <row r="27" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-31800</v>
+      </c>
+      <c r="E27" s="3">
         <v>-17700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>12700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-23500</v>
       </c>
-      <c r="G27" s="3">
-        <v>-31400</v>
-      </c>
       <c r="H27" s="3">
+        <v>-18000</v>
+      </c>
+      <c r="I27" s="3">
         <v>-8500</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>16700</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>5000</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>-16100</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>152800</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>54700</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>-35700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>11900</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-18700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-15100</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-67300</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="28" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1817,37 +1874,40 @@
       <c r="T28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
-        <v>0</v>
+        <v>-63800</v>
       </c>
       <c r="E29" s="3">
         <v>0</v>
       </c>
       <c r="F29" s="3">
+        <v>0</v>
+      </c>
+      <c r="G29" s="3">
         <v>-60000</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>8</v>
-      </c>
       <c r="H29" s="3">
+        <v>-13900</v>
+      </c>
+      <c r="I29" s="3">
         <v>600</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-7700</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-6600</v>
       </c>
-      <c r="K29" s="3">
-        <v>0</v>
-      </c>
-      <c r="L29" s="3" t="s">
-        <v>8</v>
+      <c r="L29" s="3">
+        <v>0</v>
       </c>
       <c r="M29" s="3" t="s">
         <v>8</v>
@@ -1855,11 +1915,11 @@
       <c r="N29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="O29" s="3">
+      <c r="O29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="P29" s="3">
         <v>-21100</v>
-      </c>
-      <c r="P29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>8</v>
@@ -1867,14 +1927,17 @@
       <c r="R29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S29" s="3">
-        <v>0</v>
+      <c r="S29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="T29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1929,8 +1992,11 @@
       <c r="T30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1985,120 +2051,129 @@
       <c r="T31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-65100</v>
+      </c>
+      <c r="E32" s="3">
         <v>-6000</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-63800</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-300</v>
       </c>
-      <c r="G32" s="3">
-        <v>-1300</v>
-      </c>
       <c r="H32" s="3">
+        <v>-7900</v>
+      </c>
+      <c r="I32" s="3">
         <v>-4800</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-2400</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>2500</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-16400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-72000</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-9800</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>4100</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-500</v>
-      </c>
-      <c r="P32" s="3">
-        <v>-900</v>
       </c>
       <c r="Q32" s="3">
         <v>-900</v>
       </c>
       <c r="R32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="S32" s="3">
         <v>-2800</v>
       </c>
-      <c r="S32" s="3">
+      <c r="T32" s="3">
         <v>-9000</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="33" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-95600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-17700</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>12700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-83500</v>
       </c>
-      <c r="G33" s="3">
-        <v>-31400</v>
-      </c>
       <c r="H33" s="3">
+        <v>-31900</v>
+      </c>
+      <c r="I33" s="3">
         <v>-7900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>9000</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-1600</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-16100</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>152800</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>54700</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>-35700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-9200</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-18700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-15100</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-67300</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="34" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2153,125 +2228,134 @@
       <c r="T34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-95600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-17700</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>12700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-83500</v>
       </c>
-      <c r="G35" s="3">
-        <v>-31400</v>
-      </c>
       <c r="H35" s="3">
+        <v>-31900</v>
+      </c>
+      <c r="I35" s="3">
         <v>-7900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>9000</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-1600</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-16100</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>152800</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>54700</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>-35700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-9200</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-18700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-15100</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-67300</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="37" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E38" s="2">
         <v>44104</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44012</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>43921</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43830</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43738</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43646</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43555</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43465</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43373</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43281</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43190</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43100</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43008</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>42916</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42825</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42735</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2292,8 +2376,9 @@
       <c r="R39" s="3"/>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
-    </row>
-    <row r="40" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U39" s="3"/>
+    </row>
+    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2314,64 +2399,68 @@
       <c r="R40" s="3"/>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
-    </row>
-    <row r="41" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U40" s="3"/>
+    </row>
+    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>232300</v>
+      </c>
+      <c r="E41" s="3">
         <v>163600</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>203800</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>186900</v>
       </c>
-      <c r="G41" s="3">
-        <v>239000</v>
-      </c>
       <c r="H41" s="3">
+        <v>193700</v>
+      </c>
+      <c r="I41" s="3">
         <v>276900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>280400</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>302200</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>325000</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>831600</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>112300</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>92100</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>97900</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>130800</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>143100</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>127000</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>115400</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>121300</v>
       </c>
     </row>
-    <row r="42" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -2403,87 +2492,93 @@
         <v>0</v>
       </c>
       <c r="M42" s="3">
+        <v>0</v>
+      </c>
+      <c r="N42" s="3">
         <v>1502600</v>
       </c>
-      <c r="N42" s="3">
+      <c r="O42" s="3">
         <v>1543400</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1543600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1521600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1513300</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1475000</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1427900</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1476200</v>
       </c>
     </row>
-    <row r="43" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>184700</v>
+      </c>
+      <c r="E43" s="3">
         <v>252300</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>261200</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>333300</v>
       </c>
-      <c r="G43" s="3">
-        <v>337800</v>
-      </c>
       <c r="H43" s="3">
+        <v>228900</v>
+      </c>
+      <c r="I43" s="3">
         <v>293300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>350700</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>328400</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>379200</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>350900</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>346700</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>327500</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>322400</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>265100</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>250500</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>228100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>283500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>288500</v>
       </c>
     </row>
-    <row r="44" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2529,17 +2624,20 @@
       <c r="Q44" s="3">
         <v>0</v>
       </c>
-      <c r="R44" s="3" t="s">
+      <c r="R44" s="3">
+        <v>0</v>
+      </c>
+      <c r="S44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="S44" s="3">
+      <c r="T44" s="3">
         <v>9600</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="45" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -2571,31 +2669,34 @@
         <v>0</v>
       </c>
       <c r="M45" s="3">
+        <v>0</v>
+      </c>
+      <c r="N45" s="3">
         <v>532300</v>
       </c>
-      <c r="N45" s="3">
+      <c r="O45" s="3">
         <v>530400</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>528000</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>531100</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>528200</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>525300</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>541000</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>587300</v>
       </c>
     </row>
-    <row r="46" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -2627,64 +2728,67 @@
         <v>0</v>
       </c>
       <c r="M46" s="3">
+        <v>0</v>
+      </c>
+      <c r="N46" s="3">
         <v>2493800</v>
       </c>
-      <c r="N46" s="3">
+      <c r="O46" s="3">
         <v>2493300</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2491900</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2448600</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2435100</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2355300</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2336200</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2482300</v>
       </c>
     </row>
-    <row r="47" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>4665600</v>
+      </c>
+      <c r="E47" s="3">
         <v>4569400</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>4398200</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>4056800</v>
       </c>
-      <c r="G47" s="3">
-        <v>4409000</v>
-      </c>
       <c r="H47" s="3">
+        <v>4392100</v>
+      </c>
+      <c r="I47" s="3">
         <v>4349000</v>
       </c>
-      <c r="I47" s="3">
+      <c r="J47" s="3">
         <v>4198100</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>4023400</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>3822000</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3381200</v>
       </c>
-      <c r="M47" s="3">
-        <v>0</v>
-      </c>
       <c r="N47" s="3">
         <v>0</v>
       </c>
@@ -2706,120 +2810,129 @@
       <c r="T47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>113900</v>
+      </c>
+      <c r="E48" s="3">
         <v>213800</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>220200</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>223400</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
+        <v>376000</v>
+      </c>
+      <c r="I48" s="3">
         <v>405800</v>
       </c>
-      <c r="H48" s="3">
-        <v>405800</v>
-      </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>416400</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>376600</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>376300</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>369800</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>368900</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>372400</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>374700</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>282100</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>282700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>284300</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>461000</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>244200</v>
       </c>
     </row>
-    <row r="49" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>285600</v>
+      </c>
+      <c r="E49" s="3">
         <v>314900</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>330800</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>332100</v>
       </c>
-      <c r="G49" s="3">
-        <v>353800</v>
-      </c>
       <c r="H49" s="3">
+        <v>321000</v>
+      </c>
+      <c r="I49" s="3">
         <v>400800</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>403300</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>393400</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>390900</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>278100</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>249100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>251900</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>248800</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>132800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>134700</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>136500</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>137800</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>125200</v>
       </c>
     </row>
-    <row r="50" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2874,8 +2987,11 @@
       <c r="T50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -2930,64 +3046,70 @@
       <c r="T51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>130800</v>
+      </c>
+      <c r="E52" s="3">
         <v>7400</v>
-      </c>
-      <c r="E52" s="3">
-        <v>2200</v>
       </c>
       <c r="F52" s="3">
         <v>2200</v>
       </c>
       <c r="G52" s="3">
-        <v>2700</v>
+        <v>2200</v>
       </c>
       <c r="H52" s="3">
+        <v>558000</v>
+      </c>
+      <c r="I52" s="3">
         <v>2000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>2300</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>1800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2100</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1000</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>142500</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>109700</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>102300</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>107900</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>88800</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>80300</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>75300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>36300</v>
       </c>
     </row>
-    <row r="53" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3042,64 +3164,70 @@
       <c r="T53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6742800</v>
+      </c>
+      <c r="E54" s="3">
         <v>6688400</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6633300</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6339100</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6958300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6945500</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6883200</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6682400</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6503800</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6730000</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>3254300</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3227300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3217700</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>2971300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2941300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2856400</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2835300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2888000</v>
       </c>
     </row>
-    <row r="55" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3120,8 +3248,9 @@
       <c r="R55" s="3"/>
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
-    </row>
-    <row r="56" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U55" s="3"/>
+    </row>
+    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3142,64 +3271,68 @@
       <c r="R56" s="3"/>
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
-    </row>
-    <row r="57" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U56" s="3"/>
+    </row>
+    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>69700</v>
+      </c>
+      <c r="E57" s="3">
         <v>97700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>114900</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>147400</v>
       </c>
-      <c r="G57" s="3">
-        <v>190400</v>
-      </c>
       <c r="H57" s="3">
+        <v>112100</v>
+      </c>
+      <c r="I57" s="3">
         <v>129300</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>133100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>132400</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>104700</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>111600</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>100200</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>111900</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>119200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>70200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>75000</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>60500</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>282800</v>
       </c>
-      <c r="T57" s="3" t="s">
+      <c r="U57" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -3254,64 +3387,70 @@
       <c r="T58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>106600</v>
+      </c>
+      <c r="E59" s="3">
         <v>200900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>168100</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>187000</v>
       </c>
-      <c r="G59" s="3">
-        <v>149200</v>
-      </c>
       <c r="H59" s="3">
+        <v>122000</v>
+      </c>
+      <c r="I59" s="3">
         <v>199800</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>205400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>187900</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>240200</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>241600</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>2202200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2218300</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2208300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2197600</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2158300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2137000</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2175600</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2223700</v>
       </c>
     </row>
-    <row r="60" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -3343,143 +3482,152 @@
         <v>0</v>
       </c>
       <c r="M60" s="3">
+        <v>0</v>
+      </c>
+      <c r="N60" s="3">
         <v>2302400</v>
       </c>
-      <c r="N60" s="3">
+      <c r="O60" s="3">
         <v>2330200</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2327600</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2267700</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2233300</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2197500</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2199200</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2223700</v>
       </c>
     </row>
-    <row r="61" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>561500</v>
+      </c>
+      <c r="E61" s="3">
         <v>646400</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>633800</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>686000</v>
       </c>
-      <c r="G61" s="3">
-        <v>839300</v>
-      </c>
       <c r="H61" s="3">
+        <v>723900</v>
+      </c>
+      <c r="I61" s="3">
         <v>820400</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>828200</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>762000</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>743900</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>702200</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>668500</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>655400</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>593200</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>496600</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>494700</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>445600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>428500</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>396700</v>
       </c>
     </row>
-    <row r="62" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>142300</v>
+      </c>
+      <c r="E62" s="3">
         <v>113200</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>101600</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>24400</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
+        <v>81600</v>
+      </c>
+      <c r="I62" s="3">
         <v>83700</v>
       </c>
-      <c r="H62" s="3">
-        <v>83700</v>
-      </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>59900</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>34600</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>30300</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>33900</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>88200</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>85900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>80900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>97300</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>113500</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>114300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>130400</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>45600</v>
       </c>
     </row>
-    <row r="63" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3534,8 +3682,11 @@
       <c r="T63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3590,8 +3741,11 @@
       <c r="T64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3646,64 +3800,70 @@
       <c r="T65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6172600</v>
+      </c>
+      <c r="E66" s="3">
         <v>6300700</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6303700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6314700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6598200</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6530400</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6543000</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6439000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6395400</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6519100</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>3176700</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3186700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3118200</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>2882000</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2863800</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2782400</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2761600</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2692300</v>
       </c>
     </row>
-    <row r="67" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3724,8 +3884,9 @@
       <c r="R67" s="3"/>
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
-    </row>
-    <row r="68" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U67" s="3"/>
+    </row>
+    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3780,8 +3941,11 @@
       <c r="T68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -3836,16 +4000,19 @@
       <c r="T69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
+        <v>10400</v>
+      </c>
+      <c r="E70" s="3">
         <v>15900</v>
-      </c>
-      <c r="E70" s="3">
-        <v>10300</v>
       </c>
       <c r="F70" s="3">
         <v>10300</v>
@@ -3863,10 +4030,10 @@
         <v>10300</v>
       </c>
       <c r="K70" s="3">
+        <v>10300</v>
+      </c>
+      <c r="L70" s="3">
         <v>20300</v>
-      </c>
-      <c r="L70" s="3">
-        <v>26300</v>
       </c>
       <c r="M70" s="3">
         <v>26300</v>
@@ -3884,16 +4051,19 @@
         <v>26300</v>
       </c>
       <c r="R70" s="3">
-        <v>29500</v>
+        <v>26300</v>
       </c>
       <c r="S70" s="3">
         <v>29500</v>
       </c>
       <c r="T70" s="3">
+        <v>29500</v>
+      </c>
+      <c r="U70" s="3">
         <v>43700</v>
       </c>
     </row>
-    <row r="71" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -3948,64 +4118,70 @@
       <c r="T71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-188700</v>
+      </c>
+      <c r="E72" s="3">
         <v>-184000</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-166700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-179800</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-96700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-62000</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-54900</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-64300</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-57200</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-43700</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-197100</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-252200</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-221200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-212700</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-206700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-188800</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-174300</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-112800</v>
       </c>
     </row>
-    <row r="73" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4060,8 +4236,11 @@
       <c r="T73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4116,8 +4295,11 @@
       <c r="T74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4172,64 +4354,70 @@
       <c r="T75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>559800</v>
+      </c>
+      <c r="E76" s="3">
         <v>371800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>319300</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>14100</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>349800</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>404800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>329900</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>233100</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>88100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>184600</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>51300</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>14300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>73200</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>63000</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>51200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>44500</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>44200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>152000</v>
       </c>
     </row>
-    <row r="77" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4284,125 +4472,134 @@
       <c r="T77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:20" x14ac:dyDescent="0.2">
+      <c r="U77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:20" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44196</v>
+      </c>
+      <c r="E80" s="2">
         <v>44104</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44012</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>43921</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43830</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43738</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43646</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43555</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43465</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43373</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43281</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43190</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43100</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43008</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>42916</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42825</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42735</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-95600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-17700</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>12700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-83500</v>
       </c>
-      <c r="G81" s="3">
-        <v>-31400</v>
-      </c>
       <c r="H81" s="3">
+        <v>-31900</v>
+      </c>
+      <c r="I81" s="3">
         <v>-7900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>9000</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-1600</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-16100</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>152800</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>54700</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>-35700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-9200</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-6700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-18700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-15100</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-67300</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="82" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4423,64 +4620,68 @@
       <c r="R82" s="3"/>
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
-    </row>
-    <row r="83" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U82" s="3"/>
+    </row>
+    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>5900</v>
+      </c>
+      <c r="E83" s="3">
         <v>4700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>3400</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>2900</v>
       </c>
-      <c r="G83" s="3">
-        <v>11400</v>
-      </c>
       <c r="H83" s="3">
+        <v>41100</v>
+      </c>
+      <c r="I83" s="3">
         <v>10700</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>10000</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>9000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>8700</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>8000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>10700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>11300</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>10100</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>9200</v>
-      </c>
-      <c r="Q83" s="3">
-        <v>8600</v>
       </c>
       <c r="R83" s="3">
         <v>8600</v>
       </c>
       <c r="S83" s="3">
+        <v>8600</v>
+      </c>
+      <c r="T83" s="3">
         <v>9300</v>
       </c>
-      <c r="T83" s="3">
+      <c r="U83" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="84" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4535,8 +4736,11 @@
       <c r="T84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4591,8 +4795,11 @@
       <c r="T85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4647,8 +4854,11 @@
       <c r="T86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4703,8 +4913,11 @@
       <c r="T87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4759,64 +4972,70 @@
       <c r="T88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>41700</v>
+      </c>
+      <c r="E89" s="3">
         <v>29600</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>12500</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>35300</v>
       </c>
-      <c r="G89" s="3">
-        <v>15000</v>
-      </c>
       <c r="H89" s="3">
+        <v>110500</v>
+      </c>
+      <c r="I89" s="3">
         <v>58700</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>-1300</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>38100</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>204700</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>177800</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>-42000</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-31100</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>20300</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-15900</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>32800</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>24200</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="90" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -4837,64 +5056,68 @@
       <c r="R90" s="3"/>
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
-    </row>
-    <row r="91" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U90" s="3"/>
+    </row>
+    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-17800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-5000</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5600</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-6100</v>
       </c>
-      <c r="G91" s="3">
-        <v>-14000</v>
-      </c>
       <c r="H91" s="3">
+        <v>-41400</v>
+      </c>
+      <c r="I91" s="3">
         <v>-8200</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-12800</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-6400</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-7400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-12100</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-11000</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-9200</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-6600</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-8300</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-7600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-9400</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-7400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -4949,8 +5172,11 @@
       <c r="T92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5005,64 +5231,70 @@
       <c r="T93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>162300</v>
+      </c>
+      <c r="E94" s="3">
         <v>-68500</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>78800</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>60100</v>
       </c>
-      <c r="G94" s="3">
-        <v>-62200</v>
-      </c>
       <c r="H94" s="3">
+        <v>-263700</v>
+      </c>
+      <c r="I94" s="3">
         <v>-46900</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-96200</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-58400</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-750000</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>509000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>73100</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>-56700</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-72300</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-28400</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-9800</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-28800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-60100</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-14300</v>
       </c>
     </row>
-    <row r="95" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5083,8 +5315,9 @@
       <c r="R95" s="3"/>
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
-    </row>
-    <row r="96" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U95" s="3"/>
+    </row>
+    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5122,25 +5355,28 @@
         <v>0</v>
       </c>
       <c r="O96" s="3">
+        <v>0</v>
+      </c>
+      <c r="P96" s="3">
         <v>-900</v>
       </c>
-      <c r="P96" s="3">
+      <c r="Q96" s="3">
         <v>-500</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-1300</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1200</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="97" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5195,8 +5431,11 @@
       <c r="T97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5251,8 +5490,11 @@
       <c r="T98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5307,172 +5549,184 @@
       <c r="T99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:20" x14ac:dyDescent="0.2">
+      <c r="U99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-204600</v>
+      </c>
+      <c r="E100" s="3">
         <v>-1200</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-74400</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-148200</v>
       </c>
-      <c r="G100" s="3">
-        <v>9000</v>
-      </c>
       <c r="H100" s="3">
+        <v>62400</v>
+      </c>
+      <c r="I100" s="3">
         <v>-15600</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>75400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-6400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>39500</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>32600</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>-6100</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>49200</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>69900</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>-3600</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>42600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>6500</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>29700</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="101" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
-        <v>100</v>
+        <v>700</v>
       </c>
       <c r="E101" s="3">
         <v>100</v>
       </c>
       <c r="F101" s="3">
+        <v>100</v>
+      </c>
+      <c r="G101" s="3">
         <v>500</v>
       </c>
-      <c r="G101" s="3">
-        <v>400</v>
-      </c>
       <c r="H101" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I101" s="3">
         <v>300</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>200</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>100</v>
-      </c>
-      <c r="K101" s="3">
-        <v>-100</v>
       </c>
       <c r="L101" s="3">
         <v>-100</v>
       </c>
       <c r="M101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="N101" s="3">
         <v>-1100</v>
       </c>
-      <c r="N101" s="3">
+      <c r="O101" s="3">
         <v>800</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>400</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>-500</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-800</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>1100</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>400</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="102" spans="3:20" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>100</v>
+      </c>
+      <c r="E102" s="3">
         <v>-40000</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>17000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>-52300</v>
       </c>
-      <c r="G102" s="3">
-        <v>-37800</v>
-      </c>
       <c r="H102" s="3">
+        <v>-89800</v>
+      </c>
+      <c r="I102" s="3">
         <v>-3500</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-21900</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-26600</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-505800</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>719300</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>23900</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>-5900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-33100</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-12200</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>16100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>11600</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>-6000</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-13200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HCHC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HCHC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
   <si>
     <t>HCHC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:U102"/>
+  <dimension ref="A5:V102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,269 +665,282 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="21" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="23" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E7" s="2">
         <v>44196</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44104</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44012</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>43921</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43830</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43738</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43646</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43555</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43465</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43373</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43281</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43190</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43100</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43008</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>42916</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42825</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42735</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>171800</v>
+      </c>
+      <c r="E8" s="3">
         <v>1005800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>393300</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>377000</v>
       </c>
-      <c r="G8" s="3">
-        <v>444800</v>
-      </c>
       <c r="H8" s="3">
+        <v>186600</v>
+      </c>
+      <c r="I8" s="3">
         <v>1077000</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>427500</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>479200</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>449000</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>524900</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>501400</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>496800</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>453700</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>458500</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>406400</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>378700</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>390600</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>454000</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>413100</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>141300</v>
+      </c>
+      <c r="E9" s="3">
         <v>588500</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>278700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>262100</v>
       </c>
-      <c r="G9" s="3">
-        <v>346100</v>
-      </c>
       <c r="H9" s="3">
+        <v>156800</v>
+      </c>
+      <c r="I9" s="3">
         <v>596000</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>301300</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>731800</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>324500</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>406000</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>402900</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>400600</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>375700</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>365300</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>324700</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>308700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>314400</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>361100</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>333900</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>30500</v>
+      </c>
+      <c r="E10" s="3">
         <v>417300</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>114600</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>114900</v>
       </c>
-      <c r="G10" s="3">
-        <v>98700</v>
-      </c>
       <c r="H10" s="3">
+        <v>29800</v>
+      </c>
+      <c r="I10" s="3">
         <v>481000</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>126200</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>-252600</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>124500</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>118900</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>98500</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>96200</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>78000</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>93200</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>81700</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>70000</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>76200</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>92900</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>79200</v>
       </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -949,8 +962,9 @@
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V11" s="3"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1008,8 +1022,11 @@
       <c r="U12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1067,126 +1084,135 @@
       <c r="U13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="V13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E14" s="3">
         <v>22900</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>4200</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>3400</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>5800</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>48900</v>
       </c>
-      <c r="I14" s="3">
-        <v>0</v>
-      </c>
       <c r="J14" s="3">
+        <v>0</v>
+      </c>
+      <c r="K14" s="3">
         <v>-1100</v>
       </c>
-      <c r="K14" s="3">
-        <v>0</v>
-      </c>
       <c r="L14" s="3">
+        <v>0</v>
+      </c>
+      <c r="M14" s="3">
         <v>-5500</v>
       </c>
-      <c r="M14" s="3">
+      <c r="N14" s="3">
         <v>-112100</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-102100</v>
       </c>
-      <c r="O14" s="3">
-        <v>0</v>
-      </c>
       <c r="P14" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="3">
         <v>-5400</v>
       </c>
-      <c r="Q14" s="3">
+      <c r="R14" s="3">
         <v>-6300</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>100</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>200</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>11300</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="3">
+        <v>3900</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E15" s="3">
+      <c r="F15" s="3">
         <v>2400</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>1100</v>
       </c>
-      <c r="G15" s="3">
-        <v>600</v>
-      </c>
       <c r="H15" s="3">
+        <v>4300</v>
+      </c>
+      <c r="I15" s="3">
         <v>8900</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>2200</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>1200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>300</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>6700</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>6300</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>9100</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>9700</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>8700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>7900</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>7300</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>7400</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>6300</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1205,126 +1231,133 @@
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
-    </row>
-    <row r="17" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V16" s="3"/>
+    </row>
+    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>193500</v>
+      </c>
+      <c r="E17" s="3">
         <v>1019300</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>399600</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>375500</v>
       </c>
-      <c r="G17" s="3">
-        <v>477400</v>
-      </c>
       <c r="H17" s="3">
+        <v>206000</v>
+      </c>
+      <c r="I17" s="3">
         <v>1050600</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>420000</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>444500</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>423400</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>531600</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>413600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>400200</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>467400</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>454600</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>389500</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>389900</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>389800</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>457900</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>406200</v>
       </c>
     </row>
-    <row r="18" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-21700</v>
+      </c>
+      <c r="E18" s="3">
         <v>-13500</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-6300</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>1500</v>
       </c>
-      <c r="G18" s="3">
-        <v>-32600</v>
-      </c>
       <c r="H18" s="3">
+        <v>-19400</v>
+      </c>
+      <c r="I18" s="3">
         <v>26400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>7500</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>34700</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>25600</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>-6700</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>87800</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>96600</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>-13700</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>3900</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>16900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>-11200</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>800</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>-3900</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="19" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1346,303 +1379,319 @@
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
-    </row>
-    <row r="20" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V19" s="3"/>
+    </row>
+    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>1300</v>
+      </c>
+      <c r="E20" s="3">
         <v>65100</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>6000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>63800</v>
       </c>
-      <c r="G20" s="3">
-        <v>300</v>
-      </c>
       <c r="H20" s="3">
+        <v>-1000</v>
+      </c>
+      <c r="I20" s="3">
         <v>7900</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>4800</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>2400</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>-2500</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>16400</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>72000</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>9800</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>-4100</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>500</v>
-      </c>
-      <c r="Q20" s="3">
-        <v>900</v>
       </c>
       <c r="R20" s="3">
         <v>900</v>
       </c>
       <c r="S20" s="3">
+        <v>900</v>
+      </c>
+      <c r="T20" s="3">
         <v>2800</v>
       </c>
-      <c r="T20" s="3">
+      <c r="U20" s="3">
         <v>9000</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="21" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-14200</v>
+      </c>
+      <c r="E21" s="3">
         <v>57500</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>4400</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>68700</v>
       </c>
-      <c r="G21" s="3">
-        <v>-29400</v>
-      </c>
       <c r="H21" s="3">
+        <v>-17500</v>
+      </c>
+      <c r="I21" s="3">
         <v>75400</v>
       </c>
-      <c r="I21" s="3">
+      <c r="J21" s="3">
         <v>23000</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>47100</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>32100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>18400</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>167800</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>117200</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>-6600</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>14600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>26900</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>-1800</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>12200</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>14300</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="22" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>21400</v>
+      </c>
+      <c r="E22" s="3">
         <v>79400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>19700</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>21400</v>
       </c>
-      <c r="G22" s="3">
-        <v>21300</v>
-      </c>
       <c r="H22" s="3">
+        <v>19200</v>
+      </c>
+      <c r="I22" s="3">
         <v>76100</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>20100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>19100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>18800</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>21700</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>17500</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>17200</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>19300</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>15700</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>13200</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>12100</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>14100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>11800</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="23" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-41800</v>
+      </c>
+      <c r="E23" s="3">
         <v>-27800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-20000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>43900</v>
       </c>
-      <c r="G23" s="3">
-        <v>-53600</v>
-      </c>
       <c r="H23" s="3">
+        <v>-39600</v>
+      </c>
+      <c r="I23" s="3">
         <v>-41800</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-7800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>18000</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>4300</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>-12000</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>142300</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>89200</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>-37200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-11200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>4500</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>-22500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-10600</v>
-      </c>
-      <c r="T23" s="3">
-        <v>-6700</v>
       </c>
       <c r="U23" s="3">
         <v>-6700</v>
       </c>
-    </row>
-    <row r="24" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V23" s="3">
+        <v>-6700</v>
+      </c>
+    </row>
+    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="E24" s="3">
         <v>10500</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>1600</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>15400</v>
       </c>
-      <c r="G24" s="3">
-        <v>-12600</v>
-      </c>
       <c r="H24" s="3">
+        <v>-9700</v>
+      </c>
+      <c r="I24" s="3">
         <v>-19600</v>
-      </c>
-      <c r="I24" s="3">
-        <v>1100</v>
       </c>
       <c r="J24" s="3">
         <v>1100</v>
       </c>
       <c r="K24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="L24" s="3">
         <v>4000</v>
       </c>
-      <c r="L24" s="3">
+      <c r="M24" s="3">
         <v>500</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>-9200</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>9500</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>1600</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>-26500</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>12900</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>-2000</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>5300</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>55300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="25" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1700,126 +1749,135 @@
       <c r="U25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-42900</v>
+      </c>
+      <c r="E26" s="3">
         <v>-38300</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-21600</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>28500</v>
       </c>
-      <c r="G26" s="3">
-        <v>-41000</v>
-      </c>
       <c r="H26" s="3">
+        <v>-29900</v>
+      </c>
+      <c r="I26" s="3">
         <v>-22200</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-8900</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>16900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>300</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>-12600</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>151500</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>79800</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>-38900</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>15300</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>-8300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-20500</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-15900</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-62000</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-5400</v>
       </c>
     </row>
-    <row r="27" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-39700</v>
+      </c>
+      <c r="E27" s="3">
         <v>-31800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-17700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>12700</v>
       </c>
-      <c r="G27" s="3">
-        <v>-23500</v>
-      </c>
       <c r="H27" s="3">
+        <v>-12400</v>
+      </c>
+      <c r="I27" s="3">
         <v>-18000</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-8500</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>16700</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>5000</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>-16100</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>152800</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>54700</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>-35700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>11900</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>-6700</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-18700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-15100</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-67300</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="28" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1877,40 +1935,43 @@
       <c r="U28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>51900</v>
+      </c>
+      <c r="E29" s="3">
         <v>-63800</v>
       </c>
-      <c r="E29" s="3">
-        <v>0</v>
-      </c>
       <c r="F29" s="3">
         <v>0</v>
       </c>
       <c r="G29" s="3">
-        <v>-60000</v>
+        <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>-131100</v>
+      </c>
+      <c r="I29" s="3">
         <v>-13900</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>600</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>-7700</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-6600</v>
       </c>
-      <c r="L29" s="3">
-        <v>0</v>
-      </c>
-      <c r="M29" s="3" t="s">
-        <v>8</v>
+      <c r="M29" s="3">
+        <v>0</v>
       </c>
       <c r="N29" s="3" t="s">
         <v>8</v>
@@ -1918,11 +1979,11 @@
       <c r="O29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="P29" s="3">
+      <c r="P29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q29" s="3">
         <v>-21100</v>
-      </c>
-      <c r="Q29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="R29" s="3" t="s">
         <v>8</v>
@@ -1930,14 +1991,17 @@
       <c r="S29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T29" s="3">
-        <v>0</v>
+      <c r="T29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="U29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1995,8 +2059,11 @@
       <c r="U30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2054,126 +2121,135 @@
       <c r="U31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-1300</v>
+      </c>
+      <c r="E32" s="3">
         <v>-65100</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-6000</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-63800</v>
       </c>
-      <c r="G32" s="3">
-        <v>-300</v>
-      </c>
       <c r="H32" s="3">
+        <v>1000</v>
+      </c>
+      <c r="I32" s="3">
         <v>-7900</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-4800</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-2400</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>2500</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>-16400</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-72000</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-9800</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>4100</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>-500</v>
-      </c>
-      <c r="Q32" s="3">
-        <v>-900</v>
       </c>
       <c r="R32" s="3">
         <v>-900</v>
       </c>
       <c r="S32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="T32" s="3">
         <v>-2800</v>
       </c>
-      <c r="T32" s="3">
+      <c r="U32" s="3">
         <v>-9000</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="33" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E33" s="3">
         <v>-95600</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-17700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>12700</v>
       </c>
-      <c r="G33" s="3">
-        <v>-83500</v>
-      </c>
       <c r="H33" s="3">
+        <v>-143500</v>
+      </c>
+      <c r="I33" s="3">
         <v>-31900</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-7900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>9000</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>-1600</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-16100</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>152800</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>54700</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>-35700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-9200</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-6700</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-18700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-15100</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-67300</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="34" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2231,131 +2307,140 @@
       <c r="U34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E35" s="3">
         <v>-95600</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-17700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>12700</v>
       </c>
-      <c r="G35" s="3">
-        <v>-83500</v>
-      </c>
       <c r="H35" s="3">
+        <v>-143500</v>
+      </c>
+      <c r="I35" s="3">
         <v>-31900</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-7900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>9000</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>-1600</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-16100</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>152800</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>54700</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>-35700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-9200</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-6700</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-18700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-15100</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-67300</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="37" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E38" s="2">
         <v>44196</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44104</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44012</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>43921</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43830</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43738</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43646</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43555</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43465</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43373</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43281</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43190</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43100</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43008</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>42916</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42825</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42735</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2377,8 +2462,9 @@
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
-    </row>
-    <row r="40" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V39" s="3"/>
+    </row>
+    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2400,90 +2486,94 @@
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
-    </row>
-    <row r="41" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V40" s="3"/>
+    </row>
+    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>54200</v>
+      </c>
+      <c r="E41" s="3">
         <v>232300</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>163600</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>203800</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>186900</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>193700</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>276900</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>280400</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>302200</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>325000</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>831600</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>112300</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>92100</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>97900</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>130800</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>143100</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>127000</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>115400</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>121300</v>
       </c>
     </row>
-    <row r="42" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D42" s="3">
-        <v>0</v>
+      <c r="D42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="E42" s="3">
-        <v>0</v>
+        <v>4665600</v>
       </c>
       <c r="F42" s="3">
-        <v>0</v>
+        <v>4569400</v>
       </c>
       <c r="G42" s="3">
-        <v>0</v>
+        <v>4398200</v>
       </c>
       <c r="H42" s="3">
-        <v>0</v>
+        <v>4056800</v>
       </c>
       <c r="I42" s="3">
-        <v>0</v>
-      </c>
-      <c r="J42" s="3">
-        <v>0</v>
+        <v>4392100</v>
+      </c>
+      <c r="J42" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K42" s="3">
         <v>0</v>
@@ -2495,90 +2585,96 @@
         <v>0</v>
       </c>
       <c r="N42" s="3">
+        <v>0</v>
+      </c>
+      <c r="O42" s="3">
         <v>1502600</v>
       </c>
-      <c r="O42" s="3">
+      <c r="P42" s="3">
         <v>1543400</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1543600</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1521600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1513300</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1475000</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1427900</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1476200</v>
       </c>
     </row>
-    <row r="43" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>186400</v>
+      </c>
+      <c r="E43" s="3">
         <v>184700</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>252300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>261200</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>333300</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>228900</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>293300</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>350700</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>328400</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>379200</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>350900</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>346700</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>327500</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>322400</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>265100</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>250500</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>228100</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>283500</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>288500</v>
       </c>
     </row>
-    <row r="44" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2627,40 +2723,43 @@
       <c r="R44" s="3">
         <v>0</v>
       </c>
-      <c r="S44" s="3" t="s">
+      <c r="S44" s="3">
+        <v>0</v>
+      </c>
+      <c r="T44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="T44" s="3">
+      <c r="U44" s="3">
         <v>9600</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="45" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
-        <v>0</v>
+        <v>5679800</v>
       </c>
       <c r="E45" s="3">
-        <v>0</v>
+        <v>961900</v>
       </c>
       <c r="F45" s="3">
-        <v>0</v>
+        <v>963200</v>
       </c>
       <c r="G45" s="3">
-        <v>0</v>
+        <v>960600</v>
       </c>
       <c r="H45" s="3">
-        <v>0</v>
+        <v>960600</v>
       </c>
       <c r="I45" s="3">
-        <v>0</v>
+        <v>956500</v>
       </c>
       <c r="J45" s="3">
-        <v>0</v>
+        <v>947900</v>
       </c>
       <c r="K45" s="3">
         <v>0</v>
@@ -2672,54 +2771,57 @@
         <v>0</v>
       </c>
       <c r="N45" s="3">
+        <v>0</v>
+      </c>
+      <c r="O45" s="3">
         <v>532300</v>
       </c>
-      <c r="O45" s="3">
+      <c r="P45" s="3">
         <v>530400</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>528000</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>531100</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>528200</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>525300</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>541000</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>587300</v>
       </c>
     </row>
-    <row r="46" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
-        <v>0</v>
+        <v>5920400</v>
       </c>
       <c r="E46" s="3">
-        <v>0</v>
+        <v>6044500</v>
       </c>
       <c r="F46" s="3">
-        <v>0</v>
+        <v>5948500</v>
       </c>
       <c r="G46" s="3">
-        <v>0</v>
+        <v>5823800</v>
       </c>
       <c r="H46" s="3">
-        <v>0</v>
+        <v>5537600</v>
       </c>
       <c r="I46" s="3">
-        <v>0</v>
+        <v>5771200</v>
       </c>
       <c r="J46" s="3">
-        <v>0</v>
+        <v>1518100</v>
       </c>
       <c r="K46" s="3">
         <v>0</v>
@@ -2731,67 +2833,70 @@
         <v>0</v>
       </c>
       <c r="N46" s="3">
+        <v>0</v>
+      </c>
+      <c r="O46" s="3">
         <v>2493800</v>
       </c>
-      <c r="O46" s="3">
+      <c r="P46" s="3">
         <v>2493300</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2491900</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2448600</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2435100</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2355300</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2336200</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2482300</v>
       </c>
     </row>
-    <row r="47" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
-        <v>4665600</v>
-      </c>
-      <c r="E47" s="3">
-        <v>4569400</v>
-      </c>
-      <c r="F47" s="3">
-        <v>4398200</v>
-      </c>
-      <c r="G47" s="3">
-        <v>4056800</v>
-      </c>
-      <c r="H47" s="3">
-        <v>4392100</v>
+        <v>52700</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="I47" s="3">
+        <v>4409000</v>
+      </c>
+      <c r="J47" s="3">
         <v>4349000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>4198100</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4023400</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>3822000</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3381200</v>
       </c>
-      <c r="N47" s="3">
-        <v>0</v>
-      </c>
       <c r="O47" s="3">
         <v>0</v>
       </c>
@@ -2813,126 +2918,135 @@
       <c r="U47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>149300</v>
+      </c>
+      <c r="E48" s="3">
         <v>113900</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>213800</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>220200</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>223400</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>376000</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>405800</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>416400</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>376600</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>376300</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>369800</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>368900</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>372400</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>374700</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>282100</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>282700</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>284300</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>461000</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>244200</v>
       </c>
     </row>
-    <row r="49" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>278000</v>
+      </c>
+      <c r="E49" s="3">
         <v>285600</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>314900</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>330800</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>332100</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>321000</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>400800</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>403300</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>393400</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>390900</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>278100</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>249100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>251900</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>248800</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>132800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>134700</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>136500</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>137800</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>125200</v>
       </c>
     </row>
-    <row r="50" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -2990,8 +3104,11 @@
       <c r="U50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3049,67 +3166,73 @@
       <c r="U51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
-        <v>130800</v>
+        <v>5600</v>
       </c>
       <c r="E52" s="3">
-        <v>7400</v>
+        <v>298800</v>
       </c>
       <c r="F52" s="3">
-        <v>2200</v>
+        <v>211200</v>
       </c>
       <c r="G52" s="3">
-        <v>2200</v>
+        <v>258500</v>
       </c>
       <c r="H52" s="3">
-        <v>558000</v>
+        <v>246000</v>
       </c>
       <c r="I52" s="3">
-        <v>2000</v>
+        <v>1693000</v>
       </c>
       <c r="J52" s="3">
+        <v>271800</v>
+      </c>
+      <c r="K52" s="3">
         <v>2300</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>1800</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>2100</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>1000</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>142500</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>109700</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>102300</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>107900</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>88800</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>80300</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>75300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>36300</v>
       </c>
     </row>
-    <row r="53" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3167,67 +3290,73 @@
       <c r="U53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6406000</v>
+      </c>
+      <c r="E54" s="3">
         <v>6742800</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6688400</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6633300</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6339100</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6958300</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6945500</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6883200</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6682400</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6503800</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6730000</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>3254300</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3227300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3217700</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>2971300</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2941300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2856400</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2835300</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2888000</v>
       </c>
     </row>
-    <row r="55" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3249,8 +3378,9 @@
       <c r="S55" s="3"/>
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
-    </row>
-    <row r="56" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V55" s="3"/>
+    </row>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3272,90 +3402,94 @@
       <c r="S56" s="3"/>
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
-    </row>
-    <row r="57" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V56" s="3"/>
+    </row>
+    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>70200</v>
+      </c>
+      <c r="E57" s="3">
         <v>69700</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>97700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>114900</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>147400</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>112100</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>129300</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>133100</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>132400</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>104700</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>111600</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>100200</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>111900</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>119200</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>70200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>75000</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>60500</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>282800</v>
       </c>
-      <c r="U57" s="3" t="s">
+      <c r="V57" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
-        <v>0</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0</v>
-      </c>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="3">
-        <v>0</v>
-      </c>
-      <c r="I58" s="3">
-        <v>0</v>
-      </c>
-      <c r="J58" s="3">
-        <v>0</v>
+        <v>82800</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="H58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="I58" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="K58" s="3">
         <v>0</v>
@@ -3390,90 +3524,96 @@
       <c r="U58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
-        <v>106600</v>
+        <v>5317300</v>
       </c>
       <c r="E59" s="3">
-        <v>200900</v>
+        <v>5237400</v>
       </c>
       <c r="F59" s="3">
-        <v>168100</v>
+        <v>5259800</v>
       </c>
       <c r="G59" s="3">
-        <v>187000</v>
+        <v>5219600</v>
       </c>
       <c r="H59" s="3">
-        <v>122000</v>
+        <v>5231400</v>
       </c>
       <c r="I59" s="3">
-        <v>199800</v>
+        <v>5687400</v>
       </c>
       <c r="J59" s="3">
+        <v>5206300</v>
+      </c>
+      <c r="K59" s="3">
         <v>205400</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>187900</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>240200</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>241600</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>2202200</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2218300</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2208300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2197600</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2158300</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2137000</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2175600</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2223700</v>
       </c>
     </row>
-    <row r="60" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
-        <v>0</v>
+        <v>5470300</v>
       </c>
       <c r="E60" s="3">
-        <v>0</v>
+        <v>5307100</v>
       </c>
       <c r="F60" s="3">
-        <v>0</v>
+        <v>5357500</v>
       </c>
       <c r="G60" s="3">
-        <v>0</v>
+        <v>5334500</v>
       </c>
       <c r="H60" s="3">
-        <v>0</v>
+        <v>5378800</v>
       </c>
       <c r="I60" s="3">
-        <v>0</v>
+        <v>5550100</v>
       </c>
       <c r="J60" s="3">
-        <v>0</v>
+        <v>5335600</v>
       </c>
       <c r="K60" s="3">
         <v>0</v>
@@ -3485,149 +3625,158 @@
         <v>0</v>
       </c>
       <c r="N60" s="3">
+        <v>0</v>
+      </c>
+      <c r="O60" s="3">
         <v>2302400</v>
       </c>
-      <c r="O60" s="3">
+      <c r="P60" s="3">
         <v>2330200</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2327600</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2267700</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2233300</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2197500</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2199200</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2223700</v>
       </c>
     </row>
-    <row r="61" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>463300</v>
+      </c>
+      <c r="E61" s="3">
         <v>561500</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>646400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>633800</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>686000</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>723900</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>820400</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>828200</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>762000</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>743900</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>702200</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>668500</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>655400</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>593200</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>496600</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>494700</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>445600</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>428500</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>396700</v>
       </c>
     </row>
-    <row r="62" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
-        <v>142300</v>
+        <v>40900</v>
       </c>
       <c r="E62" s="3">
-        <v>113200</v>
+        <v>258300</v>
       </c>
       <c r="F62" s="3">
-        <v>101600</v>
+        <v>248900</v>
       </c>
       <c r="G62" s="3">
-        <v>24400</v>
+        <v>281100</v>
       </c>
       <c r="H62" s="3">
-        <v>81600</v>
+        <v>195200</v>
       </c>
       <c r="I62" s="3">
-        <v>83700</v>
+        <v>219100</v>
       </c>
       <c r="J62" s="3">
+        <v>266800</v>
+      </c>
+      <c r="K62" s="3">
         <v>59900</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>34600</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>30300</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>33900</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>88200</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>85900</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>80900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>97300</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>113500</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>114300</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>130400</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>45600</v>
       </c>
     </row>
-    <row r="63" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3685,8 +3834,11 @@
       <c r="U63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3744,8 +3896,11 @@
       <c r="U64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3803,67 +3958,73 @@
       <c r="U65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6006000</v>
+      </c>
+      <c r="E66" s="3">
         <v>6172600</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6300700</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6303700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6314700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6598200</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6530400</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6543000</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6439000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6395400</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6519100</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>3176700</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3186700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3118200</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>2882000</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2863800</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2782400</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2761600</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2692300</v>
       </c>
     </row>
-    <row r="67" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -3885,8 +4046,9 @@
       <c r="S67" s="3"/>
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
-    </row>
-    <row r="68" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V67" s="3"/>
+    </row>
+    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -3944,8 +4106,11 @@
       <c r="U68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4003,8 +4168,11 @@
       <c r="U69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -4012,10 +4180,10 @@
         <v>10400</v>
       </c>
       <c r="E70" s="3">
+        <v>10400</v>
+      </c>
+      <c r="F70" s="3">
         <v>15900</v>
-      </c>
-      <c r="F70" s="3">
-        <v>10300</v>
       </c>
       <c r="G70" s="3">
         <v>10300</v>
@@ -4033,10 +4201,10 @@
         <v>10300</v>
       </c>
       <c r="L70" s="3">
+        <v>10300</v>
+      </c>
+      <c r="M70" s="3">
         <v>20300</v>
-      </c>
-      <c r="M70" s="3">
-        <v>26300</v>
       </c>
       <c r="N70" s="3">
         <v>26300</v>
@@ -4054,16 +4222,19 @@
         <v>26300</v>
       </c>
       <c r="S70" s="3">
-        <v>29500</v>
+        <v>26300</v>
       </c>
       <c r="T70" s="3">
         <v>29500</v>
       </c>
       <c r="U70" s="3">
+        <v>29500</v>
+      </c>
+      <c r="V70" s="3">
         <v>43700</v>
       </c>
     </row>
-    <row r="71" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4121,67 +4292,73 @@
       <c r="U71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-176100</v>
+      </c>
+      <c r="E72" s="3">
         <v>-188700</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-184000</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-166700</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-179800</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-96700</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-62000</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-54900</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-64300</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-57200</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-43700</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-197100</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-252200</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-221200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-212700</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-206700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-188800</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-174300</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-112800</v>
       </c>
     </row>
-    <row r="73" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4239,8 +4416,11 @@
       <c r="U73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4298,8 +4478,11 @@
       <c r="U74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4357,67 +4540,73 @@
       <c r="U75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>389600</v>
+      </c>
+      <c r="E76" s="3">
         <v>559800</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>371800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>319300</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>14100</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>349800</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>404800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>329900</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>233100</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>88100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>184600</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>51300</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>14300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>73200</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>63000</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>51200</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>44500</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>44200</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>152000</v>
       </c>
     </row>
-    <row r="77" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4475,131 +4664,140 @@
       <c r="U77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="V77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:21" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44286</v>
+      </c>
+      <c r="E80" s="2">
         <v>44196</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44104</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44012</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>43921</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43830</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43738</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43646</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43555</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43465</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43373</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43281</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43190</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43100</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43008</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>42916</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42825</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42735</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>12200</v>
+      </c>
+      <c r="E81" s="3">
         <v>-95600</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-17700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>12700</v>
       </c>
-      <c r="G81" s="3">
-        <v>-83500</v>
-      </c>
       <c r="H81" s="3">
+        <v>-143500</v>
+      </c>
+      <c r="I81" s="3">
         <v>-31900</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-7900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>9000</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>-1600</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-16100</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>152800</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>54700</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>-35700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-9200</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-6700</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-18700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-15100</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-67300</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="82" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4621,67 +4819,71 @@
       <c r="S82" s="3"/>
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
-    </row>
-    <row r="83" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V82" s="3"/>
+    </row>
+    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>6200</v>
+      </c>
+      <c r="E83" s="3">
         <v>5900</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>4700</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>3400</v>
       </c>
-      <c r="G83" s="3">
+      <c r="H83" s="3">
         <v>2900</v>
       </c>
-      <c r="H83" s="3">
+      <c r="I83" s="3">
         <v>41100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="J83" s="3">
         <v>10700</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>10000</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>9000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>8700</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>8000</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>10700</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>11300</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>10100</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>9200</v>
-      </c>
-      <c r="R83" s="3">
-        <v>8600</v>
       </c>
       <c r="S83" s="3">
         <v>8600</v>
       </c>
       <c r="T83" s="3">
+        <v>8600</v>
+      </c>
+      <c r="U83" s="3">
         <v>9300</v>
       </c>
-      <c r="U83" s="3">
+      <c r="V83" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="84" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4739,8 +4941,11 @@
       <c r="U84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -4798,8 +5003,11 @@
       <c r="U85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -4857,8 +5065,11 @@
       <c r="U86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -4916,8 +5127,11 @@
       <c r="U87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -4975,67 +5189,73 @@
       <c r="U88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-20800</v>
+      </c>
+      <c r="E89" s="3">
         <v>41700</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>29600</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>12500</v>
       </c>
-      <c r="G89" s="3">
+      <c r="H89" s="3">
         <v>35300</v>
       </c>
-      <c r="H89" s="3">
+      <c r="I89" s="3">
         <v>110500</v>
       </c>
-      <c r="I89" s="3">
+      <c r="J89" s="3">
         <v>58700</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>-1300</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>38100</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>204700</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>177800</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>-42000</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>800</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>-31100</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>20300</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>-15900</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>32800</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>24200</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="90" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5057,67 +5277,71 @@
       <c r="S90" s="3"/>
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
-    </row>
-    <row r="91" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V90" s="3"/>
+    </row>
+    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-3200</v>
+      </c>
+      <c r="E91" s="3">
         <v>-17800</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-5000</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-5600</v>
       </c>
-      <c r="G91" s="3">
+      <c r="H91" s="3">
         <v>-6100</v>
       </c>
-      <c r="H91" s="3">
+      <c r="I91" s="3">
         <v>-41400</v>
       </c>
-      <c r="I91" s="3">
+      <c r="J91" s="3">
         <v>-8200</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-12800</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-6400</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-7400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-12100</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-11000</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-9200</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-8300</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-7600</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-9400</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-7400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5175,8 +5399,11 @@
       <c r="U92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5234,67 +5461,73 @@
       <c r="U93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>67900</v>
+      </c>
+      <c r="E94" s="3">
         <v>162300</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-68500</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>78800</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>60100</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>-263700</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-46900</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-96200</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-58400</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-750000</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>509000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>73100</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>-56700</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-72300</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-28400</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-9800</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-28800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-60100</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-14300</v>
       </c>
     </row>
-    <row r="95" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5316,8 +5549,9 @@
       <c r="S95" s="3"/>
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
-    </row>
-    <row r="96" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V95" s="3"/>
+    </row>
+    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5358,25 +5592,28 @@
         <v>0</v>
       </c>
       <c r="P96" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q96" s="3">
         <v>-900</v>
       </c>
-      <c r="Q96" s="3">
+      <c r="R96" s="3">
         <v>-500</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-900</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-1300</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1200</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="97" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5434,8 +5671,11 @@
       <c r="U97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5493,8 +5733,11 @@
       <c r="U98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5552,181 +5795,193 @@
       <c r="U99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:21" x14ac:dyDescent="0.2">
+      <c r="V99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-35900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-204600</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-1200</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-74400</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-148200</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>62400</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>-15600</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>75400</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>-6400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>39500</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>32600</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>-6100</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>49200</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>69900</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>-3600</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>42600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>6500</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>29700</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="101" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-300</v>
+      </c>
+      <c r="E101" s="3">
         <v>700</v>
-      </c>
-      <c r="E101" s="3">
-        <v>100</v>
       </c>
       <c r="F101" s="3">
         <v>100</v>
       </c>
       <c r="G101" s="3">
+        <v>100</v>
+      </c>
+      <c r="H101" s="3">
         <v>500</v>
       </c>
-      <c r="H101" s="3">
+      <c r="I101" s="3">
         <v>1000</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>300</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>200</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>100</v>
-      </c>
-      <c r="L101" s="3">
-        <v>-100</v>
       </c>
       <c r="M101" s="3">
         <v>-100</v>
       </c>
       <c r="N101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="O101" s="3">
         <v>-1100</v>
       </c>
-      <c r="O101" s="3">
+      <c r="P101" s="3">
         <v>800</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>400</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>-500</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-800</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>1100</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>400</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="102" spans="3:21" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>10900</v>
+      </c>
+      <c r="E102" s="3">
         <v>100</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-40000</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>17000</v>
       </c>
-      <c r="G102" s="3">
+      <c r="H102" s="3">
         <v>-52300</v>
       </c>
-      <c r="H102" s="3">
+      <c r="I102" s="3">
         <v>-89800</v>
       </c>
-      <c r="I102" s="3">
+      <c r="J102" s="3">
         <v>-3500</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-21900</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-26600</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-505800</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>719300</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>23900</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>-5900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-33100</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-12200</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>16100</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>11600</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>-6000</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-13200</v>
       </c>
     </row>

--- a/AAII_Financials/Quarterly/HCHC_QTR_FIN.xlsx
+++ b/AAII_Financials/Quarterly/HCHC_QTR_FIN.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="92">
   <si>
     <t>HCHC</t>
   </si>
@@ -656,7 +656,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:V102"/>
+  <dimension ref="A5:W102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -665,282 +665,295 @@
     <col min="1" max="1" width="7.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="14" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="23" max="16384" width="9.140625" style="1"/>
+    <col min="4" max="4" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="14" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="19" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="23" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="24" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E7" s="2">
         <v>44286</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>44196</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>44104</v>
       </c>
-      <c r="G7" s="2">
+      <c r="H7" s="2">
         <v>44012</v>
       </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>43921</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <v>43830</v>
       </c>
-      <c r="J7" s="2">
+      <c r="K7" s="2">
         <v>43738</v>
       </c>
-      <c r="K7" s="2">
+      <c r="L7" s="2">
         <v>43646</v>
       </c>
-      <c r="L7" s="2">
+      <c r="M7" s="2">
         <v>43555</v>
       </c>
-      <c r="M7" s="2">
+      <c r="N7" s="2">
         <v>43465</v>
       </c>
-      <c r="N7" s="2">
+      <c r="O7" s="2">
         <v>43373</v>
       </c>
-      <c r="O7" s="2">
+      <c r="P7" s="2">
         <v>43281</v>
       </c>
-      <c r="P7" s="2">
+      <c r="Q7" s="2">
         <v>43190</v>
       </c>
-      <c r="Q7" s="2">
+      <c r="R7" s="2">
         <v>43100</v>
       </c>
-      <c r="R7" s="2">
+      <c r="S7" s="2">
         <v>43008</v>
       </c>
-      <c r="S7" s="2">
+      <c r="T7" s="2">
         <v>42916</v>
       </c>
-      <c r="T7" s="2">
+      <c r="U7" s="2">
         <v>42825</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <v>42735</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="3">
+        <v>243800</v>
+      </c>
+      <c r="E8" s="3">
         <v>171800</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>1005800</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>393300</v>
       </c>
-      <c r="G8" s="3">
-        <v>377000</v>
-      </c>
       <c r="H8" s="3">
+        <v>181800</v>
+      </c>
+      <c r="I8" s="3">
         <v>186600</v>
       </c>
-      <c r="I8" s="3">
+      <c r="J8" s="3">
         <v>1077000</v>
       </c>
-      <c r="J8" s="3">
+      <c r="K8" s="3">
         <v>427500</v>
       </c>
-      <c r="K8" s="3">
+      <c r="L8" s="3">
         <v>479200</v>
       </c>
-      <c r="L8" s="3">
+      <c r="M8" s="3">
         <v>449000</v>
       </c>
-      <c r="M8" s="3">
+      <c r="N8" s="3">
         <v>524900</v>
       </c>
-      <c r="N8" s="3">
+      <c r="O8" s="3">
         <v>501400</v>
       </c>
-      <c r="O8" s="3">
+      <c r="P8" s="3">
         <v>496800</v>
       </c>
-      <c r="P8" s="3">
+      <c r="Q8" s="3">
         <v>453700</v>
       </c>
-      <c r="Q8" s="3">
+      <c r="R8" s="3">
         <v>458500</v>
       </c>
-      <c r="R8" s="3">
+      <c r="S8" s="3">
         <v>406400</v>
       </c>
-      <c r="S8" s="3">
+      <c r="T8" s="3">
         <v>378700</v>
       </c>
-      <c r="T8" s="3">
+      <c r="U8" s="3">
         <v>390600</v>
       </c>
-      <c r="U8" s="3">
+      <c r="V8" s="3">
         <v>454000</v>
       </c>
-      <c r="V8" s="3">
+      <c r="W8" s="3">
         <v>413100</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D9" s="3">
+        <v>207400</v>
+      </c>
+      <c r="E9" s="3">
         <v>141300</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>588500</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>278700</v>
       </c>
-      <c r="G9" s="3">
-        <v>262100</v>
-      </c>
       <c r="H9" s="3">
+        <v>152100</v>
+      </c>
+      <c r="I9" s="3">
         <v>156800</v>
       </c>
-      <c r="I9" s="3">
+      <c r="J9" s="3">
         <v>596000</v>
       </c>
-      <c r="J9" s="3">
+      <c r="K9" s="3">
         <v>301300</v>
       </c>
-      <c r="K9" s="3">
+      <c r="L9" s="3">
         <v>731800</v>
       </c>
-      <c r="L9" s="3">
+      <c r="M9" s="3">
         <v>324500</v>
       </c>
-      <c r="M9" s="3">
+      <c r="N9" s="3">
         <v>406000</v>
       </c>
-      <c r="N9" s="3">
+      <c r="O9" s="3">
         <v>402900</v>
       </c>
-      <c r="O9" s="3">
+      <c r="P9" s="3">
         <v>400600</v>
       </c>
-      <c r="P9" s="3">
+      <c r="Q9" s="3">
         <v>375700</v>
       </c>
-      <c r="Q9" s="3">
+      <c r="R9" s="3">
         <v>365300</v>
       </c>
-      <c r="R9" s="3">
+      <c r="S9" s="3">
         <v>324700</v>
       </c>
-      <c r="S9" s="3">
+      <c r="T9" s="3">
         <v>308700</v>
       </c>
-      <c r="T9" s="3">
+      <c r="U9" s="3">
         <v>314400</v>
       </c>
-      <c r="U9" s="3">
+      <c r="V9" s="3">
         <v>361100</v>
       </c>
-      <c r="V9" s="3">
+      <c r="W9" s="3">
         <v>333900</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D10" s="3">
+        <v>36400</v>
+      </c>
+      <c r="E10" s="3">
         <v>30500</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>417300</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>114600</v>
       </c>
-      <c r="G10" s="3">
-        <v>114900</v>
-      </c>
       <c r="H10" s="3">
+        <v>29700</v>
+      </c>
+      <c r="I10" s="3">
         <v>29800</v>
       </c>
-      <c r="I10" s="3">
+      <c r="J10" s="3">
         <v>481000</v>
       </c>
-      <c r="J10" s="3">
+      <c r="K10" s="3">
         <v>126200</v>
       </c>
-      <c r="K10" s="3">
+      <c r="L10" s="3">
         <v>-252600</v>
       </c>
-      <c r="L10" s="3">
+      <c r="M10" s="3">
         <v>124500</v>
       </c>
-      <c r="M10" s="3">
+      <c r="N10" s="3">
         <v>118900</v>
       </c>
-      <c r="N10" s="3">
+      <c r="O10" s="3">
         <v>98500</v>
       </c>
-      <c r="O10" s="3">
+      <c r="P10" s="3">
         <v>96200</v>
       </c>
-      <c r="P10" s="3">
+      <c r="Q10" s="3">
         <v>78000</v>
       </c>
-      <c r="Q10" s="3">
+      <c r="R10" s="3">
         <v>93200</v>
       </c>
-      <c r="R10" s="3">
+      <c r="S10" s="3">
         <v>81700</v>
       </c>
-      <c r="S10" s="3">
+      <c r="T10" s="3">
         <v>70000</v>
       </c>
-      <c r="T10" s="3">
+      <c r="U10" s="3">
         <v>76200</v>
       </c>
-      <c r="U10" s="3">
+      <c r="V10" s="3">
         <v>92900</v>
       </c>
-      <c r="V10" s="3">
+      <c r="W10" s="3">
         <v>79200</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>6</v>
       </c>
@@ -963,8 +976,9 @@
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W11" s="3"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
@@ -1025,8 +1039,11 @@
       <c r="V12" s="3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W12" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -1087,132 +1104,141 @@
       <c r="V13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="W13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>1600</v>
+      </c>
+      <c r="E14" s="3">
         <v>10800</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>22900</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>4200</v>
       </c>
-      <c r="G14" s="3">
+      <c r="H14" s="3">
         <v>3400</v>
       </c>
-      <c r="H14" s="3">
+      <c r="I14" s="3">
         <v>5800</v>
       </c>
-      <c r="I14" s="3">
+      <c r="J14" s="3">
         <v>48900</v>
       </c>
-      <c r="J14" s="3">
-        <v>0</v>
-      </c>
       <c r="K14" s="3">
+        <v>0</v>
+      </c>
+      <c r="L14" s="3">
         <v>-1100</v>
       </c>
-      <c r="L14" s="3">
-        <v>0</v>
-      </c>
       <c r="M14" s="3">
+        <v>0</v>
+      </c>
+      <c r="N14" s="3">
         <v>-5500</v>
       </c>
-      <c r="N14" s="3">
+      <c r="O14" s="3">
         <v>-112100</v>
       </c>
-      <c r="O14" s="3">
+      <c r="P14" s="3">
         <v>-102100</v>
       </c>
-      <c r="P14" s="3">
-        <v>0</v>
-      </c>
       <c r="Q14" s="3">
+        <v>0</v>
+      </c>
+      <c r="R14" s="3">
         <v>-5400</v>
       </c>
-      <c r="R14" s="3">
+      <c r="S14" s="3">
         <v>-6300</v>
       </c>
-      <c r="S14" s="3">
+      <c r="T14" s="3">
         <v>100</v>
       </c>
-      <c r="T14" s="3">
+      <c r="U14" s="3">
         <v>200</v>
       </c>
-      <c r="U14" s="3">
+      <c r="V14" s="3">
         <v>11300</v>
       </c>
-      <c r="V14" s="3">
+      <c r="W14" s="3">
         <v>-200</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
+        <v>4800</v>
+      </c>
+      <c r="E15" s="3">
         <v>3900</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="F15" s="3">
+      <c r="G15" s="3">
         <v>2400</v>
       </c>
-      <c r="G15" s="3">
-        <v>1100</v>
-      </c>
       <c r="H15" s="3">
+        <v>4500</v>
+      </c>
+      <c r="I15" s="3">
         <v>4300</v>
       </c>
-      <c r="I15" s="3">
+      <c r="J15" s="3">
         <v>8900</v>
       </c>
-      <c r="J15" s="3">
+      <c r="K15" s="3">
         <v>2200</v>
       </c>
-      <c r="K15" s="3">
+      <c r="L15" s="3">
         <v>1200</v>
       </c>
-      <c r="L15" s="3">
+      <c r="M15" s="3">
         <v>300</v>
       </c>
-      <c r="M15" s="3">
+      <c r="N15" s="3">
         <v>6700</v>
       </c>
-      <c r="N15" s="3">
+      <c r="O15" s="3">
         <v>6300</v>
       </c>
-      <c r="O15" s="3">
+      <c r="P15" s="3">
         <v>9100</v>
       </c>
-      <c r="P15" s="3">
+      <c r="Q15" s="3">
         <v>9700</v>
       </c>
-      <c r="Q15" s="3">
+      <c r="R15" s="3">
         <v>8700</v>
       </c>
-      <c r="R15" s="3">
+      <c r="S15" s="3">
         <v>7900</v>
       </c>
-      <c r="S15" s="3">
+      <c r="T15" s="3">
         <v>7300</v>
       </c>
-      <c r="T15" s="3">
+      <c r="U15" s="3">
         <v>7400</v>
       </c>
-      <c r="U15" s="3">
+      <c r="V15" s="3">
         <v>6300</v>
       </c>
-      <c r="V15" s="3">
+      <c r="W15" s="3">
         <v>6000</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -1232,132 +1258,139 @@
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-    </row>
-    <row r="17" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W16" s="3"/>
+    </row>
+    <row r="17" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>253100</v>
+      </c>
+      <c r="E17" s="3">
         <v>193500</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>1019300</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>399600</v>
       </c>
-      <c r="G17" s="3">
-        <v>375500</v>
-      </c>
       <c r="H17" s="3">
+        <v>194100</v>
+      </c>
+      <c r="I17" s="3">
         <v>206000</v>
       </c>
-      <c r="I17" s="3">
+      <c r="J17" s="3">
         <v>1050600</v>
       </c>
-      <c r="J17" s="3">
+      <c r="K17" s="3">
         <v>420000</v>
       </c>
-      <c r="K17" s="3">
+      <c r="L17" s="3">
         <v>444500</v>
       </c>
-      <c r="L17" s="3">
+      <c r="M17" s="3">
         <v>423400</v>
       </c>
-      <c r="M17" s="3">
+      <c r="N17" s="3">
         <v>531600</v>
       </c>
-      <c r="N17" s="3">
+      <c r="O17" s="3">
         <v>413600</v>
       </c>
-      <c r="O17" s="3">
+      <c r="P17" s="3">
         <v>400200</v>
       </c>
-      <c r="P17" s="3">
+      <c r="Q17" s="3">
         <v>467400</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="R17" s="3">
         <v>454600</v>
       </c>
-      <c r="R17" s="3">
+      <c r="S17" s="3">
         <v>389500</v>
       </c>
-      <c r="S17" s="3">
+      <c r="T17" s="3">
         <v>389900</v>
       </c>
-      <c r="T17" s="3">
+      <c r="U17" s="3">
         <v>389800</v>
       </c>
-      <c r="U17" s="3">
+      <c r="V17" s="3">
         <v>457900</v>
       </c>
-      <c r="V17" s="3">
+      <c r="W17" s="3">
         <v>406200</v>
       </c>
     </row>
-    <row r="18" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-9300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-21700</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-13500</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-6300</v>
       </c>
-      <c r="G18" s="3">
-        <v>1500</v>
-      </c>
       <c r="H18" s="3">
+        <v>-12300</v>
+      </c>
+      <c r="I18" s="3">
         <v>-19400</v>
       </c>
-      <c r="I18" s="3">
+      <c r="J18" s="3">
         <v>26400</v>
       </c>
-      <c r="J18" s="3">
+      <c r="K18" s="3">
         <v>7500</v>
       </c>
-      <c r="K18" s="3">
+      <c r="L18" s="3">
         <v>34700</v>
       </c>
-      <c r="L18" s="3">
+      <c r="M18" s="3">
         <v>25600</v>
       </c>
-      <c r="M18" s="3">
+      <c r="N18" s="3">
         <v>-6700</v>
       </c>
-      <c r="N18" s="3">
+      <c r="O18" s="3">
         <v>87800</v>
       </c>
-      <c r="O18" s="3">
+      <c r="P18" s="3">
         <v>96600</v>
       </c>
-      <c r="P18" s="3">
+      <c r="Q18" s="3">
         <v>-13700</v>
       </c>
-      <c r="Q18" s="3">
+      <c r="R18" s="3">
         <v>3900</v>
       </c>
-      <c r="R18" s="3">
+      <c r="S18" s="3">
         <v>16900</v>
       </c>
-      <c r="S18" s="3">
+      <c r="T18" s="3">
         <v>-11200</v>
       </c>
-      <c r="T18" s="3">
+      <c r="U18" s="3">
         <v>800</v>
       </c>
-      <c r="U18" s="3">
+      <c r="V18" s="3">
         <v>-3900</v>
       </c>
-      <c r="V18" s="3">
+      <c r="W18" s="3">
         <v>6900</v>
       </c>
     </row>
-    <row r="19" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1380,318 +1413,334 @@
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-    </row>
-    <row r="20" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W19" s="3"/>
+    </row>
+    <row r="20" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
       <c r="D20" s="3">
+        <v>600</v>
+      </c>
+      <c r="E20" s="3">
         <v>1300</v>
       </c>
-      <c r="E20" s="3">
+      <c r="F20" s="3">
         <v>65100</v>
       </c>
-      <c r="F20" s="3">
+      <c r="G20" s="3">
         <v>6000</v>
       </c>
-      <c r="G20" s="3">
-        <v>63800</v>
-      </c>
       <c r="H20" s="3">
+        <v>64400</v>
+      </c>
+      <c r="I20" s="3">
         <v>-1000</v>
       </c>
-      <c r="I20" s="3">
+      <c r="J20" s="3">
         <v>7900</v>
       </c>
-      <c r="J20" s="3">
+      <c r="K20" s="3">
         <v>4800</v>
       </c>
-      <c r="K20" s="3">
+      <c r="L20" s="3">
         <v>2400</v>
       </c>
-      <c r="L20" s="3">
+      <c r="M20" s="3">
         <v>-2500</v>
       </c>
-      <c r="M20" s="3">
+      <c r="N20" s="3">
         <v>16400</v>
       </c>
-      <c r="N20" s="3">
+      <c r="O20" s="3">
         <v>72000</v>
       </c>
-      <c r="O20" s="3">
+      <c r="P20" s="3">
         <v>9800</v>
       </c>
-      <c r="P20" s="3">
+      <c r="Q20" s="3">
         <v>-4100</v>
       </c>
-      <c r="Q20" s="3">
+      <c r="R20" s="3">
         <v>500</v>
-      </c>
-      <c r="R20" s="3">
-        <v>900</v>
       </c>
       <c r="S20" s="3">
         <v>900</v>
       </c>
       <c r="T20" s="3">
+        <v>900</v>
+      </c>
+      <c r="U20" s="3">
         <v>2800</v>
       </c>
-      <c r="U20" s="3">
+      <c r="V20" s="3">
         <v>9000</v>
       </c>
-      <c r="V20" s="3">
+      <c r="W20" s="3">
         <v>-2900</v>
       </c>
     </row>
-    <row r="21" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-1100</v>
+      </c>
+      <c r="E21" s="3">
         <v>-14200</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>57500</v>
       </c>
-      <c r="F21" s="3">
-        <v>4400</v>
-      </c>
       <c r="G21" s="3">
-        <v>68700</v>
+        <v>-2700</v>
       </c>
       <c r="H21" s="3">
-        <v>-17500</v>
+        <v>58800</v>
       </c>
       <c r="I21" s="3">
+        <v>-13700</v>
+      </c>
+      <c r="J21" s="3">
         <v>75400</v>
       </c>
-      <c r="J21" s="3">
+      <c r="K21" s="3">
         <v>23000</v>
       </c>
-      <c r="K21" s="3">
+      <c r="L21" s="3">
         <v>47100</v>
       </c>
-      <c r="L21" s="3">
+      <c r="M21" s="3">
         <v>32100</v>
       </c>
-      <c r="M21" s="3">
+      <c r="N21" s="3">
         <v>18400</v>
       </c>
-      <c r="N21" s="3">
+      <c r="O21" s="3">
         <v>167800</v>
       </c>
-      <c r="O21" s="3">
+      <c r="P21" s="3">
         <v>117200</v>
       </c>
-      <c r="P21" s="3">
+      <c r="Q21" s="3">
         <v>-6600</v>
       </c>
-      <c r="Q21" s="3">
+      <c r="R21" s="3">
         <v>14600</v>
       </c>
-      <c r="R21" s="3">
+      <c r="S21" s="3">
         <v>26900</v>
       </c>
-      <c r="S21" s="3">
+      <c r="T21" s="3">
         <v>-1800</v>
       </c>
-      <c r="T21" s="3">
+      <c r="U21" s="3">
         <v>12200</v>
       </c>
-      <c r="U21" s="3">
+      <c r="V21" s="3">
         <v>14300</v>
       </c>
-      <c r="V21" s="3">
+      <c r="W21" s="3">
         <v>9700</v>
       </c>
     </row>
-    <row r="22" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="3">
+        <v>12400</v>
+      </c>
+      <c r="E22" s="3">
         <v>21400</v>
       </c>
-      <c r="E22" s="3">
+      <c r="F22" s="3">
         <v>79400</v>
       </c>
-      <c r="F22" s="3">
+      <c r="G22" s="3">
         <v>19700</v>
       </c>
-      <c r="G22" s="3">
-        <v>21400</v>
-      </c>
       <c r="H22" s="3">
+        <v>19100</v>
+      </c>
+      <c r="I22" s="3">
         <v>19200</v>
       </c>
-      <c r="I22" s="3">
+      <c r="J22" s="3">
         <v>76100</v>
       </c>
-      <c r="J22" s="3">
+      <c r="K22" s="3">
         <v>20100</v>
       </c>
-      <c r="K22" s="3">
+      <c r="L22" s="3">
         <v>19100</v>
       </c>
-      <c r="L22" s="3">
+      <c r="M22" s="3">
         <v>18800</v>
       </c>
-      <c r="M22" s="3">
+      <c r="N22" s="3">
         <v>21700</v>
       </c>
-      <c r="N22" s="3">
+      <c r="O22" s="3">
         <v>17500</v>
       </c>
-      <c r="O22" s="3">
+      <c r="P22" s="3">
         <v>17200</v>
       </c>
-      <c r="P22" s="3">
+      <c r="Q22" s="3">
         <v>19300</v>
       </c>
-      <c r="Q22" s="3">
+      <c r="R22" s="3">
         <v>15700</v>
       </c>
-      <c r="R22" s="3">
+      <c r="S22" s="3">
         <v>13200</v>
       </c>
-      <c r="S22" s="3">
+      <c r="T22" s="3">
         <v>12100</v>
       </c>
-      <c r="T22" s="3">
+      <c r="U22" s="3">
         <v>14100</v>
       </c>
-      <c r="U22" s="3">
+      <c r="V22" s="3">
         <v>11800</v>
       </c>
-      <c r="V22" s="3">
+      <c r="W22" s="3">
         <v>10700</v>
       </c>
     </row>
-    <row r="23" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-21100</v>
+      </c>
+      <c r="E23" s="3">
         <v>-41800</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-27800</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-20000</v>
       </c>
-      <c r="G23" s="3">
-        <v>43900</v>
-      </c>
       <c r="H23" s="3">
+        <v>33000</v>
+      </c>
+      <c r="I23" s="3">
         <v>-39600</v>
       </c>
-      <c r="I23" s="3">
+      <c r="J23" s="3">
         <v>-41800</v>
       </c>
-      <c r="J23" s="3">
+      <c r="K23" s="3">
         <v>-7800</v>
       </c>
-      <c r="K23" s="3">
+      <c r="L23" s="3">
         <v>18000</v>
       </c>
-      <c r="L23" s="3">
+      <c r="M23" s="3">
         <v>4300</v>
       </c>
-      <c r="M23" s="3">
+      <c r="N23" s="3">
         <v>-12000</v>
       </c>
-      <c r="N23" s="3">
+      <c r="O23" s="3">
         <v>142300</v>
       </c>
-      <c r="O23" s="3">
+      <c r="P23" s="3">
         <v>89200</v>
       </c>
-      <c r="P23" s="3">
+      <c r="Q23" s="3">
         <v>-37200</v>
       </c>
-      <c r="Q23" s="3">
+      <c r="R23" s="3">
         <v>-11200</v>
       </c>
-      <c r="R23" s="3">
+      <c r="S23" s="3">
         <v>4500</v>
       </c>
-      <c r="S23" s="3">
+      <c r="T23" s="3">
         <v>-22500</v>
       </c>
-      <c r="T23" s="3">
+      <c r="U23" s="3">
         <v>-10600</v>
-      </c>
-      <c r="U23" s="3">
-        <v>-6700</v>
       </c>
       <c r="V23" s="3">
         <v>-6700</v>
       </c>
-    </row>
-    <row r="24" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W23" s="3">
+        <v>-6700</v>
+      </c>
+    </row>
+    <row r="24" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>2600</v>
+      </c>
+      <c r="E24" s="3">
         <v>1100</v>
       </c>
-      <c r="E24" s="3">
+      <c r="F24" s="3">
         <v>10500</v>
       </c>
-      <c r="F24" s="3">
+      <c r="G24" s="3">
         <v>1600</v>
       </c>
-      <c r="G24" s="3">
-        <v>15400</v>
-      </c>
       <c r="H24" s="3">
+        <v>12000</v>
+      </c>
+      <c r="I24" s="3">
         <v>-9700</v>
       </c>
-      <c r="I24" s="3">
+      <c r="J24" s="3">
         <v>-19600</v>
-      </c>
-      <c r="J24" s="3">
-        <v>1100</v>
       </c>
       <c r="K24" s="3">
         <v>1100</v>
       </c>
       <c r="L24" s="3">
+        <v>1100</v>
+      </c>
+      <c r="M24" s="3">
         <v>4000</v>
       </c>
-      <c r="M24" s="3">
+      <c r="N24" s="3">
         <v>500</v>
       </c>
-      <c r="N24" s="3">
+      <c r="O24" s="3">
         <v>-9200</v>
       </c>
-      <c r="O24" s="3">
+      <c r="P24" s="3">
         <v>9500</v>
       </c>
-      <c r="P24" s="3">
+      <c r="Q24" s="3">
         <v>1600</v>
       </c>
-      <c r="Q24" s="3">
+      <c r="R24" s="3">
         <v>-26500</v>
       </c>
-      <c r="R24" s="3">
+      <c r="S24" s="3">
         <v>12900</v>
       </c>
-      <c r="S24" s="3">
+      <c r="T24" s="3">
         <v>-2000</v>
       </c>
-      <c r="T24" s="3">
+      <c r="U24" s="3">
         <v>5300</v>
       </c>
-      <c r="U24" s="3">
+      <c r="V24" s="3">
         <v>55300</v>
       </c>
-      <c r="V24" s="3">
+      <c r="W24" s="3">
         <v>-1300</v>
       </c>
     </row>
-    <row r="25" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1752,132 +1801,141 @@
       <c r="V25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="E26" s="3">
         <v>-42900</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-38300</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-21600</v>
       </c>
-      <c r="G26" s="3">
-        <v>28500</v>
-      </c>
       <c r="H26" s="3">
+        <v>21000</v>
+      </c>
+      <c r="I26" s="3">
         <v>-29900</v>
       </c>
-      <c r="I26" s="3">
+      <c r="J26" s="3">
         <v>-22200</v>
       </c>
-      <c r="J26" s="3">
+      <c r="K26" s="3">
         <v>-8900</v>
       </c>
-      <c r="K26" s="3">
+      <c r="L26" s="3">
         <v>16900</v>
       </c>
-      <c r="L26" s="3">
+      <c r="M26" s="3">
         <v>300</v>
       </c>
-      <c r="M26" s="3">
+      <c r="N26" s="3">
         <v>-12600</v>
       </c>
-      <c r="N26" s="3">
+      <c r="O26" s="3">
         <v>151500</v>
       </c>
-      <c r="O26" s="3">
+      <c r="P26" s="3">
         <v>79800</v>
       </c>
-      <c r="P26" s="3">
+      <c r="Q26" s="3">
         <v>-38900</v>
       </c>
-      <c r="Q26" s="3">
+      <c r="R26" s="3">
         <v>15300</v>
       </c>
-      <c r="R26" s="3">
+      <c r="S26" s="3">
         <v>-8300</v>
       </c>
-      <c r="S26" s="3">
+      <c r="T26" s="3">
         <v>-20500</v>
       </c>
-      <c r="T26" s="3">
+      <c r="U26" s="3">
         <v>-15900</v>
       </c>
-      <c r="U26" s="3">
+      <c r="V26" s="3">
         <v>-62000</v>
       </c>
-      <c r="V26" s="3">
+      <c r="W26" s="3">
         <v>-5400</v>
       </c>
     </row>
-    <row r="27" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-22200</v>
+      </c>
+      <c r="E27" s="3">
         <v>-39700</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-31800</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-17700</v>
       </c>
-      <c r="G27" s="3">
-        <v>12700</v>
-      </c>
       <c r="H27" s="3">
+        <v>5200</v>
+      </c>
+      <c r="I27" s="3">
         <v>-12400</v>
       </c>
-      <c r="I27" s="3">
+      <c r="J27" s="3">
         <v>-18000</v>
       </c>
-      <c r="J27" s="3">
+      <c r="K27" s="3">
         <v>-8500</v>
       </c>
-      <c r="K27" s="3">
+      <c r="L27" s="3">
         <v>16700</v>
       </c>
-      <c r="L27" s="3">
+      <c r="M27" s="3">
         <v>5000</v>
       </c>
-      <c r="M27" s="3">
+      <c r="N27" s="3">
         <v>-16100</v>
       </c>
-      <c r="N27" s="3">
+      <c r="O27" s="3">
         <v>152800</v>
       </c>
-      <c r="O27" s="3">
+      <c r="P27" s="3">
         <v>54700</v>
       </c>
-      <c r="P27" s="3">
+      <c r="Q27" s="3">
         <v>-35700</v>
       </c>
-      <c r="Q27" s="3">
+      <c r="R27" s="3">
         <v>11900</v>
       </c>
-      <c r="R27" s="3">
+      <c r="S27" s="3">
         <v>-6700</v>
       </c>
-      <c r="S27" s="3">
+      <c r="T27" s="3">
         <v>-18700</v>
       </c>
-      <c r="T27" s="3">
+      <c r="U27" s="3">
         <v>-15100</v>
       </c>
-      <c r="U27" s="3">
+      <c r="V27" s="3">
         <v>-67300</v>
       </c>
-      <c r="V27" s="3">
+      <c r="W27" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="28" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1938,43 +1996,46 @@
       <c r="V28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
       <c r="D29" s="3">
+        <v>-1500</v>
+      </c>
+      <c r="E29" s="3">
         <v>51900</v>
       </c>
-      <c r="E29" s="3">
+      <c r="F29" s="3">
         <v>-63800</v>
       </c>
-      <c r="F29" s="3">
-        <v>0</v>
-      </c>
       <c r="G29" s="3">
         <v>0</v>
       </c>
       <c r="H29" s="3">
+        <v>7500</v>
+      </c>
+      <c r="I29" s="3">
         <v>-131100</v>
       </c>
-      <c r="I29" s="3">
+      <c r="J29" s="3">
         <v>-13900</v>
       </c>
-      <c r="J29" s="3">
+      <c r="K29" s="3">
         <v>600</v>
       </c>
-      <c r="K29" s="3">
+      <c r="L29" s="3">
         <v>-7700</v>
       </c>
-      <c r="L29" s="3">
+      <c r="M29" s="3">
         <v>-6600</v>
       </c>
-      <c r="M29" s="3">
-        <v>0</v>
-      </c>
-      <c r="N29" s="3" t="s">
-        <v>8</v>
+      <c r="N29" s="3">
+        <v>0</v>
       </c>
       <c r="O29" s="3" t="s">
         <v>8</v>
@@ -1982,11 +2043,11 @@
       <c r="P29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="Q29" s="3">
+      <c r="Q29" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="R29" s="3">
         <v>-21100</v>
-      </c>
-      <c r="R29" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="S29" s="3" t="s">
         <v>8</v>
@@ -1994,14 +2055,17 @@
       <c r="T29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U29" s="3">
-        <v>0</v>
+      <c r="U29" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="V29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -2062,8 +2126,11 @@
       <c r="V30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -2124,132 +2191,141 @@
       <c r="V31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
       <c r="D32" s="3">
+        <v>-600</v>
+      </c>
+      <c r="E32" s="3">
         <v>-1300</v>
       </c>
-      <c r="E32" s="3">
+      <c r="F32" s="3">
         <v>-65100</v>
       </c>
-      <c r="F32" s="3">
+      <c r="G32" s="3">
         <v>-6000</v>
       </c>
-      <c r="G32" s="3">
-        <v>-63800</v>
-      </c>
       <c r="H32" s="3">
+        <v>-64400</v>
+      </c>
+      <c r="I32" s="3">
         <v>1000</v>
       </c>
-      <c r="I32" s="3">
+      <c r="J32" s="3">
         <v>-7900</v>
       </c>
-      <c r="J32" s="3">
+      <c r="K32" s="3">
         <v>-4800</v>
       </c>
-      <c r="K32" s="3">
+      <c r="L32" s="3">
         <v>-2400</v>
       </c>
-      <c r="L32" s="3">
+      <c r="M32" s="3">
         <v>2500</v>
       </c>
-      <c r="M32" s="3">
+      <c r="N32" s="3">
         <v>-16400</v>
       </c>
-      <c r="N32" s="3">
+      <c r="O32" s="3">
         <v>-72000</v>
       </c>
-      <c r="O32" s="3">
+      <c r="P32" s="3">
         <v>-9800</v>
       </c>
-      <c r="P32" s="3">
+      <c r="Q32" s="3">
         <v>4100</v>
       </c>
-      <c r="Q32" s="3">
+      <c r="R32" s="3">
         <v>-500</v>
-      </c>
-      <c r="R32" s="3">
-        <v>-900</v>
       </c>
       <c r="S32" s="3">
         <v>-900</v>
       </c>
       <c r="T32" s="3">
+        <v>-900</v>
+      </c>
+      <c r="U32" s="3">
         <v>-2800</v>
       </c>
-      <c r="U32" s="3">
+      <c r="V32" s="3">
         <v>-9000</v>
       </c>
-      <c r="V32" s="3">
+      <c r="W32" s="3">
         <v>2900</v>
       </c>
     </row>
-    <row r="33" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="E33" s="3">
         <v>12200</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-95600</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-17700</v>
       </c>
-      <c r="G33" s="3">
+      <c r="H33" s="3">
         <v>12700</v>
       </c>
-      <c r="H33" s="3">
+      <c r="I33" s="3">
         <v>-143500</v>
       </c>
-      <c r="I33" s="3">
+      <c r="J33" s="3">
         <v>-31900</v>
       </c>
-      <c r="J33" s="3">
+      <c r="K33" s="3">
         <v>-7900</v>
       </c>
-      <c r="K33" s="3">
+      <c r="L33" s="3">
         <v>9000</v>
       </c>
-      <c r="L33" s="3">
+      <c r="M33" s="3">
         <v>-1600</v>
       </c>
-      <c r="M33" s="3">
+      <c r="N33" s="3">
         <v>-16100</v>
       </c>
-      <c r="N33" s="3">
+      <c r="O33" s="3">
         <v>152800</v>
       </c>
-      <c r="O33" s="3">
+      <c r="P33" s="3">
         <v>54700</v>
       </c>
-      <c r="P33" s="3">
+      <c r="Q33" s="3">
         <v>-35700</v>
       </c>
-      <c r="Q33" s="3">
+      <c r="R33" s="3">
         <v>-9200</v>
       </c>
-      <c r="R33" s="3">
+      <c r="S33" s="3">
         <v>-6700</v>
       </c>
-      <c r="S33" s="3">
+      <c r="T33" s="3">
         <v>-18700</v>
       </c>
-      <c r="T33" s="3">
+      <c r="U33" s="3">
         <v>-15100</v>
       </c>
-      <c r="U33" s="3">
+      <c r="V33" s="3">
         <v>-67300</v>
       </c>
-      <c r="V33" s="3">
+      <c r="W33" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="34" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -2310,137 +2386,146 @@
       <c r="V34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="E35" s="3">
         <v>12200</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-95600</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-17700</v>
       </c>
-      <c r="G35" s="3">
+      <c r="H35" s="3">
         <v>12700</v>
       </c>
-      <c r="H35" s="3">
+      <c r="I35" s="3">
         <v>-143500</v>
       </c>
-      <c r="I35" s="3">
+      <c r="J35" s="3">
         <v>-31900</v>
       </c>
-      <c r="J35" s="3">
+      <c r="K35" s="3">
         <v>-7900</v>
       </c>
-      <c r="K35" s="3">
+      <c r="L35" s="3">
         <v>9000</v>
       </c>
-      <c r="L35" s="3">
+      <c r="M35" s="3">
         <v>-1600</v>
       </c>
-      <c r="M35" s="3">
+      <c r="N35" s="3">
         <v>-16100</v>
       </c>
-      <c r="N35" s="3">
+      <c r="O35" s="3">
         <v>152800</v>
       </c>
-      <c r="O35" s="3">
+      <c r="P35" s="3">
         <v>54700</v>
       </c>
-      <c r="P35" s="3">
+      <c r="Q35" s="3">
         <v>-35700</v>
       </c>
-      <c r="Q35" s="3">
+      <c r="R35" s="3">
         <v>-9200</v>
       </c>
-      <c r="R35" s="3">
+      <c r="S35" s="3">
         <v>-6700</v>
       </c>
-      <c r="S35" s="3">
+      <c r="T35" s="3">
         <v>-18700</v>
       </c>
-      <c r="T35" s="3">
+      <c r="U35" s="3">
         <v>-15100</v>
       </c>
-      <c r="U35" s="3">
+      <c r="V35" s="3">
         <v>-67300</v>
       </c>
-      <c r="V35" s="3">
+      <c r="W35" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="37" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E38" s="2">
         <v>44286</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>44196</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>44104</v>
       </c>
-      <c r="G38" s="2">
+      <c r="H38" s="2">
         <v>44012</v>
       </c>
-      <c r="H38" s="2">
+      <c r="I38" s="2">
         <v>43921</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <v>43830</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <v>43738</v>
       </c>
-      <c r="K38" s="2">
+      <c r="L38" s="2">
         <v>43646</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <v>43555</v>
       </c>
-      <c r="M38" s="2">
+      <c r="N38" s="2">
         <v>43465</v>
       </c>
-      <c r="N38" s="2">
+      <c r="O38" s="2">
         <v>43373</v>
       </c>
-      <c r="O38" s="2">
+      <c r="P38" s="2">
         <v>43281</v>
       </c>
-      <c r="P38" s="2">
+      <c r="Q38" s="2">
         <v>43190</v>
       </c>
-      <c r="Q38" s="2">
+      <c r="R38" s="2">
         <v>43100</v>
       </c>
-      <c r="R38" s="2">
+      <c r="S38" s="2">
         <v>43008</v>
       </c>
-      <c r="S38" s="2">
+      <c r="T38" s="2">
         <v>42916</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <v>42825</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <v>42735</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="39" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -2463,8 +2548,9 @@
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-    </row>
-    <row r="40" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W39" s="3"/>
+    </row>
+    <row r="40" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -2487,97 +2573,101 @@
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-    </row>
-    <row r="41" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W40" s="3"/>
+    </row>
+    <row r="41" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>18100</v>
+      </c>
+      <c r="E41" s="3">
         <v>54200</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>232300</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>163600</v>
       </c>
-      <c r="G41" s="3">
+      <c r="H41" s="3">
         <v>203800</v>
       </c>
-      <c r="H41" s="3">
+      <c r="I41" s="3">
         <v>186900</v>
       </c>
-      <c r="I41" s="3">
+      <c r="J41" s="3">
         <v>193700</v>
       </c>
-      <c r="J41" s="3">
+      <c r="K41" s="3">
         <v>276900</v>
       </c>
-      <c r="K41" s="3">
+      <c r="L41" s="3">
         <v>280400</v>
       </c>
-      <c r="L41" s="3">
+      <c r="M41" s="3">
         <v>302200</v>
       </c>
-      <c r="M41" s="3">
+      <c r="N41" s="3">
         <v>325000</v>
       </c>
-      <c r="N41" s="3">
+      <c r="O41" s="3">
         <v>831600</v>
       </c>
-      <c r="O41" s="3">
+      <c r="P41" s="3">
         <v>112300</v>
       </c>
-      <c r="P41" s="3">
+      <c r="Q41" s="3">
         <v>92100</v>
       </c>
-      <c r="Q41" s="3">
+      <c r="R41" s="3">
         <v>97900</v>
       </c>
-      <c r="R41" s="3">
+      <c r="S41" s="3">
         <v>130800</v>
       </c>
-      <c r="S41" s="3">
+      <c r="T41" s="3">
         <v>143100</v>
       </c>
-      <c r="T41" s="3">
+      <c r="U41" s="3">
         <v>127000</v>
       </c>
-      <c r="U41" s="3">
+      <c r="V41" s="3">
         <v>115400</v>
       </c>
-      <c r="V41" s="3">
+      <c r="W41" s="3">
         <v>121300</v>
       </c>
     </row>
-    <row r="42" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="3">
+      <c r="E42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="3">
         <v>4665600</v>
       </c>
-      <c r="F42" s="3">
+      <c r="G42" s="3">
         <v>4569400</v>
       </c>
-      <c r="G42" s="3">
+      <c r="H42" s="3">
         <v>4398200</v>
       </c>
-      <c r="H42" s="3">
+      <c r="I42" s="3">
         <v>4056800</v>
       </c>
-      <c r="I42" s="3">
+      <c r="J42" s="3">
         <v>4392100</v>
       </c>
-      <c r="J42" s="3" t="s">
+      <c r="K42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K42" s="3">
-        <v>0</v>
-      </c>
       <c r="L42" s="3">
         <v>0</v>
       </c>
@@ -2588,93 +2678,99 @@
         <v>0</v>
       </c>
       <c r="O42" s="3">
+        <v>0</v>
+      </c>
+      <c r="P42" s="3">
         <v>1502600</v>
       </c>
-      <c r="P42" s="3">
+      <c r="Q42" s="3">
         <v>1543400</v>
       </c>
-      <c r="Q42" s="3">
+      <c r="R42" s="3">
         <v>1543600</v>
       </c>
-      <c r="R42" s="3">
+      <c r="S42" s="3">
         <v>1521600</v>
       </c>
-      <c r="S42" s="3">
+      <c r="T42" s="3">
         <v>1513300</v>
       </c>
-      <c r="T42" s="3">
+      <c r="U42" s="3">
         <v>1475000</v>
       </c>
-      <c r="U42" s="3">
+      <c r="V42" s="3">
         <v>1427900</v>
       </c>
-      <c r="V42" s="3">
+      <c r="W42" s="3">
         <v>1476200</v>
       </c>
     </row>
-    <row r="43" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>364600</v>
+      </c>
+      <c r="E43" s="3">
         <v>186400</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>184700</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>252300</v>
       </c>
-      <c r="G43" s="3">
+      <c r="H43" s="3">
         <v>261200</v>
       </c>
-      <c r="H43" s="3">
+      <c r="I43" s="3">
         <v>333300</v>
       </c>
-      <c r="I43" s="3">
+      <c r="J43" s="3">
         <v>228900</v>
       </c>
-      <c r="J43" s="3">
+      <c r="K43" s="3">
         <v>293300</v>
       </c>
-      <c r="K43" s="3">
+      <c r="L43" s="3">
         <v>350700</v>
       </c>
-      <c r="L43" s="3">
+      <c r="M43" s="3">
         <v>328400</v>
       </c>
-      <c r="M43" s="3">
+      <c r="N43" s="3">
         <v>379200</v>
       </c>
-      <c r="N43" s="3">
+      <c r="O43" s="3">
         <v>350900</v>
       </c>
-      <c r="O43" s="3">
+      <c r="P43" s="3">
         <v>346700</v>
       </c>
-      <c r="P43" s="3">
+      <c r="Q43" s="3">
         <v>327500</v>
       </c>
-      <c r="Q43" s="3">
+      <c r="R43" s="3">
         <v>322400</v>
       </c>
-      <c r="R43" s="3">
+      <c r="S43" s="3">
         <v>265100</v>
       </c>
-      <c r="S43" s="3">
+      <c r="T43" s="3">
         <v>250500</v>
       </c>
-      <c r="T43" s="3">
+      <c r="U43" s="3">
         <v>228100</v>
       </c>
-      <c r="U43" s="3">
+      <c r="V43" s="3">
         <v>283500</v>
       </c>
-      <c r="V43" s="3">
+      <c r="W43" s="3">
         <v>288500</v>
       </c>
     </row>
-    <row r="44" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -2726,44 +2822,47 @@
       <c r="S44" s="3">
         <v>0</v>
       </c>
-      <c r="T44" s="3" t="s">
+      <c r="T44" s="3">
+        <v>0</v>
+      </c>
+      <c r="U44" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="U44" s="3">
+      <c r="V44" s="3">
         <v>9600</v>
       </c>
-      <c r="V44" s="3">
+      <c r="W44" s="3">
         <v>9000</v>
       </c>
     </row>
-    <row r="45" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>5905000</v>
+      </c>
+      <c r="E45" s="3">
         <v>5679800</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>961900</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>963200</v>
-      </c>
-      <c r="G45" s="3">
-        <v>960600</v>
       </c>
       <c r="H45" s="3">
         <v>960600</v>
       </c>
       <c r="I45" s="3">
+        <v>960600</v>
+      </c>
+      <c r="J45" s="3">
         <v>956500</v>
       </c>
-      <c r="J45" s="3">
+      <c r="K45" s="3">
         <v>947900</v>
       </c>
-      <c r="K45" s="3">
-        <v>0</v>
-      </c>
       <c r="L45" s="3">
         <v>0</v>
       </c>
@@ -2774,58 +2873,61 @@
         <v>0</v>
       </c>
       <c r="O45" s="3">
+        <v>0</v>
+      </c>
+      <c r="P45" s="3">
         <v>532300</v>
       </c>
-      <c r="P45" s="3">
+      <c r="Q45" s="3">
         <v>530400</v>
       </c>
-      <c r="Q45" s="3">
+      <c r="R45" s="3">
         <v>528000</v>
       </c>
-      <c r="R45" s="3">
+      <c r="S45" s="3">
         <v>531100</v>
       </c>
-      <c r="S45" s="3">
+      <c r="T45" s="3">
         <v>528200</v>
       </c>
-      <c r="T45" s="3">
+      <c r="U45" s="3">
         <v>525300</v>
       </c>
-      <c r="U45" s="3">
+      <c r="V45" s="3">
         <v>541000</v>
       </c>
-      <c r="V45" s="3">
+      <c r="W45" s="3">
         <v>587300</v>
       </c>
     </row>
-    <row r="46" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>6287700</v>
+      </c>
+      <c r="E46" s="3">
         <v>5920400</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>6044500</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>5948500</v>
       </c>
-      <c r="G46" s="3">
+      <c r="H46" s="3">
         <v>5823800</v>
       </c>
-      <c r="H46" s="3">
+      <c r="I46" s="3">
         <v>5537600</v>
       </c>
-      <c r="I46" s="3">
+      <c r="J46" s="3">
         <v>5771200</v>
       </c>
-      <c r="J46" s="3">
+      <c r="K46" s="3">
         <v>1518100</v>
       </c>
-      <c r="K46" s="3">
-        <v>0</v>
-      </c>
       <c r="L46" s="3">
         <v>0</v>
       </c>
@@ -2836,39 +2938,42 @@
         <v>0</v>
       </c>
       <c r="O46" s="3">
+        <v>0</v>
+      </c>
+      <c r="P46" s="3">
         <v>2493800</v>
       </c>
-      <c r="P46" s="3">
+      <c r="Q46" s="3">
         <v>2493300</v>
       </c>
-      <c r="Q46" s="3">
+      <c r="R46" s="3">
         <v>2491900</v>
       </c>
-      <c r="R46" s="3">
+      <c r="S46" s="3">
         <v>2448600</v>
       </c>
-      <c r="S46" s="3">
+      <c r="T46" s="3">
         <v>2435100</v>
       </c>
-      <c r="T46" s="3">
+      <c r="U46" s="3">
         <v>2355300</v>
       </c>
-      <c r="U46" s="3">
+      <c r="V46" s="3">
         <v>2336200</v>
       </c>
-      <c r="V46" s="3">
+      <c r="W46" s="3">
         <v>2482300</v>
       </c>
     </row>
-    <row r="47" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>53100</v>
+      </c>
+      <c r="E47" s="3">
         <v>52700</v>
-      </c>
-      <c r="E47" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F47" s="3" t="s">
         <v>8</v>
@@ -2879,27 +2984,27 @@
       <c r="H47" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="I47" s="3">
+      <c r="I47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="3">
         <v>4409000</v>
       </c>
-      <c r="J47" s="3">
+      <c r="K47" s="3">
         <v>4349000</v>
       </c>
-      <c r="K47" s="3">
+      <c r="L47" s="3">
         <v>4198100</v>
       </c>
-      <c r="L47" s="3">
+      <c r="M47" s="3">
         <v>4023400</v>
       </c>
-      <c r="M47" s="3">
+      <c r="N47" s="3">
         <v>3822000</v>
       </c>
-      <c r="N47" s="3">
+      <c r="O47" s="3">
         <v>3381200</v>
       </c>
-      <c r="O47" s="3">
-        <v>0</v>
-      </c>
       <c r="P47" s="3">
         <v>0</v>
       </c>
@@ -2921,132 +3026,141 @@
       <c r="V47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>245500</v>
+      </c>
+      <c r="E48" s="3">
         <v>149300</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>113900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>213800</v>
       </c>
-      <c r="G48" s="3">
+      <c r="H48" s="3">
         <v>220200</v>
       </c>
-      <c r="H48" s="3">
+      <c r="I48" s="3">
         <v>223400</v>
       </c>
-      <c r="I48" s="3">
+      <c r="J48" s="3">
         <v>376000</v>
       </c>
-      <c r="J48" s="3">
+      <c r="K48" s="3">
         <v>405800</v>
       </c>
-      <c r="K48" s="3">
+      <c r="L48" s="3">
         <v>416400</v>
       </c>
-      <c r="L48" s="3">
+      <c r="M48" s="3">
         <v>376600</v>
       </c>
-      <c r="M48" s="3">
+      <c r="N48" s="3">
         <v>376300</v>
       </c>
-      <c r="N48" s="3">
+      <c r="O48" s="3">
         <v>369800</v>
       </c>
-      <c r="O48" s="3">
+      <c r="P48" s="3">
         <v>368900</v>
       </c>
-      <c r="P48" s="3">
+      <c r="Q48" s="3">
         <v>372400</v>
       </c>
-      <c r="Q48" s="3">
+      <c r="R48" s="3">
         <v>374700</v>
       </c>
-      <c r="R48" s="3">
+      <c r="S48" s="3">
         <v>282100</v>
       </c>
-      <c r="S48" s="3">
+      <c r="T48" s="3">
         <v>282700</v>
       </c>
-      <c r="T48" s="3">
+      <c r="U48" s="3">
         <v>284300</v>
       </c>
-      <c r="U48" s="3">
+      <c r="V48" s="3">
         <v>461000</v>
       </c>
-      <c r="V48" s="3">
+      <c r="W48" s="3">
         <v>244200</v>
       </c>
     </row>
-    <row r="49" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>343100</v>
+      </c>
+      <c r="E49" s="3">
         <v>278000</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>285600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>314900</v>
       </c>
-      <c r="G49" s="3">
+      <c r="H49" s="3">
         <v>330800</v>
       </c>
-      <c r="H49" s="3">
+      <c r="I49" s="3">
         <v>332100</v>
       </c>
-      <c r="I49" s="3">
+      <c r="J49" s="3">
         <v>321000</v>
       </c>
-      <c r="J49" s="3">
+      <c r="K49" s="3">
         <v>400800</v>
       </c>
-      <c r="K49" s="3">
+      <c r="L49" s="3">
         <v>403300</v>
       </c>
-      <c r="L49" s="3">
+      <c r="M49" s="3">
         <v>393400</v>
       </c>
-      <c r="M49" s="3">
+      <c r="N49" s="3">
         <v>390900</v>
       </c>
-      <c r="N49" s="3">
+      <c r="O49" s="3">
         <v>278100</v>
       </c>
-      <c r="O49" s="3">
+      <c r="P49" s="3">
         <v>249100</v>
       </c>
-      <c r="P49" s="3">
+      <c r="Q49" s="3">
         <v>251900</v>
       </c>
-      <c r="Q49" s="3">
+      <c r="R49" s="3">
         <v>248800</v>
       </c>
-      <c r="R49" s="3">
+      <c r="S49" s="3">
         <v>132800</v>
       </c>
-      <c r="S49" s="3">
+      <c r="T49" s="3">
         <v>134700</v>
       </c>
-      <c r="T49" s="3">
+      <c r="U49" s="3">
         <v>136500</v>
       </c>
-      <c r="U49" s="3">
+      <c r="V49" s="3">
         <v>137800</v>
       </c>
-      <c r="V49" s="3">
+      <c r="W49" s="3">
         <v>125200</v>
       </c>
     </row>
-    <row r="50" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -3107,8 +3221,11 @@
       <c r="V50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -3169,70 +3286,76 @@
       <c r="V51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>6500</v>
+      </c>
+      <c r="E52" s="3">
         <v>5600</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>298800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>211200</v>
       </c>
-      <c r="G52" s="3">
+      <c r="H52" s="3">
         <v>258500</v>
       </c>
-      <c r="H52" s="3">
+      <c r="I52" s="3">
         <v>246000</v>
       </c>
-      <c r="I52" s="3">
+      <c r="J52" s="3">
         <v>1693000</v>
       </c>
-      <c r="J52" s="3">
+      <c r="K52" s="3">
         <v>271800</v>
       </c>
-      <c r="K52" s="3">
+      <c r="L52" s="3">
         <v>2300</v>
       </c>
-      <c r="L52" s="3">
+      <c r="M52" s="3">
         <v>1800</v>
       </c>
-      <c r="M52" s="3">
+      <c r="N52" s="3">
         <v>2100</v>
       </c>
-      <c r="N52" s="3">
+      <c r="O52" s="3">
         <v>1000</v>
       </c>
-      <c r="O52" s="3">
+      <c r="P52" s="3">
         <v>142500</v>
       </c>
-      <c r="P52" s="3">
+      <c r="Q52" s="3">
         <v>109700</v>
       </c>
-      <c r="Q52" s="3">
+      <c r="R52" s="3">
         <v>102300</v>
       </c>
-      <c r="R52" s="3">
+      <c r="S52" s="3">
         <v>107900</v>
       </c>
-      <c r="S52" s="3">
+      <c r="T52" s="3">
         <v>88800</v>
       </c>
-      <c r="T52" s="3">
+      <c r="U52" s="3">
         <v>80300</v>
       </c>
-      <c r="U52" s="3">
+      <c r="V52" s="3">
         <v>75300</v>
       </c>
-      <c r="V52" s="3">
+      <c r="W52" s="3">
         <v>36300</v>
       </c>
     </row>
-    <row r="53" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -3293,70 +3416,76 @@
       <c r="V53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>6935900</v>
+      </c>
+      <c r="E54" s="3">
         <v>6406000</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>6742800</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>6688400</v>
       </c>
-      <c r="G54" s="3">
+      <c r="H54" s="3">
         <v>6633300</v>
       </c>
-      <c r="H54" s="3">
+      <c r="I54" s="3">
         <v>6339100</v>
       </c>
-      <c r="I54" s="3">
+      <c r="J54" s="3">
         <v>6958300</v>
       </c>
-      <c r="J54" s="3">
+      <c r="K54" s="3">
         <v>6945500</v>
       </c>
-      <c r="K54" s="3">
+      <c r="L54" s="3">
         <v>6883200</v>
       </c>
-      <c r="L54" s="3">
+      <c r="M54" s="3">
         <v>6682400</v>
       </c>
-      <c r="M54" s="3">
+      <c r="N54" s="3">
         <v>6503800</v>
       </c>
-      <c r="N54" s="3">
+      <c r="O54" s="3">
         <v>6730000</v>
       </c>
-      <c r="O54" s="3">
+      <c r="P54" s="3">
         <v>3254300</v>
       </c>
-      <c r="P54" s="3">
+      <c r="Q54" s="3">
         <v>3227300</v>
       </c>
-      <c r="Q54" s="3">
+      <c r="R54" s="3">
         <v>3217700</v>
       </c>
-      <c r="R54" s="3">
+      <c r="S54" s="3">
         <v>2971300</v>
       </c>
-      <c r="S54" s="3">
+      <c r="T54" s="3">
         <v>2941300</v>
       </c>
-      <c r="T54" s="3">
+      <c r="U54" s="3">
         <v>2856400</v>
       </c>
-      <c r="U54" s="3">
+      <c r="V54" s="3">
         <v>2835300</v>
       </c>
-      <c r="V54" s="3">
+      <c r="W54" s="3">
         <v>2888000</v>
       </c>
     </row>
-    <row r="55" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -3379,8 +3508,9 @@
       <c r="T55" s="3"/>
       <c r="U55" s="3"/>
       <c r="V55" s="3"/>
-    </row>
-    <row r="56" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W55" s="3"/>
+    </row>
+    <row r="56" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -3403,78 +3533,82 @@
       <c r="T56" s="3"/>
       <c r="U56" s="3"/>
       <c r="V56" s="3"/>
-    </row>
-    <row r="57" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W56" s="3"/>
+    </row>
+    <row r="57" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>135100</v>
+      </c>
+      <c r="E57" s="3">
         <v>70200</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>69700</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>97700</v>
       </c>
-      <c r="G57" s="3">
+      <c r="H57" s="3">
         <v>114900</v>
       </c>
-      <c r="H57" s="3">
+      <c r="I57" s="3">
         <v>147400</v>
       </c>
-      <c r="I57" s="3">
+      <c r="J57" s="3">
         <v>112100</v>
       </c>
-      <c r="J57" s="3">
+      <c r="K57" s="3">
         <v>129300</v>
       </c>
-      <c r="K57" s="3">
+      <c r="L57" s="3">
         <v>133100</v>
       </c>
-      <c r="L57" s="3">
+      <c r="M57" s="3">
         <v>132400</v>
       </c>
-      <c r="M57" s="3">
+      <c r="N57" s="3">
         <v>104700</v>
       </c>
-      <c r="N57" s="3">
+      <c r="O57" s="3">
         <v>111600</v>
       </c>
-      <c r="O57" s="3">
+      <c r="P57" s="3">
         <v>100200</v>
       </c>
-      <c r="P57" s="3">
+      <c r="Q57" s="3">
         <v>111900</v>
       </c>
-      <c r="Q57" s="3">
+      <c r="R57" s="3">
         <v>119200</v>
       </c>
-      <c r="R57" s="3">
+      <c r="S57" s="3">
         <v>70200</v>
       </c>
-      <c r="S57" s="3">
+      <c r="T57" s="3">
         <v>75000</v>
       </c>
-      <c r="T57" s="3">
+      <c r="U57" s="3">
         <v>60500</v>
       </c>
-      <c r="U57" s="3">
+      <c r="V57" s="3">
         <v>282800</v>
       </c>
-      <c r="V57" s="3" t="s">
+      <c r="W57" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="58" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>70200</v>
+      </c>
+      <c r="E58" s="3">
         <v>82800</v>
-      </c>
-      <c r="E58" s="3" t="s">
-        <v>8</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>8</v>
@@ -3491,8 +3625,8 @@
       <c r="J58" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="K58" s="3">
-        <v>0</v>
+      <c r="K58" s="3" t="s">
+        <v>8</v>
       </c>
       <c r="L58" s="3">
         <v>0</v>
@@ -3527,97 +3661,103 @@
       <c r="V58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>5529000</v>
+      </c>
+      <c r="E59" s="3">
         <v>5317300</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>5237400</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>5259800</v>
       </c>
-      <c r="G59" s="3">
+      <c r="H59" s="3">
         <v>5219600</v>
       </c>
-      <c r="H59" s="3">
+      <c r="I59" s="3">
         <v>5231400</v>
       </c>
-      <c r="I59" s="3">
+      <c r="J59" s="3">
         <v>5687400</v>
       </c>
-      <c r="J59" s="3">
+      <c r="K59" s="3">
         <v>5206300</v>
       </c>
-      <c r="K59" s="3">
+      <c r="L59" s="3">
         <v>205400</v>
       </c>
-      <c r="L59" s="3">
+      <c r="M59" s="3">
         <v>187900</v>
       </c>
-      <c r="M59" s="3">
+      <c r="N59" s="3">
         <v>240200</v>
       </c>
-      <c r="N59" s="3">
+      <c r="O59" s="3">
         <v>241600</v>
       </c>
-      <c r="O59" s="3">
+      <c r="P59" s="3">
         <v>2202200</v>
       </c>
-      <c r="P59" s="3">
+      <c r="Q59" s="3">
         <v>2218300</v>
       </c>
-      <c r="Q59" s="3">
+      <c r="R59" s="3">
         <v>2208300</v>
       </c>
-      <c r="R59" s="3">
+      <c r="S59" s="3">
         <v>2197600</v>
       </c>
-      <c r="S59" s="3">
+      <c r="T59" s="3">
         <v>2158300</v>
       </c>
-      <c r="T59" s="3">
+      <c r="U59" s="3">
         <v>2137000</v>
       </c>
-      <c r="U59" s="3">
+      <c r="V59" s="3">
         <v>2175600</v>
       </c>
-      <c r="V59" s="3">
+      <c r="W59" s="3">
         <v>2223700</v>
       </c>
     </row>
-    <row r="60" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>5734300</v>
+      </c>
+      <c r="E60" s="3">
         <v>5470300</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>5307100</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>5357500</v>
       </c>
-      <c r="G60" s="3">
+      <c r="H60" s="3">
         <v>5334500</v>
       </c>
-      <c r="H60" s="3">
+      <c r="I60" s="3">
         <v>5378800</v>
       </c>
-      <c r="I60" s="3">
+      <c r="J60" s="3">
         <v>5550100</v>
       </c>
-      <c r="J60" s="3">
+      <c r="K60" s="3">
         <v>5335600</v>
       </c>
-      <c r="K60" s="3">
-        <v>0</v>
-      </c>
       <c r="L60" s="3">
         <v>0</v>
       </c>
@@ -3628,155 +3768,164 @@
         <v>0</v>
       </c>
       <c r="O60" s="3">
+        <v>0</v>
+      </c>
+      <c r="P60" s="3">
         <v>2302400</v>
       </c>
-      <c r="P60" s="3">
+      <c r="Q60" s="3">
         <v>2330200</v>
       </c>
-      <c r="Q60" s="3">
+      <c r="R60" s="3">
         <v>2327600</v>
       </c>
-      <c r="R60" s="3">
+      <c r="S60" s="3">
         <v>2267700</v>
       </c>
-      <c r="S60" s="3">
+      <c r="T60" s="3">
         <v>2233300</v>
       </c>
-      <c r="T60" s="3">
+      <c r="U60" s="3">
         <v>2197500</v>
       </c>
-      <c r="U60" s="3">
+      <c r="V60" s="3">
         <v>2199200</v>
       </c>
-      <c r="V60" s="3">
+      <c r="W60" s="3">
         <v>2223700</v>
       </c>
     </row>
-    <row r="61" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>606300</v>
+      </c>
+      <c r="E61" s="3">
         <v>463300</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>561500</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>646400</v>
       </c>
-      <c r="G61" s="3">
+      <c r="H61" s="3">
         <v>633800</v>
       </c>
-      <c r="H61" s="3">
+      <c r="I61" s="3">
         <v>686000</v>
       </c>
-      <c r="I61" s="3">
+      <c r="J61" s="3">
         <v>723900</v>
       </c>
-      <c r="J61" s="3">
+      <c r="K61" s="3">
         <v>820400</v>
       </c>
-      <c r="K61" s="3">
+      <c r="L61" s="3">
         <v>828200</v>
       </c>
-      <c r="L61" s="3">
+      <c r="M61" s="3">
         <v>762000</v>
       </c>
-      <c r="M61" s="3">
+      <c r="N61" s="3">
         <v>743900</v>
       </c>
-      <c r="N61" s="3">
+      <c r="O61" s="3">
         <v>702200</v>
       </c>
-      <c r="O61" s="3">
+      <c r="P61" s="3">
         <v>668500</v>
       </c>
-      <c r="P61" s="3">
+      <c r="Q61" s="3">
         <v>655400</v>
       </c>
-      <c r="Q61" s="3">
+      <c r="R61" s="3">
         <v>593200</v>
       </c>
-      <c r="R61" s="3">
+      <c r="S61" s="3">
         <v>496600</v>
       </c>
-      <c r="S61" s="3">
+      <c r="T61" s="3">
         <v>494700</v>
       </c>
-      <c r="T61" s="3">
+      <c r="U61" s="3">
         <v>445600</v>
       </c>
-      <c r="U61" s="3">
+      <c r="V61" s="3">
         <v>428500</v>
       </c>
-      <c r="V61" s="3">
+      <c r="W61" s="3">
         <v>396700</v>
       </c>
     </row>
-    <row r="62" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>77600</v>
+      </c>
+      <c r="E62" s="3">
         <v>40900</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>258300</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>248900</v>
       </c>
-      <c r="G62" s="3">
+      <c r="H62" s="3">
         <v>281100</v>
       </c>
-      <c r="H62" s="3">
+      <c r="I62" s="3">
         <v>195200</v>
       </c>
-      <c r="I62" s="3">
+      <c r="J62" s="3">
         <v>219100</v>
       </c>
-      <c r="J62" s="3">
+      <c r="K62" s="3">
         <v>266800</v>
       </c>
-      <c r="K62" s="3">
+      <c r="L62" s="3">
         <v>59900</v>
       </c>
-      <c r="L62" s="3">
+      <c r="M62" s="3">
         <v>34600</v>
       </c>
-      <c r="M62" s="3">
+      <c r="N62" s="3">
         <v>30300</v>
       </c>
-      <c r="N62" s="3">
+      <c r="O62" s="3">
         <v>33900</v>
       </c>
-      <c r="O62" s="3">
+      <c r="P62" s="3">
         <v>88200</v>
       </c>
-      <c r="P62" s="3">
+      <c r="Q62" s="3">
         <v>85900</v>
       </c>
-      <c r="Q62" s="3">
+      <c r="R62" s="3">
         <v>80900</v>
       </c>
-      <c r="R62" s="3">
+      <c r="S62" s="3">
         <v>97300</v>
       </c>
-      <c r="S62" s="3">
+      <c r="T62" s="3">
         <v>113500</v>
       </c>
-      <c r="T62" s="3">
+      <c r="U62" s="3">
         <v>114300</v>
       </c>
-      <c r="U62" s="3">
+      <c r="V62" s="3">
         <v>130400</v>
       </c>
-      <c r="V62" s="3">
+      <c r="W62" s="3">
         <v>45600</v>
       </c>
     </row>
-    <row r="63" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -3837,8 +3986,11 @@
       <c r="V63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -3899,8 +4051,11 @@
       <c r="V64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -3961,70 +4116,76 @@
       <c r="V65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>6447600</v>
+      </c>
+      <c r="E66" s="3">
         <v>6006000</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>6172600</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>6300700</v>
       </c>
-      <c r="G66" s="3">
+      <c r="H66" s="3">
         <v>6303700</v>
       </c>
-      <c r="H66" s="3">
+      <c r="I66" s="3">
         <v>6314700</v>
       </c>
-      <c r="I66" s="3">
+      <c r="J66" s="3">
         <v>6598200</v>
       </c>
-      <c r="J66" s="3">
+      <c r="K66" s="3">
         <v>6530400</v>
       </c>
-      <c r="K66" s="3">
+      <c r="L66" s="3">
         <v>6543000</v>
       </c>
-      <c r="L66" s="3">
+      <c r="M66" s="3">
         <v>6439000</v>
       </c>
-      <c r="M66" s="3">
+      <c r="N66" s="3">
         <v>6395400</v>
       </c>
-      <c r="N66" s="3">
+      <c r="O66" s="3">
         <v>6519100</v>
       </c>
-      <c r="O66" s="3">
+      <c r="P66" s="3">
         <v>3176700</v>
       </c>
-      <c r="P66" s="3">
+      <c r="Q66" s="3">
         <v>3186700</v>
       </c>
-      <c r="Q66" s="3">
+      <c r="R66" s="3">
         <v>3118200</v>
       </c>
-      <c r="R66" s="3">
+      <c r="S66" s="3">
         <v>2882000</v>
       </c>
-      <c r="S66" s="3">
+      <c r="T66" s="3">
         <v>2863800</v>
       </c>
-      <c r="T66" s="3">
+      <c r="U66" s="3">
         <v>2782400</v>
       </c>
-      <c r="U66" s="3">
+      <c r="V66" s="3">
         <v>2761600</v>
       </c>
-      <c r="V66" s="3">
+      <c r="W66" s="3">
         <v>2692300</v>
       </c>
     </row>
-    <row r="67" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -4047,8 +4208,9 @@
       <c r="T67" s="3"/>
       <c r="U67" s="3"/>
       <c r="V67" s="3"/>
-    </row>
-    <row r="68" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W67" s="3"/>
+    </row>
+    <row r="68" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -4109,8 +4271,11 @@
       <c r="V68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -4171,22 +4336,25 @@
       <c r="V69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
       <c r="D70" s="3">
-        <v>10400</v>
+        <v>0</v>
       </c>
       <c r="E70" s="3">
         <v>10400</v>
       </c>
       <c r="F70" s="3">
+        <v>10400</v>
+      </c>
+      <c r="G70" s="3">
         <v>15900</v>
-      </c>
-      <c r="G70" s="3">
-        <v>10300</v>
       </c>
       <c r="H70" s="3">
         <v>10300</v>
@@ -4204,10 +4372,10 @@
         <v>10300</v>
       </c>
       <c r="M70" s="3">
+        <v>10300</v>
+      </c>
+      <c r="N70" s="3">
         <v>20300</v>
-      </c>
-      <c r="N70" s="3">
-        <v>26300</v>
       </c>
       <c r="O70" s="3">
         <v>26300</v>
@@ -4225,16 +4393,19 @@
         <v>26300</v>
       </c>
       <c r="T70" s="3">
-        <v>29500</v>
+        <v>26300</v>
       </c>
       <c r="U70" s="3">
         <v>29500</v>
       </c>
       <c r="V70" s="3">
+        <v>29500</v>
+      </c>
+      <c r="W70" s="3">
         <v>43700</v>
       </c>
     </row>
-    <row r="71" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -4295,70 +4466,76 @@
       <c r="V71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-199600</v>
+      </c>
+      <c r="E72" s="3">
         <v>-176100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-188700</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-184000</v>
       </c>
-      <c r="G72" s="3">
+      <c r="H72" s="3">
         <v>-166700</v>
       </c>
-      <c r="H72" s="3">
+      <c r="I72" s="3">
         <v>-179800</v>
       </c>
-      <c r="I72" s="3">
+      <c r="J72" s="3">
         <v>-96700</v>
       </c>
-      <c r="J72" s="3">
+      <c r="K72" s="3">
         <v>-62000</v>
       </c>
-      <c r="K72" s="3">
+      <c r="L72" s="3">
         <v>-54900</v>
       </c>
-      <c r="L72" s="3">
+      <c r="M72" s="3">
         <v>-64300</v>
       </c>
-      <c r="M72" s="3">
+      <c r="N72" s="3">
         <v>-57200</v>
       </c>
-      <c r="N72" s="3">
+      <c r="O72" s="3">
         <v>-43700</v>
       </c>
-      <c r="O72" s="3">
+      <c r="P72" s="3">
         <v>-197100</v>
       </c>
-      <c r="P72" s="3">
+      <c r="Q72" s="3">
         <v>-252200</v>
       </c>
-      <c r="Q72" s="3">
+      <c r="R72" s="3">
         <v>-221200</v>
       </c>
-      <c r="R72" s="3">
+      <c r="S72" s="3">
         <v>-212700</v>
       </c>
-      <c r="S72" s="3">
+      <c r="T72" s="3">
         <v>-206700</v>
       </c>
-      <c r="T72" s="3">
+      <c r="U72" s="3">
         <v>-188800</v>
       </c>
-      <c r="U72" s="3">
+      <c r="V72" s="3">
         <v>-174300</v>
       </c>
-      <c r="V72" s="3">
+      <c r="W72" s="3">
         <v>-112800</v>
       </c>
     </row>
-    <row r="73" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -4419,8 +4596,11 @@
       <c r="V73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -4481,8 +4661,11 @@
       <c r="V74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -4543,70 +4726,76 @@
       <c r="V75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>488300</v>
+      </c>
+      <c r="E76" s="3">
         <v>389600</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>559800</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>371800</v>
       </c>
-      <c r="G76" s="3">
+      <c r="H76" s="3">
         <v>319300</v>
       </c>
-      <c r="H76" s="3">
+      <c r="I76" s="3">
         <v>14100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="J76" s="3">
         <v>349800</v>
       </c>
-      <c r="J76" s="3">
+      <c r="K76" s="3">
         <v>404800</v>
       </c>
-      <c r="K76" s="3">
+      <c r="L76" s="3">
         <v>329900</v>
       </c>
-      <c r="L76" s="3">
+      <c r="M76" s="3">
         <v>233100</v>
       </c>
-      <c r="M76" s="3">
+      <c r="N76" s="3">
         <v>88100</v>
       </c>
-      <c r="N76" s="3">
+      <c r="O76" s="3">
         <v>184600</v>
       </c>
-      <c r="O76" s="3">
+      <c r="P76" s="3">
         <v>51300</v>
       </c>
-      <c r="P76" s="3">
+      <c r="Q76" s="3">
         <v>14300</v>
       </c>
-      <c r="Q76" s="3">
+      <c r="R76" s="3">
         <v>73200</v>
       </c>
-      <c r="R76" s="3">
+      <c r="S76" s="3">
         <v>63000</v>
       </c>
-      <c r="S76" s="3">
+      <c r="T76" s="3">
         <v>51200</v>
       </c>
-      <c r="T76" s="3">
+      <c r="U76" s="3">
         <v>44500</v>
       </c>
-      <c r="U76" s="3">
+      <c r="V76" s="3">
         <v>44200</v>
       </c>
-      <c r="V76" s="3">
+      <c r="W76" s="3">
         <v>152000</v>
       </c>
     </row>
-    <row r="77" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -4667,137 +4856,146 @@
       <c r="V77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="2:22" x14ac:dyDescent="0.2">
+      <c r="W77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="2:23" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:22" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:23" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>44377</v>
+      </c>
+      <c r="E80" s="2">
         <v>44286</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>44196</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>44104</v>
       </c>
-      <c r="G80" s="2">
+      <c r="H80" s="2">
         <v>44012</v>
       </c>
-      <c r="H80" s="2">
+      <c r="I80" s="2">
         <v>43921</v>
       </c>
-      <c r="I80" s="2">
+      <c r="J80" s="2">
         <v>43830</v>
       </c>
-      <c r="J80" s="2">
+      <c r="K80" s="2">
         <v>43738</v>
       </c>
-      <c r="K80" s="2">
+      <c r="L80" s="2">
         <v>43646</v>
       </c>
-      <c r="L80" s="2">
+      <c r="M80" s="2">
         <v>43555</v>
       </c>
-      <c r="M80" s="2">
+      <c r="N80" s="2">
         <v>43465</v>
       </c>
-      <c r="N80" s="2">
+      <c r="O80" s="2">
         <v>43373</v>
       </c>
-      <c r="O80" s="2">
+      <c r="P80" s="2">
         <v>43281</v>
       </c>
-      <c r="P80" s="2">
+      <c r="Q80" s="2">
         <v>43190</v>
       </c>
-      <c r="Q80" s="2">
+      <c r="R80" s="2">
         <v>43100</v>
       </c>
-      <c r="R80" s="2">
+      <c r="S80" s="2">
         <v>43008</v>
       </c>
-      <c r="S80" s="2">
+      <c r="T80" s="2">
         <v>42916</v>
       </c>
-      <c r="T80" s="2">
+      <c r="U80" s="2">
         <v>42825</v>
       </c>
-      <c r="U80" s="2">
+      <c r="V80" s="2">
         <v>42735</v>
       </c>
-      <c r="V80" s="2">
+      <c r="W80" s="2">
         <v>42643</v>
       </c>
     </row>
-    <row r="81" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-23700</v>
+      </c>
+      <c r="E81" s="3">
         <v>12200</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-95600</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-17700</v>
       </c>
-      <c r="G81" s="3">
+      <c r="H81" s="3">
         <v>12700</v>
       </c>
-      <c r="H81" s="3">
+      <c r="I81" s="3">
         <v>-143500</v>
       </c>
-      <c r="I81" s="3">
+      <c r="J81" s="3">
         <v>-31900</v>
       </c>
-      <c r="J81" s="3">
+      <c r="K81" s="3">
         <v>-7900</v>
       </c>
-      <c r="K81" s="3">
+      <c r="L81" s="3">
         <v>9000</v>
       </c>
-      <c r="L81" s="3">
+      <c r="M81" s="3">
         <v>-1600</v>
       </c>
-      <c r="M81" s="3">
+      <c r="N81" s="3">
         <v>-16100</v>
       </c>
-      <c r="N81" s="3">
+      <c r="O81" s="3">
         <v>152800</v>
       </c>
-      <c r="O81" s="3">
+      <c r="P81" s="3">
         <v>54700</v>
       </c>
-      <c r="P81" s="3">
+      <c r="Q81" s="3">
         <v>-35700</v>
       </c>
-      <c r="Q81" s="3">
+      <c r="R81" s="3">
         <v>-9200</v>
       </c>
-      <c r="R81" s="3">
+      <c r="S81" s="3">
         <v>-6700</v>
       </c>
-      <c r="S81" s="3">
+      <c r="T81" s="3">
         <v>-18700</v>
       </c>
-      <c r="T81" s="3">
+      <c r="U81" s="3">
         <v>-15100</v>
       </c>
-      <c r="U81" s="3">
+      <c r="V81" s="3">
         <v>-67300</v>
       </c>
-      <c r="V81" s="3">
+      <c r="W81" s="3">
         <v>-7500</v>
       </c>
     </row>
-    <row r="82" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -4820,70 +5018,74 @@
       <c r="T82" s="3"/>
       <c r="U82" s="3"/>
       <c r="V82" s="3"/>
-    </row>
-    <row r="83" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W82" s="3"/>
+    </row>
+    <row r="83" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>7600</v>
+      </c>
+      <c r="E83" s="3">
         <v>6200</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>5900</v>
       </c>
-      <c r="F83" s="3">
-        <v>4700</v>
-      </c>
       <c r="G83" s="3">
-        <v>3400</v>
+        <v>-2400</v>
       </c>
       <c r="H83" s="3">
-        <v>2900</v>
+        <v>6700</v>
       </c>
       <c r="I83" s="3">
+        <v>6700</v>
+      </c>
+      <c r="J83" s="3">
         <v>41100</v>
       </c>
-      <c r="J83" s="3">
+      <c r="K83" s="3">
         <v>10700</v>
       </c>
-      <c r="K83" s="3">
+      <c r="L83" s="3">
         <v>10000</v>
       </c>
-      <c r="L83" s="3">
+      <c r="M83" s="3">
         <v>9000</v>
       </c>
-      <c r="M83" s="3">
+      <c r="N83" s="3">
         <v>8700</v>
       </c>
-      <c r="N83" s="3">
+      <c r="O83" s="3">
         <v>8000</v>
       </c>
-      <c r="O83" s="3">
+      <c r="P83" s="3">
         <v>10700</v>
       </c>
-      <c r="P83" s="3">
+      <c r="Q83" s="3">
         <v>11300</v>
       </c>
-      <c r="Q83" s="3">
+      <c r="R83" s="3">
         <v>10100</v>
       </c>
-      <c r="R83" s="3">
+      <c r="S83" s="3">
         <v>9200</v>
-      </c>
-      <c r="S83" s="3">
-        <v>8600</v>
       </c>
       <c r="T83" s="3">
         <v>8600</v>
       </c>
       <c r="U83" s="3">
+        <v>8600</v>
+      </c>
+      <c r="V83" s="3">
         <v>9300</v>
       </c>
-      <c r="V83" s="3">
+      <c r="W83" s="3">
         <v>5700</v>
       </c>
     </row>
-    <row r="84" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -4944,8 +5146,11 @@
       <c r="V84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -5006,8 +5211,11 @@
       <c r="V85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -5068,8 +5276,11 @@
       <c r="V86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -5130,8 +5341,11 @@
       <c r="V87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -5192,70 +5406,76 @@
       <c r="V88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-37900</v>
+      </c>
+      <c r="E89" s="3">
         <v>-20800</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>41700</v>
       </c>
-      <c r="F89" s="3">
-        <v>29600</v>
-      </c>
       <c r="G89" s="3">
-        <v>12500</v>
+        <v>-6100</v>
       </c>
       <c r="H89" s="3">
-        <v>35300</v>
+        <v>4200</v>
       </c>
       <c r="I89" s="3">
+        <v>79300</v>
+      </c>
+      <c r="J89" s="3">
         <v>110500</v>
       </c>
-      <c r="J89" s="3">
+      <c r="K89" s="3">
         <v>58700</v>
       </c>
-      <c r="K89" s="3">
+      <c r="L89" s="3">
         <v>-1300</v>
       </c>
-      <c r="L89" s="3">
+      <c r="M89" s="3">
         <v>38100</v>
       </c>
-      <c r="M89" s="3">
+      <c r="N89" s="3">
         <v>204700</v>
       </c>
-      <c r="N89" s="3">
+      <c r="O89" s="3">
         <v>177800</v>
       </c>
-      <c r="O89" s="3">
+      <c r="P89" s="3">
         <v>-42000</v>
       </c>
-      <c r="P89" s="3">
+      <c r="Q89" s="3">
         <v>800</v>
       </c>
-      <c r="Q89" s="3">
+      <c r="R89" s="3">
         <v>-31100</v>
       </c>
-      <c r="R89" s="3">
+      <c r="S89" s="3">
         <v>20300</v>
       </c>
-      <c r="S89" s="3">
+      <c r="T89" s="3">
         <v>-15900</v>
       </c>
-      <c r="T89" s="3">
+      <c r="U89" s="3">
         <v>32800</v>
       </c>
-      <c r="U89" s="3">
+      <c r="V89" s="3">
         <v>24200</v>
       </c>
-      <c r="V89" s="3">
+      <c r="W89" s="3">
         <v>8800</v>
       </c>
     </row>
-    <row r="90" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -5278,70 +5498,74 @@
       <c r="T90" s="3"/>
       <c r="U90" s="3"/>
       <c r="V90" s="3"/>
-    </row>
-    <row r="91" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W90" s="3"/>
+    </row>
+    <row r="91" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-4800</v>
+      </c>
+      <c r="E91" s="3">
         <v>-3200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-17800</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
+        <v>-6700</v>
+      </c>
+      <c r="H91" s="3">
         <v>-5000</v>
       </c>
-      <c r="G91" s="3">
-        <v>-5600</v>
-      </c>
-      <c r="H91" s="3">
-        <v>-6100</v>
-      </c>
       <c r="I91" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="J91" s="3">
         <v>-41400</v>
       </c>
-      <c r="J91" s="3">
+      <c r="K91" s="3">
         <v>-8200</v>
       </c>
-      <c r="K91" s="3">
+      <c r="L91" s="3">
         <v>-12800</v>
       </c>
-      <c r="L91" s="3">
+      <c r="M91" s="3">
         <v>-6400</v>
       </c>
-      <c r="M91" s="3">
+      <c r="N91" s="3">
         <v>-7400</v>
       </c>
-      <c r="N91" s="3">
+      <c r="O91" s="3">
         <v>-12100</v>
       </c>
-      <c r="O91" s="3">
+      <c r="P91" s="3">
         <v>-11000</v>
       </c>
-      <c r="P91" s="3">
+      <c r="Q91" s="3">
         <v>-9200</v>
       </c>
-      <c r="Q91" s="3">
+      <c r="R91" s="3">
         <v>-6600</v>
       </c>
-      <c r="R91" s="3">
+      <c r="S91" s="3">
         <v>-8300</v>
       </c>
-      <c r="S91" s="3">
+      <c r="T91" s="3">
         <v>-7600</v>
       </c>
-      <c r="T91" s="3">
+      <c r="U91" s="3">
         <v>-9400</v>
       </c>
-      <c r="U91" s="3">
+      <c r="V91" s="3">
         <v>-7400</v>
       </c>
-      <c r="V91" s="3">
+      <c r="W91" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="92" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -5402,8 +5626,11 @@
       <c r="V92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -5464,70 +5691,76 @@
       <c r="V93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>-99100</v>
+      </c>
+      <c r="E94" s="3">
         <v>67900</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>162300</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-68500</v>
       </c>
-      <c r="G94" s="3">
+      <c r="H94" s="3">
         <v>78800</v>
       </c>
-      <c r="H94" s="3">
+      <c r="I94" s="3">
         <v>60100</v>
       </c>
-      <c r="I94" s="3">
+      <c r="J94" s="3">
         <v>-263700</v>
       </c>
-      <c r="J94" s="3">
+      <c r="K94" s="3">
         <v>-46900</v>
       </c>
-      <c r="K94" s="3">
+      <c r="L94" s="3">
         <v>-96200</v>
       </c>
-      <c r="L94" s="3">
+      <c r="M94" s="3">
         <v>-58400</v>
       </c>
-      <c r="M94" s="3">
+      <c r="N94" s="3">
         <v>-750000</v>
       </c>
-      <c r="N94" s="3">
+      <c r="O94" s="3">
         <v>509000</v>
       </c>
-      <c r="O94" s="3">
+      <c r="P94" s="3">
         <v>73100</v>
       </c>
-      <c r="P94" s="3">
+      <c r="Q94" s="3">
         <v>-56700</v>
       </c>
-      <c r="Q94" s="3">
+      <c r="R94" s="3">
         <v>-72300</v>
       </c>
-      <c r="R94" s="3">
+      <c r="S94" s="3">
         <v>-28400</v>
       </c>
-      <c r="S94" s="3">
+      <c r="T94" s="3">
         <v>-9800</v>
       </c>
-      <c r="T94" s="3">
+      <c r="U94" s="3">
         <v>-28800</v>
       </c>
-      <c r="U94" s="3">
+      <c r="V94" s="3">
         <v>-60100</v>
       </c>
-      <c r="V94" s="3">
+      <c r="W94" s="3">
         <v>-14300</v>
       </c>
     </row>
-    <row r="95" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -5550,8 +5783,9 @@
       <c r="T95" s="3"/>
       <c r="U95" s="3"/>
       <c r="V95" s="3"/>
-    </row>
-    <row r="96" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W95" s="3"/>
+    </row>
+    <row r="96" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -5595,25 +5829,28 @@
         <v>0</v>
       </c>
       <c r="Q96" s="3">
+        <v>0</v>
+      </c>
+      <c r="R96" s="3">
         <v>-900</v>
       </c>
-      <c r="R96" s="3">
+      <c r="S96" s="3">
         <v>-500</v>
       </c>
-      <c r="S96" s="3">
+      <c r="T96" s="3">
         <v>-900</v>
       </c>
-      <c r="T96" s="3">
+      <c r="U96" s="3">
         <v>-1300</v>
       </c>
-      <c r="U96" s="3">
+      <c r="V96" s="3">
         <v>-1200</v>
       </c>
-      <c r="V96" s="3">
+      <c r="W96" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="97" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -5674,8 +5911,11 @@
       <c r="V97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -5736,8 +5976,11 @@
       <c r="V98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -5798,190 +6041,202 @@
       <c r="V99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="3:22" x14ac:dyDescent="0.2">
+      <c r="W99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>101900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-35900</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>-204600</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-1200</v>
       </c>
-      <c r="G100" s="3">
+      <c r="H100" s="3">
         <v>-74400</v>
       </c>
-      <c r="H100" s="3">
+      <c r="I100" s="3">
         <v>-148200</v>
       </c>
-      <c r="I100" s="3">
+      <c r="J100" s="3">
         <v>62400</v>
       </c>
-      <c r="J100" s="3">
+      <c r="K100" s="3">
         <v>-15600</v>
       </c>
-      <c r="K100" s="3">
+      <c r="L100" s="3">
         <v>75400</v>
       </c>
-      <c r="L100" s="3">
+      <c r="M100" s="3">
         <v>-6400</v>
       </c>
-      <c r="M100" s="3">
+      <c r="N100" s="3">
         <v>39500</v>
       </c>
-      <c r="N100" s="3">
+      <c r="O100" s="3">
         <v>32600</v>
       </c>
-      <c r="O100" s="3">
+      <c r="P100" s="3">
         <v>-6100</v>
       </c>
-      <c r="P100" s="3">
+      <c r="Q100" s="3">
         <v>49200</v>
       </c>
-      <c r="Q100" s="3">
+      <c r="R100" s="3">
         <v>69900</v>
       </c>
-      <c r="R100" s="3">
+      <c r="S100" s="3">
         <v>-3600</v>
       </c>
-      <c r="S100" s="3">
+      <c r="T100" s="3">
         <v>42600</v>
       </c>
-      <c r="T100" s="3">
+      <c r="U100" s="3">
         <v>6500</v>
       </c>
-      <c r="U100" s="3">
+      <c r="V100" s="3">
         <v>29700</v>
       </c>
-      <c r="V100" s="3">
+      <c r="W100" s="3">
         <v>-6600</v>
       </c>
     </row>
-    <row r="101" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E101" s="3">
         <v>-300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>700</v>
-      </c>
-      <c r="F101" s="3">
-        <v>100</v>
       </c>
       <c r="G101" s="3">
         <v>100</v>
       </c>
       <c r="H101" s="3">
+        <v>100</v>
+      </c>
+      <c r="I101" s="3">
         <v>500</v>
       </c>
-      <c r="I101" s="3">
+      <c r="J101" s="3">
         <v>1000</v>
       </c>
-      <c r="J101" s="3">
+      <c r="K101" s="3">
         <v>300</v>
       </c>
-      <c r="K101" s="3">
+      <c r="L101" s="3">
         <v>200</v>
       </c>
-      <c r="L101" s="3">
+      <c r="M101" s="3">
         <v>100</v>
-      </c>
-      <c r="M101" s="3">
-        <v>-100</v>
       </c>
       <c r="N101" s="3">
         <v>-100</v>
       </c>
       <c r="O101" s="3">
+        <v>-100</v>
+      </c>
+      <c r="P101" s="3">
         <v>-1100</v>
       </c>
-      <c r="P101" s="3">
+      <c r="Q101" s="3">
         <v>800</v>
       </c>
-      <c r="Q101" s="3">
+      <c r="R101" s="3">
         <v>400</v>
       </c>
-      <c r="R101" s="3">
+      <c r="S101" s="3">
         <v>-500</v>
       </c>
-      <c r="S101" s="3">
+      <c r="T101" s="3">
         <v>-800</v>
       </c>
-      <c r="T101" s="3">
+      <c r="U101" s="3">
         <v>1100</v>
       </c>
-      <c r="U101" s="3">
+      <c r="V101" s="3">
         <v>400</v>
       </c>
-      <c r="V101" s="3">
+      <c r="W101" s="3">
         <v>-1000</v>
       </c>
     </row>
-    <row r="102" spans="3:22" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:23" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-35500</v>
+      </c>
+      <c r="E102" s="3">
         <v>10900</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>100</v>
       </c>
-      <c r="F102" s="3">
-        <v>-40000</v>
-      </c>
       <c r="G102" s="3">
-        <v>17000</v>
+        <v>-75700</v>
       </c>
       <c r="H102" s="3">
-        <v>-52300</v>
+        <v>8800</v>
       </c>
       <c r="I102" s="3">
+        <v>-8400</v>
+      </c>
+      <c r="J102" s="3">
         <v>-89800</v>
       </c>
-      <c r="J102" s="3">
+      <c r="K102" s="3">
         <v>-3500</v>
       </c>
-      <c r="K102" s="3">
+      <c r="L102" s="3">
         <v>-21900</v>
       </c>
-      <c r="L102" s="3">
+      <c r="M102" s="3">
         <v>-26600</v>
       </c>
-      <c r="M102" s="3">
+      <c r="N102" s="3">
         <v>-505800</v>
       </c>
-      <c r="N102" s="3">
+      <c r="O102" s="3">
         <v>719300</v>
       </c>
-      <c r="O102" s="3">
+      <c r="P102" s="3">
         <v>23900</v>
       </c>
-      <c r="P102" s="3">
+      <c r="Q102" s="3">
         <v>-5900</v>
       </c>
-      <c r="Q102" s="3">
+      <c r="R102" s="3">
         <v>-33100</v>
       </c>
-      <c r="R102" s="3">
+      <c r="S102" s="3">
         <v>-12200</v>
       </c>
-      <c r="S102" s="3">
+      <c r="T102" s="3">
         <v>16100</v>
       </c>
-      <c r="T102" s="3">
+      <c r="U102" s="3">
         <v>11600</v>
       </c>
-      <c r="U102" s="3">
+      <c r="V102" s="3">
         <v>-6000</v>
       </c>
-      <c r="V102" s="3">
+      <c r="W102" s="3">
         <v>-13200</v>
       </c>
     </row>
